--- a/BackTest/2020-01-15 BackTest WAXP.xlsx
+++ b/BackTest/2020-01-15 BackTest WAXP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M164"/>
+  <dimension ref="A1:M165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>21.15</v>
+        <v>21.19</v>
       </c>
       <c r="C2" t="n">
         <v>21.15</v>
       </c>
       <c r="D2" t="n">
-        <v>21.15</v>
+        <v>21.19</v>
       </c>
       <c r="E2" t="n">
         <v>21.15</v>
       </c>
       <c r="F2" t="n">
-        <v>4063.9426</v>
+        <v>187258.3614</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0506666666667</v>
+        <v>21.04983333333336</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21.37</v>
+        <v>21.15</v>
       </c>
       <c r="C3" t="n">
-        <v>21.37</v>
+        <v>21.15</v>
       </c>
       <c r="D3" t="n">
-        <v>21.37</v>
+        <v>21.15</v>
       </c>
       <c r="E3" t="n">
-        <v>21.37</v>
+        <v>21.15</v>
       </c>
       <c r="F3" t="n">
-        <v>1000</v>
+        <v>4063.9426</v>
       </c>
       <c r="G3" t="n">
-        <v>21.05683333333337</v>
+        <v>21.0506666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21.21</v>
+        <v>21.37</v>
       </c>
       <c r="C4" t="n">
-        <v>21.2</v>
+        <v>21.37</v>
       </c>
       <c r="D4" t="n">
-        <v>21.21</v>
+        <v>21.37</v>
       </c>
       <c r="E4" t="n">
-        <v>21.2</v>
+        <v>21.37</v>
       </c>
       <c r="F4" t="n">
-        <v>11551.1406</v>
+        <v>1000</v>
       </c>
       <c r="G4" t="n">
-        <v>21.06100000000003</v>
+        <v>21.05683333333337</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>21.21</v>
       </c>
       <c r="C5" t="n">
-        <v>21.21</v>
+        <v>21.2</v>
       </c>
       <c r="D5" t="n">
         <v>21.21</v>
       </c>
       <c r="E5" t="n">
-        <v>21.21</v>
+        <v>21.2</v>
       </c>
       <c r="F5" t="n">
-        <v>163</v>
+        <v>11551.1406</v>
       </c>
       <c r="G5" t="n">
-        <v>21.06533333333336</v>
+        <v>21.06100000000003</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>21.21</v>
       </c>
       <c r="C6" t="n">
-        <v>21.2</v>
+        <v>21.21</v>
       </c>
       <c r="D6" t="n">
         <v>21.21</v>
       </c>
       <c r="E6" t="n">
-        <v>21.2</v>
+        <v>21.21</v>
       </c>
       <c r="F6" t="n">
-        <v>6790.7715</v>
+        <v>163</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0686666666667</v>
+        <v>21.06533333333336</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21.15</v>
+        <v>21.21</v>
       </c>
       <c r="C7" t="n">
-        <v>21.15</v>
+        <v>21.2</v>
       </c>
       <c r="D7" t="n">
-        <v>21.15</v>
+        <v>21.21</v>
       </c>
       <c r="E7" t="n">
-        <v>21.15</v>
+        <v>21.2</v>
       </c>
       <c r="F7" t="n">
-        <v>8279.234200000001</v>
+        <v>6790.7715</v>
       </c>
       <c r="G7" t="n">
-        <v>21.06783333333336</v>
+        <v>21.0686666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>21.15</v>
       </c>
       <c r="F8" t="n">
-        <v>13589.1472</v>
+        <v>8279.234200000001</v>
       </c>
       <c r="G8" t="n">
-        <v>21.07100000000003</v>
+        <v>21.06783333333336</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>21.29</v>
+        <v>21.15</v>
       </c>
       <c r="C9" t="n">
-        <v>21.29</v>
+        <v>21.15</v>
       </c>
       <c r="D9" t="n">
-        <v>21.29</v>
+        <v>21.15</v>
       </c>
       <c r="E9" t="n">
-        <v>21.29</v>
+        <v>21.15</v>
       </c>
       <c r="F9" t="n">
-        <v>58</v>
+        <v>13589.1472</v>
       </c>
       <c r="G9" t="n">
-        <v>21.0761666666667</v>
+        <v>21.07100000000003</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>21.15</v>
+        <v>21.29</v>
       </c>
       <c r="C10" t="n">
-        <v>21.15</v>
+        <v>21.29</v>
       </c>
       <c r="D10" t="n">
-        <v>21.15</v>
+        <v>21.29</v>
       </c>
       <c r="E10" t="n">
-        <v>21.15</v>
+        <v>21.29</v>
       </c>
       <c r="F10" t="n">
-        <v>4687.4511</v>
+        <v>58</v>
       </c>
       <c r="G10" t="n">
-        <v>21.07533333333337</v>
+        <v>21.0761666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,19 +751,19 @@
         <v>21.15</v>
       </c>
       <c r="C11" t="n">
-        <v>21.14</v>
+        <v>21.15</v>
       </c>
       <c r="D11" t="n">
         <v>21.15</v>
       </c>
       <c r="E11" t="n">
-        <v>21.14</v>
+        <v>21.15</v>
       </c>
       <c r="F11" t="n">
-        <v>45127.9702</v>
+        <v>4687.4511</v>
       </c>
       <c r="G11" t="n">
-        <v>21.07433333333337</v>
+        <v>21.07533333333337</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>21.29</v>
+        <v>21.15</v>
       </c>
       <c r="C12" t="n">
-        <v>21.29</v>
+        <v>21.14</v>
       </c>
       <c r="D12" t="n">
-        <v>21.29</v>
+        <v>21.15</v>
       </c>
       <c r="E12" t="n">
-        <v>21.29</v>
+        <v>21.14</v>
       </c>
       <c r="F12" t="n">
-        <v>58</v>
+        <v>45127.9702</v>
       </c>
       <c r="G12" t="n">
-        <v>21.07450000000004</v>
+        <v>21.07433333333337</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21.14</v>
+        <v>21.29</v>
       </c>
       <c r="C13" t="n">
-        <v>21.13</v>
+        <v>21.29</v>
       </c>
       <c r="D13" t="n">
-        <v>21.14</v>
+        <v>21.29</v>
       </c>
       <c r="E13" t="n">
-        <v>21.13</v>
+        <v>21.29</v>
       </c>
       <c r="F13" t="n">
-        <v>61780.8305</v>
+        <v>58</v>
       </c>
       <c r="G13" t="n">
-        <v>21.0731666666667</v>
+        <v>21.07450000000004</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,10 +853,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="C14" t="n">
         <v>21.13</v>
-      </c>
-      <c r="C14" t="n">
-        <v>21.14</v>
       </c>
       <c r="D14" t="n">
         <v>21.14</v>
@@ -865,10 +865,10 @@
         <v>21.13</v>
       </c>
       <c r="F14" t="n">
-        <v>576</v>
+        <v>61780.8305</v>
       </c>
       <c r="G14" t="n">
-        <v>21.07200000000004</v>
+        <v>21.0731666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>21.29</v>
+        <v>21.13</v>
       </c>
       <c r="C15" t="n">
-        <v>21.4</v>
+        <v>21.14</v>
       </c>
       <c r="D15" t="n">
-        <v>21.4</v>
+        <v>21.14</v>
       </c>
       <c r="E15" t="n">
-        <v>21.29</v>
+        <v>21.13</v>
       </c>
       <c r="F15" t="n">
-        <v>23368.57194299</v>
+        <v>576</v>
       </c>
       <c r="G15" t="n">
-        <v>21.07233333333337</v>
+        <v>21.07200000000004</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>21.2</v>
+        <v>21.29</v>
       </c>
       <c r="C16" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="D16" t="n">
         <v>21.4</v>
       </c>
       <c r="E16" t="n">
-        <v>21.2</v>
+        <v>21.29</v>
       </c>
       <c r="F16" t="n">
-        <v>37627.29611401</v>
+        <v>23368.57194299</v>
       </c>
       <c r="G16" t="n">
-        <v>21.07250000000004</v>
+        <v>21.07233333333337</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>21.14</v>
+        <v>21.2</v>
       </c>
       <c r="C17" t="n">
-        <v>21.14</v>
+        <v>21.2</v>
       </c>
       <c r="D17" t="n">
-        <v>21.14</v>
+        <v>21.4</v>
       </c>
       <c r="E17" t="n">
-        <v>21.14</v>
+        <v>21.2</v>
       </c>
       <c r="F17" t="n">
-        <v>21180.6067</v>
+        <v>37627.29611401</v>
       </c>
       <c r="G17" t="n">
-        <v>21.0716666666667</v>
+        <v>21.07250000000004</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>21.13</v>
+        <v>21.14</v>
       </c>
       <c r="C18" t="n">
-        <v>21.12</v>
+        <v>21.14</v>
       </c>
       <c r="D18" t="n">
-        <v>21.13</v>
+        <v>21.14</v>
       </c>
       <c r="E18" t="n">
-        <v>21.12</v>
+        <v>21.14</v>
       </c>
       <c r="F18" t="n">
-        <v>10880.8424</v>
+        <v>21180.6067</v>
       </c>
       <c r="G18" t="n">
-        <v>21.07050000000003</v>
+        <v>21.0716666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>21.12</v>
+        <v>21.13</v>
       </c>
       <c r="C19" t="n">
         <v>21.12</v>
       </c>
       <c r="D19" t="n">
+        <v>21.13</v>
+      </c>
+      <c r="E19" t="n">
         <v>21.12</v>
       </c>
-      <c r="E19" t="n">
-        <v>21.11</v>
-      </c>
       <c r="F19" t="n">
-        <v>16798.8443</v>
+        <v>10880.8424</v>
       </c>
       <c r="G19" t="n">
-        <v>21.07200000000003</v>
+        <v>21.07050000000003</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>21.2</v>
+        <v>21.12</v>
       </c>
       <c r="C20" t="n">
-        <v>21.2</v>
+        <v>21.12</v>
       </c>
       <c r="D20" t="n">
-        <v>21.2</v>
+        <v>21.12</v>
       </c>
       <c r="E20" t="n">
-        <v>21.2</v>
+        <v>21.11</v>
       </c>
       <c r="F20" t="n">
-        <v>5991.5938</v>
+        <v>16798.8443</v>
       </c>
       <c r="G20" t="n">
-        <v>21.0726666666667</v>
+        <v>21.07200000000003</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>21.2</v>
       </c>
       <c r="F21" t="n">
-        <v>1992</v>
+        <v>5991.5938</v>
       </c>
       <c r="G21" t="n">
-        <v>21.07433333333337</v>
+        <v>21.0726666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>21.2</v>
       </c>
       <c r="C22" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="D22" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="E22" t="n">
         <v>21.2</v>
       </c>
       <c r="F22" t="n">
-        <v>26160.6</v>
+        <v>1992</v>
       </c>
       <c r="G22" t="n">
-        <v>21.07933333333337</v>
+        <v>21.07433333333337</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="C23" t="n">
         <v>21.4</v>
@@ -1177,13 +1177,13 @@
         <v>21.4</v>
       </c>
       <c r="E23" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="F23" t="n">
-        <v>442.0194</v>
+        <v>26160.6</v>
       </c>
       <c r="G23" t="n">
-        <v>21.08550000000004</v>
+        <v>21.07933333333337</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>21.4</v>
       </c>
       <c r="C24" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="D24" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="E24" t="n">
         <v>21.4</v>
       </c>
       <c r="F24" t="n">
-        <v>39435.5371</v>
+        <v>442.0194</v>
       </c>
       <c r="G24" t="n">
-        <v>21.09333333333337</v>
+        <v>21.08550000000004</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="C25" t="n">
-        <v>21.69</v>
+        <v>21.5</v>
       </c>
       <c r="D25" t="n">
-        <v>21.69</v>
+        <v>21.5</v>
       </c>
       <c r="E25" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="F25" t="n">
-        <v>132172.696743</v>
+        <v>39435.5371</v>
       </c>
       <c r="G25" t="n">
-        <v>21.10583333333337</v>
+        <v>21.09333333333337</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C26" t="n">
         <v>21.69</v>
       </c>
-      <c r="C26" t="n">
-        <v>21.73</v>
-      </c>
       <c r="D26" t="n">
-        <v>21.73</v>
+        <v>21.69</v>
       </c>
       <c r="E26" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="F26" t="n">
-        <v>23842.3632</v>
+        <v>132172.696743</v>
       </c>
       <c r="G26" t="n">
-        <v>21.11183333333338</v>
+        <v>21.10583333333337</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,19 +1311,19 @@
         <v>21.69</v>
       </c>
       <c r="C27" t="n">
-        <v>21.69</v>
+        <v>21.73</v>
       </c>
       <c r="D27" t="n">
-        <v>21.69</v>
+        <v>21.73</v>
       </c>
       <c r="E27" t="n">
-        <v>21.69</v>
+        <v>21.6</v>
       </c>
       <c r="F27" t="n">
-        <v>6631.207</v>
+        <v>23842.3632</v>
       </c>
       <c r="G27" t="n">
-        <v>21.12000000000004</v>
+        <v>21.11183333333338</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>21.69</v>
       </c>
       <c r="F28" t="n">
-        <v>40419.5248</v>
+        <v>6631.207</v>
       </c>
       <c r="G28" t="n">
-        <v>21.12816666666671</v>
+        <v>21.12000000000004</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>21.73</v>
+        <v>21.69</v>
       </c>
       <c r="C29" t="n">
-        <v>21.74</v>
+        <v>21.69</v>
       </c>
       <c r="D29" t="n">
-        <v>21.74</v>
+        <v>21.69</v>
       </c>
       <c r="E29" t="n">
-        <v>21.73</v>
+        <v>21.69</v>
       </c>
       <c r="F29" t="n">
-        <v>50</v>
+        <v>40419.5248</v>
       </c>
       <c r="G29" t="n">
-        <v>21.14150000000004</v>
+        <v>21.12816666666671</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>21.4</v>
+        <v>21.73</v>
       </c>
       <c r="C30" t="n">
         <v>21.74</v>
@@ -1422,13 +1422,13 @@
         <v>21.74</v>
       </c>
       <c r="E30" t="n">
-        <v>21.4</v>
+        <v>21.73</v>
       </c>
       <c r="F30" t="n">
-        <v>809.8564</v>
+        <v>50</v>
       </c>
       <c r="G30" t="n">
-        <v>21.15533333333337</v>
+        <v>21.14150000000004</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,28 +1448,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>21.41</v>
+        <v>21.4</v>
       </c>
       <c r="C31" t="n">
-        <v>21.41</v>
+        <v>21.74</v>
       </c>
       <c r="D31" t="n">
-        <v>21.41</v>
+        <v>21.74</v>
       </c>
       <c r="E31" t="n">
-        <v>21.41</v>
+        <v>21.4</v>
       </c>
       <c r="F31" t="n">
-        <v>175.7705</v>
+        <v>809.8564</v>
       </c>
       <c r="G31" t="n">
-        <v>21.16550000000004</v>
+        <v>21.15533333333337</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1483,28 +1483,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>21.43</v>
+        <v>21.41</v>
       </c>
       <c r="C32" t="n">
-        <v>21.43</v>
+        <v>21.41</v>
       </c>
       <c r="D32" t="n">
-        <v>21.43</v>
+        <v>21.41</v>
       </c>
       <c r="E32" t="n">
-        <v>21.43</v>
+        <v>21.41</v>
       </c>
       <c r="F32" t="n">
-        <v>11199.253</v>
+        <v>175.7705</v>
       </c>
       <c r="G32" t="n">
-        <v>21.17650000000004</v>
+        <v>21.16550000000004</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1530,10 +1530,10 @@
         <v>21.43</v>
       </c>
       <c r="F33" t="n">
-        <v>3918.5319</v>
+        <v>11199.253</v>
       </c>
       <c r="G33" t="n">
-        <v>21.18866666666671</v>
+        <v>21.17650000000004</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1556,19 +1556,19 @@
         <v>21.43</v>
       </c>
       <c r="C34" t="n">
-        <v>21.4</v>
+        <v>21.43</v>
       </c>
       <c r="D34" t="n">
         <v>21.43</v>
       </c>
       <c r="E34" t="n">
-        <v>21.4</v>
+        <v>21.43</v>
       </c>
       <c r="F34" t="n">
-        <v>9938.7305</v>
+        <v>3918.5319</v>
       </c>
       <c r="G34" t="n">
-        <v>21.20016666666671</v>
+        <v>21.18866666666671</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>21.4</v>
+        <v>21.43</v>
       </c>
       <c r="C35" t="n">
         <v>21.4</v>
       </c>
       <c r="D35" t="n">
-        <v>21.4</v>
+        <v>21.43</v>
       </c>
       <c r="E35" t="n">
         <v>21.4</v>
       </c>
       <c r="F35" t="n">
-        <v>4400</v>
+        <v>9938.7305</v>
       </c>
       <c r="G35" t="n">
-        <v>21.20783333333338</v>
+        <v>21.20016666666671</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>21.49</v>
+        <v>21.4</v>
       </c>
       <c r="C36" t="n">
-        <v>21.49</v>
+        <v>21.4</v>
       </c>
       <c r="D36" t="n">
-        <v>21.49</v>
+        <v>21.4</v>
       </c>
       <c r="E36" t="n">
-        <v>21.49</v>
+        <v>21.4</v>
       </c>
       <c r="F36" t="n">
-        <v>11092.751</v>
+        <v>4400</v>
       </c>
       <c r="G36" t="n">
-        <v>21.21683333333338</v>
+        <v>21.20783333333338</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>21.49</v>
       </c>
       <c r="C37" t="n">
-        <v>21.8</v>
+        <v>21.49</v>
       </c>
       <c r="D37" t="n">
-        <v>21.8</v>
+        <v>21.49</v>
       </c>
       <c r="E37" t="n">
-        <v>21.4</v>
+        <v>21.49</v>
       </c>
       <c r="F37" t="n">
-        <v>164587.3589</v>
+        <v>11092.751</v>
       </c>
       <c r="G37" t="n">
-        <v>21.23100000000004</v>
+        <v>21.21683333333338</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>21.8</v>
+        <v>21.49</v>
       </c>
       <c r="C38" t="n">
         <v>21.8</v>
       </c>
       <c r="D38" t="n">
-        <v>21.95</v>
+        <v>21.8</v>
       </c>
       <c r="E38" t="n">
         <v>21.4</v>
       </c>
       <c r="F38" t="n">
-        <v>161904.7887</v>
+        <v>164587.3589</v>
       </c>
       <c r="G38" t="n">
-        <v>21.24500000000004</v>
+        <v>21.23100000000004</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,28 +1728,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>21.95</v>
+        <v>21.8</v>
       </c>
       <c r="C39" t="n">
-        <v>21.95</v>
+        <v>21.8</v>
       </c>
       <c r="D39" t="n">
         <v>21.95</v>
       </c>
       <c r="E39" t="n">
-        <v>21.95</v>
+        <v>21.4</v>
       </c>
       <c r="F39" t="n">
-        <v>96635.77589999999</v>
+        <v>161904.7887</v>
       </c>
       <c r="G39" t="n">
-        <v>21.26166666666671</v>
+        <v>21.24500000000004</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>21.61</v>
+        <v>21.95</v>
       </c>
       <c r="C40" t="n">
-        <v>21.61</v>
+        <v>21.95</v>
       </c>
       <c r="D40" t="n">
-        <v>21.61</v>
+        <v>21.95</v>
       </c>
       <c r="E40" t="n">
-        <v>21.61</v>
+        <v>21.95</v>
       </c>
       <c r="F40" t="n">
-        <v>985</v>
+        <v>96635.77589999999</v>
       </c>
       <c r="G40" t="n">
-        <v>21.2696666666667</v>
+        <v>21.26166666666671</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1801,19 +1801,19 @@
         <v>21.61</v>
       </c>
       <c r="C41" t="n">
-        <v>21.6</v>
+        <v>21.61</v>
       </c>
       <c r="D41" t="n">
         <v>21.61</v>
       </c>
       <c r="E41" t="n">
-        <v>21.6</v>
+        <v>21.61</v>
       </c>
       <c r="F41" t="n">
-        <v>16347.0378</v>
+        <v>985</v>
       </c>
       <c r="G41" t="n">
-        <v>21.27750000000004</v>
+        <v>21.2696666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>21.79</v>
+        <v>21.61</v>
       </c>
       <c r="C42" t="n">
-        <v>21.79</v>
+        <v>21.6</v>
       </c>
       <c r="D42" t="n">
-        <v>21.79</v>
+        <v>21.61</v>
       </c>
       <c r="E42" t="n">
-        <v>21.79</v>
+        <v>21.6</v>
       </c>
       <c r="F42" t="n">
-        <v>11216</v>
+        <v>16347.0378</v>
       </c>
       <c r="G42" t="n">
-        <v>21.2856666666667</v>
+        <v>21.27750000000004</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1871,19 @@
         <v>21.79</v>
       </c>
       <c r="C43" t="n">
-        <v>21.9</v>
+        <v>21.79</v>
       </c>
       <c r="D43" t="n">
-        <v>21.9</v>
+        <v>21.79</v>
       </c>
       <c r="E43" t="n">
         <v>21.79</v>
       </c>
       <c r="F43" t="n">
-        <v>6115.5718</v>
+        <v>11216</v>
       </c>
       <c r="G43" t="n">
-        <v>21.30133333333337</v>
+        <v>21.2856666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>21.9</v>
+        <v>21.79</v>
       </c>
       <c r="C44" t="n">
         <v>21.9</v>
@@ -1912,13 +1912,13 @@
         <v>21.9</v>
       </c>
       <c r="E44" t="n">
-        <v>21.9</v>
+        <v>21.79</v>
       </c>
       <c r="F44" t="n">
-        <v>44856</v>
+        <v>6115.5718</v>
       </c>
       <c r="G44" t="n">
-        <v>21.31700000000004</v>
+        <v>21.30133333333337</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>21.9</v>
       </c>
       <c r="F45" t="n">
-        <v>47186.9376</v>
+        <v>44856</v>
       </c>
       <c r="G45" t="n">
-        <v>21.3326666666667</v>
+        <v>21.31700000000004</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>21.89</v>
+        <v>21.9</v>
       </c>
       <c r="C46" t="n">
-        <v>21.89</v>
+        <v>21.9</v>
       </c>
       <c r="D46" t="n">
-        <v>21.89</v>
+        <v>21.9</v>
       </c>
       <c r="E46" t="n">
-        <v>21.89</v>
+        <v>21.9</v>
       </c>
       <c r="F46" t="n">
-        <v>11863.7586</v>
+        <v>47186.9376</v>
       </c>
       <c r="G46" t="n">
-        <v>21.3491666666667</v>
+        <v>21.3326666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>21.61</v>
+        <v>21.89</v>
       </c>
       <c r="C47" t="n">
-        <v>21.61</v>
+        <v>21.89</v>
       </c>
       <c r="D47" t="n">
-        <v>21.61</v>
+        <v>21.89</v>
       </c>
       <c r="E47" t="n">
-        <v>21.61</v>
+        <v>21.89</v>
       </c>
       <c r="F47" t="n">
-        <v>18300</v>
+        <v>11863.7586</v>
       </c>
       <c r="G47" t="n">
-        <v>21.36150000000004</v>
+        <v>21.3491666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>21.5</v>
+        <v>21.61</v>
       </c>
       <c r="C48" t="n">
-        <v>21.5</v>
+        <v>21.61</v>
       </c>
       <c r="D48" t="n">
-        <v>21.5</v>
+        <v>21.61</v>
       </c>
       <c r="E48" t="n">
-        <v>21.5</v>
+        <v>21.61</v>
       </c>
       <c r="F48" t="n">
-        <v>4400</v>
+        <v>18300</v>
       </c>
       <c r="G48" t="n">
-        <v>21.36483333333337</v>
+        <v>21.36150000000004</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>21.49</v>
+        <v>21.5</v>
       </c>
       <c r="C49" t="n">
-        <v>21.49</v>
+        <v>21.5</v>
       </c>
       <c r="D49" t="n">
-        <v>21.49</v>
+        <v>21.5</v>
       </c>
       <c r="E49" t="n">
-        <v>21.49</v>
+        <v>21.5</v>
       </c>
       <c r="F49" t="n">
         <v>4400</v>
       </c>
       <c r="G49" t="n">
-        <v>21.37466666666671</v>
+        <v>21.36483333333337</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>21.5</v>
+        <v>21.49</v>
       </c>
       <c r="C50" t="n">
-        <v>21.5</v>
+        <v>21.49</v>
       </c>
       <c r="D50" t="n">
-        <v>21.5</v>
+        <v>21.49</v>
       </c>
       <c r="E50" t="n">
-        <v>21.5</v>
+        <v>21.49</v>
       </c>
       <c r="F50" t="n">
-        <v>4364.2357</v>
+        <v>4400</v>
       </c>
       <c r="G50" t="n">
-        <v>21.3871666666667</v>
+        <v>21.37466666666671</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>21.49</v>
+        <v>21.5</v>
       </c>
       <c r="C51" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="D51" t="n">
-        <v>21.49</v>
+        <v>21.5</v>
       </c>
       <c r="E51" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="F51" t="n">
-        <v>3999.0605</v>
+        <v>4364.2357</v>
       </c>
       <c r="G51" t="n">
-        <v>21.40016666666671</v>
+        <v>21.3871666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>21.5</v>
+        <v>21.49</v>
       </c>
       <c r="C52" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="D52" t="n">
-        <v>21.5</v>
+        <v>21.49</v>
       </c>
       <c r="E52" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="F52" t="n">
-        <v>365.1752</v>
+        <v>3999.0605</v>
       </c>
       <c r="G52" t="n">
-        <v>21.41133333333338</v>
+        <v>21.40016666666671</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2233,16 +2233,20 @@
         <v>365.1752</v>
       </c>
       <c r="G53" t="n">
-        <v>21.42133333333338</v>
+        <v>21.41133333333338</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="K53" t="n">
+        <v>21.4</v>
+      </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
@@ -2268,7 +2272,7 @@
         <v>365.1752</v>
       </c>
       <c r="G54" t="n">
-        <v>21.42466666666671</v>
+        <v>21.42133333333338</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2277,8 +2281,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,32 +2298,40 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>21.41</v>
+        <v>21.5</v>
       </c>
       <c r="C55" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="D55" t="n">
-        <v>21.41</v>
+        <v>21.5</v>
       </c>
       <c r="E55" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="F55" t="n">
-        <v>133053.3387</v>
+        <v>365.1752</v>
       </c>
       <c r="G55" t="n">
-        <v>21.42300000000004</v>
+        <v>21.42466666666671</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,22 +2341,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>21.45</v>
+        <v>21.41</v>
       </c>
       <c r="C56" t="n">
-        <v>21.45</v>
+        <v>21.3</v>
       </c>
       <c r="D56" t="n">
-        <v>21.45</v>
+        <v>21.41</v>
       </c>
       <c r="E56" t="n">
-        <v>21.45</v>
+        <v>21.3</v>
       </c>
       <c r="F56" t="n">
-        <v>4396.4955</v>
+        <v>133053.3387</v>
       </c>
       <c r="G56" t="n">
-        <v>21.42766666666671</v>
+        <v>21.42300000000004</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2376,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>21.46</v>
+        <v>21.45</v>
       </c>
       <c r="C57" t="n">
         <v>21.45</v>
       </c>
       <c r="D57" t="n">
-        <v>21.46</v>
+        <v>21.45</v>
       </c>
       <c r="E57" t="n">
-        <v>21.3</v>
+        <v>21.45</v>
       </c>
       <c r="F57" t="n">
-        <v>62175.4013</v>
+        <v>4396.4955</v>
       </c>
       <c r="G57" t="n">
-        <v>21.43300000000004</v>
+        <v>21.42766666666671</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2411,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>21.45</v>
+        <v>21.46</v>
       </c>
       <c r="C58" t="n">
         <v>21.45</v>
       </c>
       <c r="D58" t="n">
-        <v>21.45</v>
+        <v>21.46</v>
       </c>
       <c r="E58" t="n">
-        <v>21.45</v>
+        <v>21.3</v>
       </c>
       <c r="F58" t="n">
-        <v>11000</v>
+        <v>62175.4013</v>
       </c>
       <c r="G58" t="n">
-        <v>21.43866666666671</v>
+        <v>21.43300000000004</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,10 +2458,10 @@
         <v>21.45</v>
       </c>
       <c r="F59" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="G59" t="n">
-        <v>21.44400000000004</v>
+        <v>21.43866666666671</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2472,13 +2490,13 @@
         <v>21.45</v>
       </c>
       <c r="E60" t="n">
-        <v>21.3</v>
+        <v>21.45</v>
       </c>
       <c r="F60" t="n">
-        <v>53772.674</v>
+        <v>8000</v>
       </c>
       <c r="G60" t="n">
-        <v>21.44883333333337</v>
+        <v>21.44400000000004</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2507,13 +2525,13 @@
         <v>21.45</v>
       </c>
       <c r="E61" t="n">
-        <v>21.45</v>
+        <v>21.3</v>
       </c>
       <c r="F61" t="n">
-        <v>3000</v>
+        <v>53772.674</v>
       </c>
       <c r="G61" t="n">
-        <v>21.45383333333337</v>
+        <v>21.44883333333337</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2551,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>21.3</v>
+        <v>21.45</v>
       </c>
       <c r="C62" t="n">
-        <v>21.25</v>
+        <v>21.45</v>
       </c>
       <c r="D62" t="n">
-        <v>21.3</v>
+        <v>21.45</v>
       </c>
       <c r="E62" t="n">
-        <v>21.25</v>
+        <v>21.45</v>
       </c>
       <c r="F62" t="n">
-        <v>1785.6627</v>
+        <v>3000</v>
       </c>
       <c r="G62" t="n">
-        <v>21.45550000000004</v>
+        <v>21.45383333333337</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2571,19 +2589,19 @@
         <v>21.3</v>
       </c>
       <c r="C63" t="n">
-        <v>21.3</v>
+        <v>21.25</v>
       </c>
       <c r="D63" t="n">
         <v>21.3</v>
       </c>
       <c r="E63" t="n">
-        <v>21.3</v>
+        <v>21.25</v>
       </c>
       <c r="F63" t="n">
-        <v>5995.8557</v>
+        <v>1785.6627</v>
       </c>
       <c r="G63" t="n">
-        <v>21.45433333333337</v>
+        <v>21.45550000000004</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2621,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>21.42</v>
+        <v>21.3</v>
       </c>
       <c r="C64" t="n">
-        <v>21.42</v>
+        <v>21.3</v>
       </c>
       <c r="D64" t="n">
-        <v>21.42</v>
+        <v>21.3</v>
       </c>
       <c r="E64" t="n">
-        <v>21.42</v>
+        <v>21.3</v>
       </c>
       <c r="F64" t="n">
-        <v>9353.197099999999</v>
+        <v>5995.8557</v>
       </c>
       <c r="G64" t="n">
-        <v>21.45800000000004</v>
+        <v>21.45433333333337</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2656,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>21.59</v>
+        <v>21.42</v>
       </c>
       <c r="C65" t="n">
-        <v>21.59</v>
+        <v>21.42</v>
       </c>
       <c r="D65" t="n">
-        <v>21.59</v>
+        <v>21.42</v>
       </c>
       <c r="E65" t="n">
-        <v>21.59</v>
+        <v>21.42</v>
       </c>
       <c r="F65" t="n">
-        <v>46.1606</v>
+        <v>9353.197099999999</v>
       </c>
       <c r="G65" t="n">
-        <v>21.46433333333337</v>
+        <v>21.45800000000004</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2676,19 +2694,19 @@
         <v>21.59</v>
       </c>
       <c r="C66" t="n">
-        <v>21.95</v>
+        <v>21.59</v>
       </c>
       <c r="D66" t="n">
-        <v>21.95</v>
+        <v>21.59</v>
       </c>
       <c r="E66" t="n">
         <v>21.59</v>
       </c>
       <c r="F66" t="n">
-        <v>122666.58325826</v>
+        <v>46.1606</v>
       </c>
       <c r="G66" t="n">
-        <v>21.47683333333337</v>
+        <v>21.46433333333337</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2726,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>21.6</v>
+        <v>21.59</v>
       </c>
       <c r="C67" t="n">
-        <v>21.6</v>
+        <v>21.95</v>
       </c>
       <c r="D67" t="n">
-        <v>21.6</v>
+        <v>21.95</v>
       </c>
       <c r="E67" t="n">
-        <v>21.6</v>
+        <v>21.59</v>
       </c>
       <c r="F67" t="n">
-        <v>5632.423</v>
+        <v>122666.58325826</v>
       </c>
       <c r="G67" t="n">
-        <v>21.48433333333337</v>
+        <v>21.47683333333337</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2746,19 +2764,19 @@
         <v>21.6</v>
       </c>
       <c r="C68" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="D68" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="E68" t="n">
         <v>21.6</v>
       </c>
       <c r="F68" t="n">
-        <v>3967.6984</v>
+        <v>5632.423</v>
       </c>
       <c r="G68" t="n">
-        <v>21.49350000000003</v>
+        <v>21.48433333333337</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2781,19 +2799,19 @@
         <v>21.6</v>
       </c>
       <c r="C69" t="n">
-        <v>21.79</v>
+        <v>21.7</v>
       </c>
       <c r="D69" t="n">
-        <v>21.79</v>
+        <v>21.7</v>
       </c>
       <c r="E69" t="n">
         <v>21.6</v>
       </c>
       <c r="F69" t="n">
-        <v>2237.0469</v>
+        <v>3967.6984</v>
       </c>
       <c r="G69" t="n">
-        <v>21.50183333333337</v>
+        <v>21.49350000000003</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2831,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="C70" t="n">
-        <v>21.41</v>
+        <v>21.79</v>
       </c>
       <c r="D70" t="n">
-        <v>21.5</v>
+        <v>21.79</v>
       </c>
       <c r="E70" t="n">
-        <v>21.41</v>
+        <v>21.6</v>
       </c>
       <c r="F70" t="n">
-        <v>122666.5832</v>
+        <v>2237.0469</v>
       </c>
       <c r="G70" t="n">
-        <v>21.5061666666667</v>
+        <v>21.50183333333337</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2866,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>21.69</v>
+        <v>21.5</v>
       </c>
       <c r="C71" t="n">
-        <v>21.69</v>
+        <v>21.41</v>
       </c>
       <c r="D71" t="n">
-        <v>21.69</v>
+        <v>21.5</v>
       </c>
       <c r="E71" t="n">
-        <v>21.69</v>
+        <v>21.41</v>
       </c>
       <c r="F71" t="n">
-        <v>2332.9426</v>
+        <v>122666.5832</v>
       </c>
       <c r="G71" t="n">
-        <v>21.51533333333337</v>
+        <v>21.5061666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,35 +2901,31 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>21.59</v>
+        <v>21.69</v>
       </c>
       <c r="C72" t="n">
-        <v>21.59</v>
+        <v>21.69</v>
       </c>
       <c r="D72" t="n">
-        <v>21.59</v>
+        <v>21.69</v>
       </c>
       <c r="E72" t="n">
-        <v>21.59</v>
+        <v>21.69</v>
       </c>
       <c r="F72" t="n">
-        <v>50</v>
+        <v>2332.9426</v>
       </c>
       <c r="G72" t="n">
-        <v>21.52033333333337</v>
+        <v>21.51533333333337</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>21.69</v>
-      </c>
-      <c r="K72" t="n">
-        <v>21.69</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
@@ -2922,22 +2936,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>21.47</v>
+        <v>21.59</v>
       </c>
       <c r="C73" t="n">
-        <v>21.47</v>
+        <v>21.59</v>
       </c>
       <c r="D73" t="n">
-        <v>21.47</v>
+        <v>21.59</v>
       </c>
       <c r="E73" t="n">
-        <v>21.47</v>
+        <v>21.59</v>
       </c>
       <c r="F73" t="n">
-        <v>9319</v>
+        <v>50</v>
       </c>
       <c r="G73" t="n">
-        <v>21.52600000000003</v>
+        <v>21.52033333333337</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2946,14 +2960,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>21.69</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2963,22 +2971,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>21.79</v>
+        <v>21.47</v>
       </c>
       <c r="C74" t="n">
-        <v>21.79</v>
+        <v>21.47</v>
       </c>
       <c r="D74" t="n">
-        <v>21.79</v>
+        <v>21.47</v>
       </c>
       <c r="E74" t="n">
-        <v>21.79</v>
+        <v>21.47</v>
       </c>
       <c r="F74" t="n">
-        <v>30.0079</v>
+        <v>9319</v>
       </c>
       <c r="G74" t="n">
-        <v>21.53683333333336</v>
+        <v>21.52600000000003</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2987,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>21.69</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3004,22 +3006,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>21.5</v>
+        <v>21.79</v>
       </c>
       <c r="C75" t="n">
-        <v>21.5</v>
+        <v>21.79</v>
       </c>
       <c r="D75" t="n">
-        <v>21.5</v>
+        <v>21.79</v>
       </c>
       <c r="E75" t="n">
-        <v>21.5</v>
+        <v>21.79</v>
       </c>
       <c r="F75" t="n">
-        <v>11667.4536</v>
+        <v>30.0079</v>
       </c>
       <c r="G75" t="n">
-        <v>21.53850000000002</v>
+        <v>21.53683333333336</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3039,22 +3041,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="C76" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="D76" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="E76" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="F76" t="n">
-        <v>7090</v>
+        <v>11667.4536</v>
       </c>
       <c r="G76" t="n">
-        <v>21.54516666666669</v>
+        <v>21.53850000000002</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3074,22 +3076,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>21.59</v>
+        <v>21.6</v>
       </c>
       <c r="C77" t="n">
-        <v>21.59</v>
+        <v>21.6</v>
       </c>
       <c r="D77" t="n">
-        <v>21.59</v>
+        <v>21.6</v>
       </c>
       <c r="E77" t="n">
-        <v>21.59</v>
+        <v>21.6</v>
       </c>
       <c r="F77" t="n">
-        <v>2309.0277</v>
+        <v>7090</v>
       </c>
       <c r="G77" t="n">
-        <v>21.55266666666669</v>
+        <v>21.54516666666669</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3121,10 +3123,10 @@
         <v>21.59</v>
       </c>
       <c r="F78" t="n">
-        <v>6950.5223</v>
+        <v>2309.0277</v>
       </c>
       <c r="G78" t="n">
-        <v>21.56050000000002</v>
+        <v>21.55266666666669</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3144,22 +3146,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>21.6</v>
+        <v>21.59</v>
       </c>
       <c r="C79" t="n">
-        <v>21.6</v>
+        <v>21.59</v>
       </c>
       <c r="D79" t="n">
-        <v>21.6</v>
+        <v>21.59</v>
       </c>
       <c r="E79" t="n">
-        <v>21.6</v>
+        <v>21.59</v>
       </c>
       <c r="F79" t="n">
-        <v>7216.3845</v>
+        <v>6950.5223</v>
       </c>
       <c r="G79" t="n">
-        <v>21.56850000000002</v>
+        <v>21.56050000000002</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3191,10 +3193,10 @@
         <v>21.6</v>
       </c>
       <c r="F80" t="n">
-        <v>272.8636</v>
+        <v>7216.3845</v>
       </c>
       <c r="G80" t="n">
-        <v>21.57516666666669</v>
+        <v>21.56850000000002</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3214,22 +3216,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>21.59</v>
+        <v>21.6</v>
       </c>
       <c r="C81" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="D81" t="n">
-        <v>21.59</v>
+        <v>21.6</v>
       </c>
       <c r="E81" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="F81" t="n">
-        <v>11680.7284</v>
+        <v>272.8636</v>
       </c>
       <c r="G81" t="n">
-        <v>21.58016666666668</v>
+        <v>21.57516666666669</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3249,22 +3251,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>21.5</v>
+        <v>21.59</v>
       </c>
       <c r="C82" t="n">
         <v>21.5</v>
       </c>
       <c r="D82" t="n">
-        <v>21.5</v>
+        <v>21.59</v>
       </c>
       <c r="E82" t="n">
         <v>21.5</v>
       </c>
       <c r="F82" t="n">
-        <v>6003.8462</v>
+        <v>11680.7284</v>
       </c>
       <c r="G82" t="n">
-        <v>21.58183333333335</v>
+        <v>21.58016666666668</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3296,10 +3298,10 @@
         <v>21.5</v>
       </c>
       <c r="F83" t="n">
-        <v>3848.3524</v>
+        <v>6003.8462</v>
       </c>
       <c r="G83" t="n">
-        <v>21.58350000000002</v>
+        <v>21.58183333333335</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3331,7 +3333,7 @@
         <v>21.5</v>
       </c>
       <c r="F84" t="n">
-        <v>39366.7979</v>
+        <v>3848.3524</v>
       </c>
       <c r="G84" t="n">
         <v>21.58350000000002</v>
@@ -3357,35 +3359,29 @@
         <v>21.5</v>
       </c>
       <c r="C85" t="n">
-        <v>21.46</v>
+        <v>21.5</v>
       </c>
       <c r="D85" t="n">
         <v>21.5</v>
       </c>
       <c r="E85" t="n">
-        <v>21.46</v>
+        <v>21.5</v>
       </c>
       <c r="F85" t="n">
-        <v>59050.6962</v>
+        <v>39366.7979</v>
       </c>
       <c r="G85" t="n">
-        <v>21.57966666666668</v>
+        <v>21.58350000000002</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>21.5</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3395,22 +3391,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>21.46</v>
+        <v>21.5</v>
       </c>
       <c r="C86" t="n">
         <v>21.46</v>
       </c>
       <c r="D86" t="n">
-        <v>21.46</v>
+        <v>21.5</v>
       </c>
       <c r="E86" t="n">
         <v>21.46</v>
       </c>
       <c r="F86" t="n">
-        <v>626.1446</v>
+        <v>59050.6962</v>
       </c>
       <c r="G86" t="n">
-        <v>21.57516666666668</v>
+        <v>21.57966666666668</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3420,11 +3416,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3446,26 +3438,20 @@
         <v>21.46</v>
       </c>
       <c r="F87" t="n">
-        <v>33263.7995</v>
+        <v>626.1446</v>
       </c>
       <c r="G87" t="n">
-        <v>21.57133333333335</v>
+        <v>21.57516666666668</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>21.46</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3475,22 +3461,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>21.47</v>
+        <v>21.46</v>
       </c>
       <c r="C88" t="n">
-        <v>21.59</v>
+        <v>21.46</v>
       </c>
       <c r="D88" t="n">
-        <v>21.59</v>
+        <v>21.46</v>
       </c>
       <c r="E88" t="n">
         <v>21.46</v>
       </c>
       <c r="F88" t="n">
-        <v>25212.0027</v>
+        <v>33263.7995</v>
       </c>
       <c r="G88" t="n">
-        <v>21.56966666666668</v>
+        <v>21.57133333333335</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3500,11 +3486,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3514,38 +3496,32 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>21.46</v>
+        <v>21.47</v>
       </c>
       <c r="C89" t="n">
-        <v>21.46</v>
+        <v>21.59</v>
       </c>
       <c r="D89" t="n">
-        <v>21.46</v>
+        <v>21.59</v>
       </c>
       <c r="E89" t="n">
         <v>21.46</v>
       </c>
       <c r="F89" t="n">
-        <v>2633.0952</v>
+        <v>25212.0027</v>
       </c>
       <c r="G89" t="n">
-        <v>21.56500000000001</v>
+        <v>21.56966666666668</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>21.59</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3567,10 +3543,10 @@
         <v>21.46</v>
       </c>
       <c r="F90" t="n">
-        <v>16579.7722</v>
+        <v>2633.0952</v>
       </c>
       <c r="G90" t="n">
-        <v>21.56033333333335</v>
+        <v>21.56500000000001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3580,11 +3556,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3606,10 +3578,10 @@
         <v>21.46</v>
       </c>
       <c r="F91" t="n">
-        <v>29459.6627</v>
+        <v>16579.7722</v>
       </c>
       <c r="G91" t="n">
-        <v>21.56116666666668</v>
+        <v>21.56033333333335</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3619,11 +3591,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3633,22 +3601,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>21.43</v>
+        <v>21.46</v>
       </c>
       <c r="C92" t="n">
-        <v>21.35</v>
+        <v>21.46</v>
       </c>
       <c r="D92" t="n">
-        <v>21.43</v>
+        <v>21.46</v>
       </c>
       <c r="E92" t="n">
-        <v>21.35</v>
+        <v>21.46</v>
       </c>
       <c r="F92" t="n">
-        <v>271709.757</v>
+        <v>29459.6627</v>
       </c>
       <c r="G92" t="n">
-        <v>21.55983333333334</v>
+        <v>21.56116666666668</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3658,11 +3626,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3672,22 +3636,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>21.35</v>
+        <v>21.43</v>
       </c>
       <c r="C93" t="n">
         <v>21.35</v>
       </c>
       <c r="D93" t="n">
-        <v>21.35</v>
+        <v>21.43</v>
       </c>
       <c r="E93" t="n">
         <v>21.35</v>
       </c>
       <c r="F93" t="n">
-        <v>599</v>
+        <v>271709.757</v>
       </c>
       <c r="G93" t="n">
-        <v>21.55850000000001</v>
+        <v>21.55983333333334</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3697,11 +3661,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3711,19 +3671,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>21.4</v>
+        <v>21.35</v>
       </c>
       <c r="C94" t="n">
-        <v>21.4</v>
+        <v>21.35</v>
       </c>
       <c r="D94" t="n">
-        <v>21.4</v>
+        <v>21.35</v>
       </c>
       <c r="E94" t="n">
-        <v>21.4</v>
+        <v>21.35</v>
       </c>
       <c r="F94" t="n">
-        <v>7302.8165</v>
+        <v>599</v>
       </c>
       <c r="G94" t="n">
         <v>21.55850000000001</v>
@@ -3736,11 +3696,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3750,22 +3706,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>21.35</v>
+        <v>21.4</v>
       </c>
       <c r="C95" t="n">
-        <v>21.35</v>
+        <v>21.4</v>
       </c>
       <c r="D95" t="n">
-        <v>21.35</v>
+        <v>21.4</v>
       </c>
       <c r="E95" t="n">
-        <v>21.35</v>
+        <v>21.4</v>
       </c>
       <c r="F95" t="n">
-        <v>2336.0655</v>
+        <v>7302.8165</v>
       </c>
       <c r="G95" t="n">
-        <v>21.55766666666667</v>
+        <v>21.55850000000001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3775,11 +3731,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3789,22 +3741,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>21.32</v>
+        <v>21.35</v>
       </c>
       <c r="C96" t="n">
-        <v>21.31</v>
+        <v>21.35</v>
       </c>
       <c r="D96" t="n">
-        <v>21.32</v>
+        <v>21.35</v>
       </c>
       <c r="E96" t="n">
-        <v>21.31</v>
+        <v>21.35</v>
       </c>
       <c r="F96" t="n">
-        <v>152410.124</v>
+        <v>2336.0655</v>
       </c>
       <c r="G96" t="n">
-        <v>21.55466666666667</v>
+        <v>21.55766666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3814,11 +3766,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3828,22 +3776,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="C97" t="n">
         <v>21.31</v>
       </c>
-      <c r="C97" t="n">
-        <v>21.3</v>
-      </c>
       <c r="D97" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="E97" t="n">
         <v>21.31</v>
       </c>
-      <c r="E97" t="n">
-        <v>21.3</v>
-      </c>
       <c r="F97" t="n">
-        <v>9865.874900000001</v>
+        <v>152410.124</v>
       </c>
       <c r="G97" t="n">
-        <v>21.54633333333334</v>
+        <v>21.55466666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3853,11 +3801,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3867,38 +3811,32 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>21.3</v>
+        <v>21.31</v>
       </c>
       <c r="C98" t="n">
         <v>21.3</v>
       </c>
       <c r="D98" t="n">
-        <v>21.3</v>
+        <v>21.31</v>
       </c>
       <c r="E98" t="n">
         <v>21.3</v>
       </c>
       <c r="F98" t="n">
-        <v>68755.6652</v>
+        <v>9865.874900000001</v>
       </c>
       <c r="G98" t="n">
-        <v>21.538</v>
+        <v>21.54633333333334</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>21.3</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3908,38 +3846,32 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="C99" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="D99" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="E99" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="F99" t="n">
-        <v>2012.1123</v>
+        <v>68755.6652</v>
       </c>
       <c r="G99" t="n">
-        <v>21.5305</v>
+        <v>21.538</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>21.3</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3961,26 +3893,20 @@
         <v>21.5</v>
       </c>
       <c r="F100" t="n">
-        <v>30542.1583</v>
+        <v>2012.1123</v>
       </c>
       <c r="G100" t="n">
-        <v>21.52866666666667</v>
+        <v>21.5305</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>21.5</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3993,19 +3919,19 @@
         <v>21.5</v>
       </c>
       <c r="C101" t="n">
-        <v>21.59</v>
+        <v>21.5</v>
       </c>
       <c r="D101" t="n">
-        <v>21.59</v>
+        <v>21.5</v>
       </c>
       <c r="E101" t="n">
         <v>21.5</v>
       </c>
       <c r="F101" t="n">
-        <v>1038.6713</v>
+        <v>30542.1583</v>
       </c>
       <c r="G101" t="n">
-        <v>21.5285</v>
+        <v>21.52866666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4015,11 +3941,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4029,7 +3951,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>21.59</v>
+        <v>21.5</v>
       </c>
       <c r="C102" t="n">
         <v>21.59</v>
@@ -4038,13 +3960,13 @@
         <v>21.59</v>
       </c>
       <c r="E102" t="n">
-        <v>21.59</v>
+        <v>21.5</v>
       </c>
       <c r="F102" t="n">
-        <v>500</v>
+        <v>1038.6713</v>
       </c>
       <c r="G102" t="n">
-        <v>21.52516666666667</v>
+        <v>21.5285</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4054,11 +3976,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4080,10 +3998,10 @@
         <v>21.59</v>
       </c>
       <c r="F103" t="n">
-        <v>3356.1842</v>
+        <v>500</v>
       </c>
       <c r="G103" t="n">
-        <v>21.52</v>
+        <v>21.52516666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4093,11 +4011,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4107,22 +4021,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>21.6</v>
+        <v>21.59</v>
       </c>
       <c r="C104" t="n">
-        <v>21.73</v>
+        <v>21.59</v>
       </c>
       <c r="D104" t="n">
-        <v>21.73</v>
+        <v>21.59</v>
       </c>
       <c r="E104" t="n">
-        <v>21.6</v>
+        <v>21.59</v>
       </c>
       <c r="F104" t="n">
-        <v>225</v>
+        <v>3356.1842</v>
       </c>
       <c r="G104" t="n">
-        <v>21.51716666666666</v>
+        <v>21.52</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4132,11 +4046,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4149,19 +4059,19 @@
         <v>21.6</v>
       </c>
       <c r="C105" t="n">
-        <v>21.6</v>
+        <v>21.73</v>
       </c>
       <c r="D105" t="n">
-        <v>21.6</v>
+        <v>21.73</v>
       </c>
       <c r="E105" t="n">
         <v>21.6</v>
       </c>
       <c r="F105" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="G105" t="n">
-        <v>21.51216666666666</v>
+        <v>21.51716666666666</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4171,11 +4081,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4197,10 +4103,10 @@
         <v>21.6</v>
       </c>
       <c r="F106" t="n">
-        <v>985.2352</v>
+        <v>200</v>
       </c>
       <c r="G106" t="n">
-        <v>21.50733333333333</v>
+        <v>21.51216666666666</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4210,11 +4116,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4224,38 +4126,32 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>21.72</v>
+        <v>21.6</v>
       </c>
       <c r="C107" t="n">
-        <v>21.73</v>
+        <v>21.6</v>
       </c>
       <c r="D107" t="n">
-        <v>21.73</v>
+        <v>21.6</v>
       </c>
       <c r="E107" t="n">
-        <v>21.72</v>
+        <v>21.6</v>
       </c>
       <c r="F107" t="n">
-        <v>201</v>
+        <v>985.2352</v>
       </c>
       <c r="G107" t="n">
-        <v>21.50933333333333</v>
+        <v>21.50733333333333</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>21.6</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4265,7 +4161,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>21.62</v>
+        <v>21.72</v>
       </c>
       <c r="C108" t="n">
         <v>21.73</v>
@@ -4274,29 +4170,23 @@
         <v>21.73</v>
       </c>
       <c r="E108" t="n">
-        <v>21.61</v>
+        <v>21.72</v>
       </c>
       <c r="F108" t="n">
-        <v>895.4906</v>
+        <v>201</v>
       </c>
       <c r="G108" t="n">
-        <v>21.51316666666666</v>
+        <v>21.50933333333333</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>21.73</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4306,22 +4196,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>21.61</v>
+        <v>21.62</v>
       </c>
       <c r="C109" t="n">
-        <v>21.61</v>
+        <v>21.73</v>
       </c>
       <c r="D109" t="n">
-        <v>21.61</v>
+        <v>21.73</v>
       </c>
       <c r="E109" t="n">
         <v>21.61</v>
       </c>
       <c r="F109" t="n">
-        <v>500</v>
+        <v>895.4906</v>
       </c>
       <c r="G109" t="n">
-        <v>21.51516666666666</v>
+        <v>21.51316666666666</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4331,11 +4221,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4348,16 +4234,16 @@
         <v>21.61</v>
       </c>
       <c r="C110" t="n">
-        <v>21.5</v>
+        <v>21.61</v>
       </c>
       <c r="D110" t="n">
         <v>21.61</v>
       </c>
       <c r="E110" t="n">
-        <v>21.5</v>
+        <v>21.61</v>
       </c>
       <c r="F110" t="n">
-        <v>4243.8916</v>
+        <v>500</v>
       </c>
       <c r="G110" t="n">
         <v>21.51516666666666</v>
@@ -4370,11 +4256,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4384,19 +4266,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>21.5</v>
+        <v>21.61</v>
       </c>
       <c r="C111" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="D111" t="n">
-        <v>21.5</v>
+        <v>21.61</v>
       </c>
       <c r="E111" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="F111" t="n">
-        <v>113015.2786</v>
+        <v>4243.8916</v>
       </c>
       <c r="G111" t="n">
         <v>21.51516666666666</v>
@@ -4409,11 +4291,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4423,22 +4301,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>21.61</v>
+        <v>21.5</v>
       </c>
       <c r="C112" t="n">
-        <v>21.61</v>
+        <v>21.4</v>
       </c>
       <c r="D112" t="n">
-        <v>21.61</v>
+        <v>21.5</v>
       </c>
       <c r="E112" t="n">
-        <v>21.61</v>
+        <v>21.4</v>
       </c>
       <c r="F112" t="n">
-        <v>35</v>
+        <v>113015.2786</v>
       </c>
       <c r="G112" t="n">
-        <v>21.51699999999999</v>
+        <v>21.51516666666666</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4448,11 +4326,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4462,22 +4336,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>21.6</v>
+        <v>21.61</v>
       </c>
       <c r="C113" t="n">
-        <v>21.6</v>
+        <v>21.61</v>
       </c>
       <c r="D113" t="n">
-        <v>21.6</v>
+        <v>21.61</v>
       </c>
       <c r="E113" t="n">
-        <v>21.6</v>
+        <v>21.61</v>
       </c>
       <c r="F113" t="n">
-        <v>13671</v>
+        <v>35</v>
       </c>
       <c r="G113" t="n">
-        <v>21.51866666666666</v>
+        <v>21.51699999999999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4487,11 +4361,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4513,10 +4383,10 @@
         <v>21.6</v>
       </c>
       <c r="F114" t="n">
-        <v>28976</v>
+        <v>13671</v>
       </c>
       <c r="G114" t="n">
-        <v>21.52033333333332</v>
+        <v>21.51866666666666</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4526,11 +4396,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4552,10 +4418,10 @@
         <v>21.6</v>
       </c>
       <c r="F115" t="n">
-        <v>13200</v>
+        <v>28976</v>
       </c>
       <c r="G115" t="n">
-        <v>21.52533333333332</v>
+        <v>21.52033333333332</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4565,11 +4431,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4591,10 +4453,10 @@
         <v>21.6</v>
       </c>
       <c r="F116" t="n">
-        <v>262.7731</v>
+        <v>13200</v>
       </c>
       <c r="G116" t="n">
-        <v>21.52783333333332</v>
+        <v>21.52533333333332</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4604,11 +4466,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4618,22 +4476,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>21.35</v>
+        <v>21.6</v>
       </c>
       <c r="C117" t="n">
-        <v>21.35</v>
+        <v>21.6</v>
       </c>
       <c r="D117" t="n">
-        <v>21.35</v>
+        <v>21.6</v>
       </c>
       <c r="E117" t="n">
-        <v>21.35</v>
+        <v>21.6</v>
       </c>
       <c r="F117" t="n">
-        <v>12131.861</v>
+        <v>262.7731</v>
       </c>
       <c r="G117" t="n">
-        <v>21.52616666666665</v>
+        <v>21.52783333333332</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4643,11 +4501,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4657,22 +4511,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>21.6</v>
+        <v>21.35</v>
       </c>
       <c r="C118" t="n">
-        <v>21.6</v>
+        <v>21.35</v>
       </c>
       <c r="D118" t="n">
-        <v>21.6</v>
+        <v>21.35</v>
       </c>
       <c r="E118" t="n">
-        <v>21.6</v>
+        <v>21.35</v>
       </c>
       <c r="F118" t="n">
-        <v>100</v>
+        <v>12131.861</v>
       </c>
       <c r="G118" t="n">
-        <v>21.52866666666665</v>
+        <v>21.52616666666665</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4682,11 +4536,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4711,7 +4561,7 @@
         <v>100</v>
       </c>
       <c r="G119" t="n">
-        <v>21.53116666666665</v>
+        <v>21.52866666666665</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4721,11 +4571,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4735,22 +4581,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>21.35</v>
+        <v>21.6</v>
       </c>
       <c r="C120" t="n">
-        <v>21.35</v>
+        <v>21.6</v>
       </c>
       <c r="D120" t="n">
-        <v>21.35</v>
+        <v>21.6</v>
       </c>
       <c r="E120" t="n">
-        <v>21.35</v>
+        <v>21.6</v>
       </c>
       <c r="F120" t="n">
-        <v>37219.2531</v>
+        <v>100</v>
       </c>
       <c r="G120" t="n">
-        <v>21.52949999999998</v>
+        <v>21.53116666666665</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4760,11 +4606,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4786,10 +4628,10 @@
         <v>21.35</v>
       </c>
       <c r="F121" t="n">
-        <v>9000</v>
+        <v>37219.2531</v>
       </c>
       <c r="G121" t="n">
-        <v>21.52783333333331</v>
+        <v>21.52949999999998</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4799,11 +4641,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4825,10 +4663,10 @@
         <v>21.35</v>
       </c>
       <c r="F122" t="n">
-        <v>14181</v>
+        <v>9000</v>
       </c>
       <c r="G122" t="n">
-        <v>21.52949999999997</v>
+        <v>21.52783333333331</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4838,11 +4676,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4864,10 +4698,10 @@
         <v>21.35</v>
       </c>
       <c r="F123" t="n">
-        <v>20881.4035</v>
+        <v>14181</v>
       </c>
       <c r="G123" t="n">
-        <v>21.53033333333331</v>
+        <v>21.52949999999997</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4877,11 +4711,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4891,22 +4721,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>21.4</v>
+        <v>21.35</v>
       </c>
       <c r="C124" t="n">
-        <v>21.4</v>
+        <v>21.35</v>
       </c>
       <c r="D124" t="n">
-        <v>21.4</v>
+        <v>21.35</v>
       </c>
       <c r="E124" t="n">
-        <v>21.4</v>
+        <v>21.35</v>
       </c>
       <c r="F124" t="n">
-        <v>7095.3764</v>
+        <v>20881.4035</v>
       </c>
       <c r="G124" t="n">
-        <v>21.52999999999997</v>
+        <v>21.53033333333331</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4916,11 +4746,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4942,10 +4768,10 @@
         <v>21.4</v>
       </c>
       <c r="F125" t="n">
-        <v>7313.944</v>
+        <v>7095.3764</v>
       </c>
       <c r="G125" t="n">
-        <v>21.52683333333331</v>
+        <v>21.52999999999997</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4955,11 +4781,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4969,22 +4791,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>21.33</v>
+        <v>21.4</v>
       </c>
       <c r="C126" t="n">
-        <v>21.33</v>
+        <v>21.4</v>
       </c>
       <c r="D126" t="n">
-        <v>21.33</v>
+        <v>21.4</v>
       </c>
       <c r="E126" t="n">
-        <v>21.33</v>
+        <v>21.4</v>
       </c>
       <c r="F126" t="n">
-        <v>67992.3173</v>
+        <v>7313.944</v>
       </c>
       <c r="G126" t="n">
-        <v>21.51649999999997</v>
+        <v>21.52683333333331</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4994,11 +4816,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5008,22 +4826,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>21.61</v>
+        <v>21.33</v>
       </c>
       <c r="C127" t="n">
-        <v>21.61</v>
+        <v>21.33</v>
       </c>
       <c r="D127" t="n">
-        <v>21.61</v>
+        <v>21.33</v>
       </c>
       <c r="E127" t="n">
-        <v>21.61</v>
+        <v>21.33</v>
       </c>
       <c r="F127" t="n">
-        <v>5089.7232</v>
+        <v>67992.3173</v>
       </c>
       <c r="G127" t="n">
-        <v>21.51666666666664</v>
+        <v>21.51649999999997</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5033,11 +4851,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5047,19 +4861,19 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>21.6</v>
+        <v>21.61</v>
       </c>
       <c r="C128" t="n">
-        <v>21.7</v>
+        <v>21.61</v>
       </c>
       <c r="D128" t="n">
-        <v>21.7</v>
+        <v>21.61</v>
       </c>
       <c r="E128" t="n">
-        <v>21.6</v>
+        <v>21.61</v>
       </c>
       <c r="F128" t="n">
-        <v>25479.6038</v>
+        <v>5089.7232</v>
       </c>
       <c r="G128" t="n">
         <v>21.51666666666664</v>
@@ -5072,11 +4886,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5086,22 +4896,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="C129" t="n">
         <v>21.7</v>
       </c>
-      <c r="C129" t="n">
-        <v>21.35</v>
-      </c>
       <c r="D129" t="n">
-        <v>21.74</v>
+        <v>21.7</v>
       </c>
       <c r="E129" t="n">
-        <v>21.35</v>
+        <v>21.6</v>
       </c>
       <c r="F129" t="n">
-        <v>30958.3935</v>
+        <v>25479.6038</v>
       </c>
       <c r="G129" t="n">
-        <v>21.50933333333331</v>
+        <v>21.51666666666664</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5111,11 +4921,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5125,22 +4931,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="C130" t="n">
-        <v>21.6</v>
+        <v>21.35</v>
       </c>
       <c r="D130" t="n">
-        <v>21.6</v>
+        <v>21.74</v>
       </c>
       <c r="E130" t="n">
-        <v>21.6</v>
+        <v>21.35</v>
       </c>
       <c r="F130" t="n">
-        <v>3095.7045</v>
+        <v>30958.3935</v>
       </c>
       <c r="G130" t="n">
-        <v>21.51249999999997</v>
+        <v>21.50933333333331</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5150,11 +4956,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5164,22 +4966,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>21.57</v>
+        <v>21.6</v>
       </c>
       <c r="C131" t="n">
-        <v>21.74</v>
+        <v>21.6</v>
       </c>
       <c r="D131" t="n">
-        <v>21.74</v>
+        <v>21.6</v>
       </c>
       <c r="E131" t="n">
-        <v>21.57</v>
+        <v>21.6</v>
       </c>
       <c r="F131" t="n">
-        <v>89341.55160000001</v>
+        <v>3095.7045</v>
       </c>
       <c r="G131" t="n">
-        <v>21.5133333333333</v>
+        <v>21.51249999999997</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5189,11 +4991,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5203,22 +5001,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>21.5</v>
+        <v>21.57</v>
       </c>
       <c r="C132" t="n">
-        <v>21.5</v>
+        <v>21.74</v>
       </c>
       <c r="D132" t="n">
-        <v>21.5</v>
+        <v>21.74</v>
       </c>
       <c r="E132" t="n">
-        <v>21.5</v>
+        <v>21.57</v>
       </c>
       <c r="F132" t="n">
-        <v>1583.3333</v>
+        <v>89341.55160000001</v>
       </c>
       <c r="G132" t="n">
-        <v>21.5118333333333</v>
+        <v>21.5133333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5228,11 +5026,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5242,22 +5036,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>21.74</v>
+        <v>21.5</v>
       </c>
       <c r="C133" t="n">
-        <v>21.74</v>
+        <v>21.5</v>
       </c>
       <c r="D133" t="n">
-        <v>21.74</v>
+        <v>21.5</v>
       </c>
       <c r="E133" t="n">
-        <v>21.74</v>
+        <v>21.5</v>
       </c>
       <c r="F133" t="n">
-        <v>1100</v>
+        <v>1583.3333</v>
       </c>
       <c r="G133" t="n">
-        <v>21.5163333333333</v>
+        <v>21.5118333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5267,11 +5061,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5281,38 +5071,32 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>21.5</v>
+        <v>21.74</v>
       </c>
       <c r="C134" t="n">
-        <v>21.8</v>
+        <v>21.74</v>
       </c>
       <c r="D134" t="n">
-        <v>21.8</v>
+        <v>21.74</v>
       </c>
       <c r="E134" t="n">
-        <v>21.5</v>
+        <v>21.74</v>
       </c>
       <c r="F134" t="n">
-        <v>1762.7731</v>
+        <v>1100</v>
       </c>
       <c r="G134" t="n">
-        <v>21.51649999999997</v>
+        <v>21.5163333333333</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>21.74</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5322,7 +5106,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>21.8</v>
+        <v>21.5</v>
       </c>
       <c r="C135" t="n">
         <v>21.8</v>
@@ -5331,13 +5115,13 @@
         <v>21.8</v>
       </c>
       <c r="E135" t="n">
-        <v>21.8</v>
+        <v>21.5</v>
       </c>
       <c r="F135" t="n">
-        <v>500</v>
+        <v>1762.7731</v>
       </c>
       <c r="G135" t="n">
-        <v>21.52149999999997</v>
+        <v>21.51649999999997</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5347,11 +5131,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5361,22 +5141,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="C136" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="D136" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="E136" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="F136" t="n">
         <v>500</v>
       </c>
       <c r="G136" t="n">
-        <v>21.52649999999997</v>
+        <v>21.52149999999997</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5386,11 +5166,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5412,10 +5188,10 @@
         <v>21.9</v>
       </c>
       <c r="F137" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G137" t="n">
-        <v>21.53166666666664</v>
+        <v>21.52649999999997</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5425,11 +5201,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5439,22 +5211,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>21.89</v>
+        <v>21.9</v>
       </c>
       <c r="C138" t="n">
-        <v>21.89</v>
+        <v>21.9</v>
       </c>
       <c r="D138" t="n">
-        <v>21.89</v>
+        <v>21.9</v>
       </c>
       <c r="E138" t="n">
-        <v>21.89</v>
+        <v>21.9</v>
       </c>
       <c r="F138" t="n">
-        <v>4200</v>
+        <v>1000</v>
       </c>
       <c r="G138" t="n">
-        <v>21.53666666666664</v>
+        <v>21.53166666666664</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5464,11 +5236,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5478,22 +5246,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>21.7</v>
+        <v>21.89</v>
       </c>
       <c r="C139" t="n">
-        <v>21.7</v>
+        <v>21.89</v>
       </c>
       <c r="D139" t="n">
-        <v>21.7</v>
+        <v>21.89</v>
       </c>
       <c r="E139" t="n">
-        <v>21.7</v>
+        <v>21.89</v>
       </c>
       <c r="F139" t="n">
-        <v>46411.2025</v>
+        <v>4200</v>
       </c>
       <c r="G139" t="n">
-        <v>21.53833333333331</v>
+        <v>21.53666666666664</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5503,11 +5271,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5529,10 +5293,10 @@
         <v>21.7</v>
       </c>
       <c r="F140" t="n">
-        <v>2298.387</v>
+        <v>46411.2025</v>
       </c>
       <c r="G140" t="n">
-        <v>21.53999999999998</v>
+        <v>21.53833333333331</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5542,11 +5306,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5556,22 +5316,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="C141" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="D141" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="E141" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="F141" t="n">
-        <v>5000</v>
+        <v>2298.387</v>
       </c>
       <c r="G141" t="n">
-        <v>21.54166666666665</v>
+        <v>21.53999999999998</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5581,11 +5341,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5598,16 +5354,16 @@
         <v>21.6</v>
       </c>
       <c r="C142" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="D142" t="n">
         <v>21.6</v>
       </c>
       <c r="E142" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="F142" t="n">
-        <v>43726.9807</v>
+        <v>5000</v>
       </c>
       <c r="G142" t="n">
         <v>21.54166666666665</v>
@@ -5620,11 +5376,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5634,22 +5386,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="C143" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="D143" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="E143" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="F143" t="n">
-        <v>2000</v>
+        <v>43726.9807</v>
       </c>
       <c r="G143" t="n">
-        <v>21.54499999999998</v>
+        <v>21.54166666666665</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5659,11 +5411,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5676,19 +5424,19 @@
         <v>21.7</v>
       </c>
       <c r="C144" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="D144" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="E144" t="n">
         <v>21.7</v>
       </c>
       <c r="F144" t="n">
-        <v>2380.56</v>
+        <v>2000</v>
       </c>
       <c r="G144" t="n">
-        <v>21.54999999999998</v>
+        <v>21.54499999999998</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5698,11 +5446,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5712,7 +5456,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="C145" t="n">
         <v>21.8</v>
@@ -5721,13 +5465,13 @@
         <v>21.8</v>
       </c>
       <c r="E145" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="F145" t="n">
-        <v>1534.5525</v>
+        <v>2380.56</v>
       </c>
       <c r="G145" t="n">
-        <v>21.55566666666665</v>
+        <v>21.54999999999998</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5737,11 +5481,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5763,10 +5503,10 @@
         <v>21.8</v>
       </c>
       <c r="F146" t="n">
-        <v>1563.8722</v>
+        <v>1534.5525</v>
       </c>
       <c r="G146" t="n">
-        <v>21.56133333333331</v>
+        <v>21.55566666666665</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5776,11 +5516,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5790,22 +5526,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="C147" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="D147" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="E147" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="F147" t="n">
-        <v>26415.1144</v>
+        <v>1563.8722</v>
       </c>
       <c r="G147" t="n">
-        <v>21.56533333333331</v>
+        <v>21.56133333333331</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5815,11 +5551,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5829,22 +5561,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="C148" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="D148" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="E148" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="F148" t="n">
-        <v>13200</v>
+        <v>26415.1144</v>
       </c>
       <c r="G148" t="n">
-        <v>21.57049999999998</v>
+        <v>21.56533333333331</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5854,11 +5586,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5868,22 +5596,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>21.87</v>
+        <v>21.9</v>
       </c>
       <c r="C149" t="n">
-        <v>21.89</v>
+        <v>21.9</v>
       </c>
       <c r="D149" t="n">
-        <v>21.89</v>
+        <v>21.9</v>
       </c>
       <c r="E149" t="n">
-        <v>21.87</v>
+        <v>21.9</v>
       </c>
       <c r="F149" t="n">
-        <v>31091.4303</v>
+        <v>13200</v>
       </c>
       <c r="G149" t="n">
-        <v>21.57766666666665</v>
+        <v>21.57049999999998</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5893,11 +5621,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5907,22 +5631,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>21.7</v>
+        <v>21.87</v>
       </c>
       <c r="C150" t="n">
-        <v>21.7</v>
+        <v>21.89</v>
       </c>
       <c r="D150" t="n">
-        <v>21.7</v>
+        <v>21.89</v>
       </c>
       <c r="E150" t="n">
-        <v>21.7</v>
+        <v>21.87</v>
       </c>
       <c r="F150" t="n">
-        <v>870.3882</v>
+        <v>31091.4303</v>
       </c>
       <c r="G150" t="n">
-        <v>21.58166666666665</v>
+        <v>21.57766666666665</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5932,11 +5656,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5958,10 +5678,10 @@
         <v>21.7</v>
       </c>
       <c r="F151" t="n">
-        <v>365.2386</v>
+        <v>870.3882</v>
       </c>
       <c r="G151" t="n">
-        <v>21.58566666666665</v>
+        <v>21.58166666666665</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5971,11 +5691,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5985,22 +5701,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="C152" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="D152" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="E152" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="F152" t="n">
-        <v>25</v>
+        <v>365.2386</v>
       </c>
       <c r="G152" t="n">
-        <v>21.59483333333332</v>
+        <v>21.58566666666665</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6010,11 +5726,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6024,22 +5736,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>21.88</v>
+        <v>21.9</v>
       </c>
       <c r="C153" t="n">
-        <v>21.88</v>
+        <v>21.9</v>
       </c>
       <c r="D153" t="n">
-        <v>21.88</v>
+        <v>21.9</v>
       </c>
       <c r="E153" t="n">
-        <v>21.88</v>
+        <v>21.9</v>
       </c>
       <c r="F153" t="n">
-        <v>382.1839</v>
+        <v>25</v>
       </c>
       <c r="G153" t="n">
-        <v>21.60366666666665</v>
+        <v>21.59483333333332</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6049,11 +5761,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6075,10 +5783,10 @@
         <v>21.88</v>
       </c>
       <c r="F154" t="n">
-        <v>2279.4789</v>
+        <v>382.1839</v>
       </c>
       <c r="G154" t="n">
-        <v>21.61166666666666</v>
+        <v>21.60366666666665</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6088,11 +5796,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6102,22 +5806,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>21.7</v>
+        <v>21.88</v>
       </c>
       <c r="C155" t="n">
-        <v>21.6</v>
+        <v>21.88</v>
       </c>
       <c r="D155" t="n">
-        <v>21.84</v>
+        <v>21.88</v>
       </c>
       <c r="E155" t="n">
-        <v>21.6</v>
+        <v>21.88</v>
       </c>
       <c r="F155" t="n">
-        <v>14159.005</v>
+        <v>2279.4789</v>
       </c>
       <c r="G155" t="n">
-        <v>21.61583333333332</v>
+        <v>21.61166666666666</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6127,11 +5831,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6141,22 +5841,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="C156" t="n">
         <v>21.6</v>
       </c>
       <c r="D156" t="n">
-        <v>21.6</v>
+        <v>21.84</v>
       </c>
       <c r="E156" t="n">
         <v>21.6</v>
       </c>
       <c r="F156" t="n">
-        <v>7280.8336</v>
+        <v>14159.005</v>
       </c>
       <c r="G156" t="n">
-        <v>21.62066666666665</v>
+        <v>21.61583333333332</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6166,11 +5866,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6180,22 +5876,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>21.51</v>
+        <v>21.6</v>
       </c>
       <c r="C157" t="n">
-        <v>21.52</v>
+        <v>21.6</v>
       </c>
       <c r="D157" t="n">
-        <v>21.52</v>
+        <v>21.6</v>
       </c>
       <c r="E157" t="n">
-        <v>21.51</v>
+        <v>21.6</v>
       </c>
       <c r="F157" t="n">
-        <v>9852.9748</v>
+        <v>7280.8336</v>
       </c>
       <c r="G157" t="n">
-        <v>21.62433333333332</v>
+        <v>21.62066666666665</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6205,11 +5901,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6219,22 +5911,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>21.56</v>
+        <v>21.51</v>
       </c>
       <c r="C158" t="n">
-        <v>21.56</v>
+        <v>21.52</v>
       </c>
       <c r="D158" t="n">
-        <v>21.56</v>
+        <v>21.52</v>
       </c>
       <c r="E158" t="n">
-        <v>21.56</v>
+        <v>21.51</v>
       </c>
       <c r="F158" t="n">
-        <v>1415.9751</v>
+        <v>9852.9748</v>
       </c>
       <c r="G158" t="n">
-        <v>21.62866666666666</v>
+        <v>21.62433333333332</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6244,11 +5936,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6261,19 +5949,19 @@
         <v>21.56</v>
       </c>
       <c r="C159" t="n">
-        <v>21.4</v>
+        <v>21.56</v>
       </c>
       <c r="D159" t="n">
         <v>21.56</v>
       </c>
       <c r="E159" t="n">
-        <v>21.4</v>
+        <v>21.56</v>
       </c>
       <c r="F159" t="n">
-        <v>236759.1139</v>
+        <v>1415.9751</v>
       </c>
       <c r="G159" t="n">
-        <v>21.62699999999999</v>
+        <v>21.62866666666666</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6283,11 +5971,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6297,22 +5981,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>21.4</v>
+        <v>21.56</v>
       </c>
       <c r="C160" t="n">
         <v>21.4</v>
       </c>
       <c r="D160" t="n">
-        <v>21.4</v>
+        <v>21.56</v>
       </c>
       <c r="E160" t="n">
         <v>21.4</v>
       </c>
       <c r="F160" t="n">
-        <v>6040.3515</v>
+        <v>236759.1139</v>
       </c>
       <c r="G160" t="n">
-        <v>21.62533333333333</v>
+        <v>21.62699999999999</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6322,11 +6006,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6348,10 +6028,10 @@
         <v>21.4</v>
       </c>
       <c r="F161" t="n">
-        <v>776.5886</v>
+        <v>6040.3515</v>
       </c>
       <c r="G161" t="n">
-        <v>21.62216666666666</v>
+        <v>21.62533333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6361,11 +6041,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6387,10 +6063,10 @@
         <v>21.4</v>
       </c>
       <c r="F162" t="n">
-        <v>1312.5589</v>
+        <v>776.5886</v>
       </c>
       <c r="G162" t="n">
-        <v>21.619</v>
+        <v>21.62216666666666</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6400,11 +6076,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6426,10 +6098,10 @@
         <v>21.4</v>
       </c>
       <c r="F163" t="n">
-        <v>10685.8684</v>
+        <v>1312.5589</v>
       </c>
       <c r="G163" t="n">
-        <v>21.61583333333333</v>
+        <v>21.619</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6439,11 +6111,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6465,10 +6133,10 @@
         <v>21.4</v>
       </c>
       <c r="F164" t="n">
-        <v>13000</v>
+        <v>10685.8684</v>
       </c>
       <c r="G164" t="n">
-        <v>21.61033333333334</v>
+        <v>21.61583333333333</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6478,12 +6146,43 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C165" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D165" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E165" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F165" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G165" t="n">
+        <v>21.61033333333334</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-15 BackTest WAXP.xlsx
+++ b/BackTest/2020-01-15 BackTest WAXP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M165"/>
+  <dimension ref="A1:N175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>187258.3614</v>
       </c>
       <c r="G2" t="n">
+        <v>21.048</v>
+      </c>
+      <c r="H2" t="n">
         <v>21.04983333333336</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>4063.9426</v>
       </c>
       <c r="G3" t="n">
+        <v>21.06666666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>21.0506666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="L3" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>1000</v>
       </c>
       <c r="G4" t="n">
+        <v>21.07133333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>21.05683333333337</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="L4" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,27 @@
         <v>11551.1406</v>
       </c>
       <c r="G5" t="n">
+        <v>21.09133333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>21.06100000000003</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="L5" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +623,21 @@
         <v>163</v>
       </c>
       <c r="G6" t="n">
+        <v>21.122</v>
+      </c>
+      <c r="H6" t="n">
         <v>21.06533333333336</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +661,27 @@
         <v>6790.7715</v>
       </c>
       <c r="G7" t="n">
+        <v>21.16066666666666</v>
+      </c>
+      <c r="H7" t="n">
         <v>21.0686666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>21.21</v>
+      </c>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +705,27 @@
         <v>8279.234200000001</v>
       </c>
       <c r="G8" t="n">
+        <v>21.182</v>
+      </c>
+      <c r="H8" t="n">
         <v>21.06783333333336</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>21.2</v>
+      </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +749,27 @@
         <v>13589.1472</v>
       </c>
       <c r="G9" t="n">
+        <v>21.19866666666666</v>
+      </c>
+      <c r="H9" t="n">
         <v>21.07100000000003</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>21.15</v>
+      </c>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +793,27 @@
         <v>58</v>
       </c>
       <c r="G10" t="n">
+        <v>21.198</v>
+      </c>
+      <c r="H10" t="n">
         <v>21.0761666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>21.15</v>
+      </c>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +837,27 @@
         <v>4687.4511</v>
       </c>
       <c r="G11" t="n">
+        <v>21.18133333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>21.07533333333337</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>21.29</v>
+      </c>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +881,25 @@
         <v>45127.9702</v>
       </c>
       <c r="G12" t="n">
+        <v>21.17933333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>21.07433333333337</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +923,27 @@
         <v>58</v>
       </c>
       <c r="G13" t="n">
+        <v>21.19</v>
+      </c>
+      <c r="H13" t="n">
         <v>21.07450000000004</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>21.14</v>
+      </c>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +967,25 @@
         <v>61780.8305</v>
       </c>
       <c r="G14" t="n">
+        <v>21.19133333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>21.0731666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1009,27 @@
         <v>576</v>
       </c>
       <c r="G15" t="n">
+        <v>21.192</v>
+      </c>
+      <c r="H15" t="n">
         <v>21.07200000000004</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>21.13</v>
+      </c>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1053,27 @@
         <v>23368.57194299</v>
       </c>
       <c r="G16" t="n">
+        <v>21.20799999999999</v>
+      </c>
+      <c r="H16" t="n">
         <v>21.07233333333337</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>21.14</v>
+      </c>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1097,27 @@
         <v>37627.29611401</v>
       </c>
       <c r="G17" t="n">
+        <v>21.21133333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>21.07250000000004</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>21.4</v>
+      </c>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1141,25 @@
         <v>21180.6067</v>
       </c>
       <c r="G18" t="n">
+        <v>21.21066666666666</v>
+      </c>
+      <c r="H18" t="n">
         <v>21.0716666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1183,27 @@
         <v>10880.8424</v>
       </c>
       <c r="G19" t="n">
+        <v>21.194</v>
+      </c>
+      <c r="H19" t="n">
         <v>21.07050000000003</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>21.14</v>
+      </c>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1227,27 @@
         <v>16798.8443</v>
       </c>
       <c r="G20" t="n">
+        <v>21.18866666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>21.07200000000003</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>21.12</v>
+      </c>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1271,27 @@
         <v>5991.5938</v>
       </c>
       <c r="G21" t="n">
+        <v>21.188</v>
+      </c>
+      <c r="H21" t="n">
         <v>21.0726666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>21.12</v>
+      </c>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1315,27 @@
         <v>1992</v>
       </c>
       <c r="G22" t="n">
+        <v>21.188</v>
+      </c>
+      <c r="H22" t="n">
         <v>21.07433333333337</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>21.2</v>
+      </c>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1359,25 @@
         <v>26160.6</v>
       </c>
       <c r="G23" t="n">
+        <v>21.20466666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>21.07933333333337</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1401,25 @@
         <v>442.0194</v>
       </c>
       <c r="G24" t="n">
+        <v>21.22133333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>21.08550000000004</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1443,25 @@
         <v>39435.5371</v>
       </c>
       <c r="G25" t="n">
+        <v>21.23533333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>21.09333333333337</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1485,25 @@
         <v>132172.696743</v>
       </c>
       <c r="G26" t="n">
+        <v>21.27133333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>21.10583333333337</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1527,25 @@
         <v>23842.3632</v>
       </c>
       <c r="G27" t="n">
+        <v>21.31066666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>21.11183333333338</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1569,25 @@
         <v>6631.207</v>
       </c>
       <c r="G28" t="n">
+        <v>21.33733333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>21.12000000000004</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1611,25 @@
         <v>40419.5248</v>
       </c>
       <c r="G29" t="n">
+        <v>21.37466666666666</v>
+      </c>
+      <c r="H29" t="n">
         <v>21.12816666666671</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1653,25 @@
         <v>50</v>
       </c>
       <c r="G30" t="n">
+        <v>21.41466666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>21.14150000000004</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1695,25 @@
         <v>809.8564</v>
       </c>
       <c r="G31" t="n">
+        <v>21.43733333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>21.15533333333337</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1737,25 @@
         <v>175.7705</v>
       </c>
       <c r="G32" t="n">
+        <v>21.45133333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>21.16550000000004</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1779,25 @@
         <v>11199.253</v>
       </c>
       <c r="G33" t="n">
+        <v>21.47066666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>21.17650000000004</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1821,25 @@
         <v>3918.5319</v>
       </c>
       <c r="G34" t="n">
+        <v>21.49133333333334</v>
+      </c>
+      <c r="H34" t="n">
         <v>21.18866666666671</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1863,25 @@
         <v>9938.7305</v>
       </c>
       <c r="G35" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="H35" t="n">
         <v>21.20016666666671</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1905,25 @@
         <v>4400</v>
       </c>
       <c r="G36" t="n">
+        <v>21.52333333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>21.20783333333338</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1947,25 @@
         <v>11092.751</v>
       </c>
       <c r="G37" t="n">
+        <v>21.54266666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>21.21683333333338</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1989,25 @@
         <v>164587.3589</v>
       </c>
       <c r="G38" t="n">
+        <v>21.56933333333334</v>
+      </c>
+      <c r="H38" t="n">
         <v>21.23100000000004</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2031,25 @@
         <v>161904.7887</v>
       </c>
       <c r="G39" t="n">
+        <v>21.59600000000001</v>
+      </c>
+      <c r="H39" t="n">
         <v>21.24500000000004</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2073,25 @@
         <v>96635.77589999999</v>
       </c>
       <c r="G40" t="n">
+        <v>21.62600000000001</v>
+      </c>
+      <c r="H40" t="n">
         <v>21.26166666666671</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2115,25 @@
         <v>985</v>
       </c>
       <c r="G41" t="n">
+        <v>21.62066666666668</v>
+      </c>
+      <c r="H41" t="n">
         <v>21.2696666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2157,25 @@
         <v>16347.0378</v>
       </c>
       <c r="G42" t="n">
+        <v>21.61200000000001</v>
+      </c>
+      <c r="H42" t="n">
         <v>21.27750000000004</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2199,25 @@
         <v>11216</v>
       </c>
       <c r="G43" t="n">
+        <v>21.61866666666668</v>
+      </c>
+      <c r="H43" t="n">
         <v>21.2856666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2241,25 @@
         <v>6115.5718</v>
       </c>
       <c r="G44" t="n">
+        <v>21.63266666666668</v>
+      </c>
+      <c r="H44" t="n">
         <v>21.30133333333337</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2283,25 @@
         <v>44856</v>
       </c>
       <c r="G45" t="n">
+        <v>21.64333333333334</v>
+      </c>
+      <c r="H45" t="n">
         <v>21.31700000000004</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2325,25 @@
         <v>47186.9376</v>
       </c>
       <c r="G46" t="n">
+        <v>21.654</v>
+      </c>
+      <c r="H46" t="n">
         <v>21.3326666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2367,25 @@
         <v>11863.7586</v>
       </c>
       <c r="G47" t="n">
+        <v>21.686</v>
+      </c>
+      <c r="H47" t="n">
         <v>21.3491666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,20 +2409,25 @@
         <v>18300</v>
       </c>
       <c r="G48" t="n">
+        <v>21.698</v>
+      </c>
+      <c r="H48" t="n">
         <v>21.36150000000004</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2093,18 +2449,21 @@
         <v>4400</v>
       </c>
       <c r="G49" t="n">
+        <v>21.70266666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>21.36483333333337</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2487,21 @@
         <v>4400</v>
       </c>
       <c r="G50" t="n">
+        <v>21.70866666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>21.37466666666671</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2525,21 @@
         <v>4364.2357</v>
       </c>
       <c r="G51" t="n">
+        <v>21.71533333333334</v>
+      </c>
+      <c r="H51" t="n">
         <v>21.3871666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2563,21 @@
         <v>3999.0605</v>
       </c>
       <c r="G52" t="n">
+        <v>21.70933333333334</v>
+      </c>
+      <c r="H52" t="n">
         <v>21.40016666666671</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,22 +2601,21 @@
         <v>365.1752</v>
       </c>
       <c r="G53" t="n">
+        <v>21.68933333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>21.41133333333338</v>
       </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="K53" t="n">
-        <v>21.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2272,24 +2639,21 @@
         <v>365.1752</v>
       </c>
       <c r="G54" t="n">
+        <v>21.66933333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>21.42133333333338</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2313,26 +2677,21 @@
         <v>365.1752</v>
       </c>
       <c r="G55" t="n">
+        <v>21.63933333333334</v>
+      </c>
+      <c r="H55" t="n">
         <v>21.42466666666671</v>
       </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K55" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2356,18 +2715,21 @@
         <v>133053.3387</v>
       </c>
       <c r="G56" t="n">
+        <v>21.61866666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>21.42300000000004</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2391,18 +2753,21 @@
         <v>4396.4955</v>
       </c>
       <c r="G57" t="n">
+        <v>21.60866666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>21.42766666666671</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2426,18 +2791,21 @@
         <v>62175.4013</v>
       </c>
       <c r="G58" t="n">
+        <v>21.586</v>
+      </c>
+      <c r="H58" t="n">
         <v>21.43300000000004</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2461,18 +2829,21 @@
         <v>11000</v>
       </c>
       <c r="G59" t="n">
+        <v>21.556</v>
+      </c>
+      <c r="H59" t="n">
         <v>21.43866666666671</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2496,18 +2867,21 @@
         <v>8000</v>
       </c>
       <c r="G60" t="n">
+        <v>21.526</v>
+      </c>
+      <c r="H60" t="n">
         <v>21.44400000000004</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2531,18 +2905,21 @@
         <v>53772.674</v>
       </c>
       <c r="G61" t="n">
+        <v>21.496</v>
+      </c>
+      <c r="H61" t="n">
         <v>21.44883333333337</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,18 +2943,21 @@
         <v>3000</v>
       </c>
       <c r="G62" t="n">
+        <v>21.46666666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>21.45383333333337</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2601,18 +2981,21 @@
         <v>1785.6627</v>
       </c>
       <c r="G63" t="n">
+        <v>21.44266666666666</v>
+      </c>
+      <c r="H63" t="n">
         <v>21.45550000000004</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2636,18 +3019,21 @@
         <v>5995.8557</v>
       </c>
       <c r="G64" t="n">
+        <v>21.42933333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>21.45433333333337</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2671,18 +3057,21 @@
         <v>9353.197099999999</v>
       </c>
       <c r="G65" t="n">
+        <v>21.42466666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>21.45800000000004</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2706,18 +3095,21 @@
         <v>46.1606</v>
       </c>
       <c r="G66" t="n">
+        <v>21.43066666666666</v>
+      </c>
+      <c r="H66" t="n">
         <v>21.46433333333337</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2741,18 +3133,21 @@
         <v>122666.58325826</v>
       </c>
       <c r="G67" t="n">
+        <v>21.46733333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>21.47683333333337</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2776,18 +3171,21 @@
         <v>5632.423</v>
       </c>
       <c r="G68" t="n">
+        <v>21.474</v>
+      </c>
+      <c r="H68" t="n">
         <v>21.48433333333337</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2811,18 +3209,21 @@
         <v>3967.6984</v>
       </c>
       <c r="G69" t="n">
+        <v>21.48733333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>21.49350000000003</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2846,18 +3247,21 @@
         <v>2237.0469</v>
       </c>
       <c r="G70" t="n">
+        <v>21.50666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>21.50183333333337</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2881,18 +3285,21 @@
         <v>122666.5832</v>
       </c>
       <c r="G71" t="n">
+        <v>21.514</v>
+      </c>
+      <c r="H71" t="n">
         <v>21.5061666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2916,18 +3323,21 @@
         <v>2332.9426</v>
       </c>
       <c r="G72" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="H72" t="n">
         <v>21.51533333333337</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2951,18 +3361,21 @@
         <v>50</v>
       </c>
       <c r="G73" t="n">
+        <v>21.53933333333334</v>
+      </c>
+      <c r="H73" t="n">
         <v>21.52033333333337</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2986,18 +3399,21 @@
         <v>9319</v>
       </c>
       <c r="G74" t="n">
+        <v>21.54066666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>21.52600000000003</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3021,18 +3437,21 @@
         <v>30.0079</v>
       </c>
       <c r="G75" t="n">
+        <v>21.56333333333334</v>
+      </c>
+      <c r="H75" t="n">
         <v>21.53683333333336</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3056,18 +3475,21 @@
         <v>11667.4536</v>
       </c>
       <c r="G76" t="n">
+        <v>21.56666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>21.53850000000002</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3091,18 +3513,21 @@
         <v>7090</v>
       </c>
       <c r="G77" t="n">
+        <v>21.57666666666668</v>
+      </c>
+      <c r="H77" t="n">
         <v>21.54516666666669</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3126,18 +3551,21 @@
         <v>2309.0277</v>
       </c>
       <c r="G78" t="n">
+        <v>21.59933333333334</v>
+      </c>
+      <c r="H78" t="n">
         <v>21.55266666666669</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3161,18 +3589,21 @@
         <v>6950.5223</v>
       </c>
       <c r="G79" t="n">
+        <v>21.61866666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>21.56050000000002</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3196,18 +3627,21 @@
         <v>7216.3845</v>
       </c>
       <c r="G80" t="n">
+        <v>21.63066666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>21.56850000000002</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3231,18 +3665,21 @@
         <v>272.8636</v>
       </c>
       <c r="G81" t="n">
+        <v>21.63133333333334</v>
+      </c>
+      <c r="H81" t="n">
         <v>21.57516666666669</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3266,18 +3703,21 @@
         <v>11680.7284</v>
       </c>
       <c r="G82" t="n">
+        <v>21.60133333333334</v>
+      </c>
+      <c r="H82" t="n">
         <v>21.58016666666668</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3301,18 +3741,21 @@
         <v>6003.8462</v>
       </c>
       <c r="G83" t="n">
+        <v>21.59466666666668</v>
+      </c>
+      <c r="H83" t="n">
         <v>21.58183333333335</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3336,18 +3779,21 @@
         <v>3848.3524</v>
       </c>
       <c r="G84" t="n">
+        <v>21.58133333333334</v>
+      </c>
+      <c r="H84" t="n">
         <v>21.58350000000002</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3371,18 +3817,21 @@
         <v>39366.7979</v>
       </c>
       <c r="G85" t="n">
+        <v>21.56200000000001</v>
+      </c>
+      <c r="H85" t="n">
         <v>21.58350000000002</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,18 +3855,21 @@
         <v>59050.6962</v>
       </c>
       <c r="G86" t="n">
+        <v>21.56533333333334</v>
+      </c>
+      <c r="H86" t="n">
         <v>21.57966666666668</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3441,18 +3893,21 @@
         <v>626.1446</v>
       </c>
       <c r="G87" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="H87" t="n">
         <v>21.57516666666668</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3476,18 +3931,21 @@
         <v>33263.7995</v>
       </c>
       <c r="G88" t="n">
+        <v>21.54133333333334</v>
+      </c>
+      <c r="H88" t="n">
         <v>21.57133333333335</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3511,18 +3969,21 @@
         <v>25212.0027</v>
       </c>
       <c r="G89" t="n">
+        <v>21.54933333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>21.56966666666668</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3546,18 +4007,21 @@
         <v>2633.0952</v>
       </c>
       <c r="G90" t="n">
+        <v>21.52733333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>21.56500000000001</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3581,18 +4045,21 @@
         <v>16579.7722</v>
       </c>
       <c r="G91" t="n">
+        <v>21.52466666666666</v>
+      </c>
+      <c r="H91" t="n">
         <v>21.56033333333335</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3616,18 +4083,21 @@
         <v>29459.6627</v>
       </c>
       <c r="G92" t="n">
+        <v>21.51533333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>21.56116666666668</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3651,18 +4121,21 @@
         <v>271709.757</v>
       </c>
       <c r="G93" t="n">
+        <v>21.49933333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>21.55983333333334</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3686,18 +4159,21 @@
         <v>599</v>
       </c>
       <c r="G94" t="n">
+        <v>21.48333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>21.55850000000001</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3721,18 +4197,21 @@
         <v>7302.8165</v>
       </c>
       <c r="G95" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="H95" t="n">
         <v>21.55850000000001</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3756,18 +4235,21 @@
         <v>2336.0655</v>
       </c>
       <c r="G96" t="n">
+        <v>21.45333333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>21.55766666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3791,18 +4273,21 @@
         <v>152410.124</v>
       </c>
       <c r="G97" t="n">
+        <v>21.44066666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>21.55466666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3826,18 +4311,21 @@
         <v>9865.874900000001</v>
       </c>
       <c r="G98" t="n">
+        <v>21.42733333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>21.54633333333334</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3861,18 +4349,21 @@
         <v>68755.6652</v>
       </c>
       <c r="G99" t="n">
+        <v>21.414</v>
+      </c>
+      <c r="H99" t="n">
         <v>21.538</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,18 +4387,21 @@
         <v>2012.1123</v>
       </c>
       <c r="G100" t="n">
+        <v>21.414</v>
+      </c>
+      <c r="H100" t="n">
         <v>21.5305</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3931,18 +4425,21 @@
         <v>30542.1583</v>
       </c>
       <c r="G101" t="n">
+        <v>21.41666666666667</v>
+      </c>
+      <c r="H101" t="n">
         <v>21.52866666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3966,18 +4463,21 @@
         <v>1038.6713</v>
       </c>
       <c r="G102" t="n">
+        <v>21.42533333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>21.5285</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4001,18 +4501,21 @@
         <v>500</v>
       </c>
       <c r="G103" t="n">
+        <v>21.434</v>
+      </c>
+      <c r="H103" t="n">
         <v>21.52516666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4036,18 +4539,21 @@
         <v>3356.1842</v>
       </c>
       <c r="G104" t="n">
+        <v>21.434</v>
+      </c>
+      <c r="H104" t="n">
         <v>21.52</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4071,18 +4577,21 @@
         <v>225</v>
       </c>
       <c r="G105" t="n">
+        <v>21.452</v>
+      </c>
+      <c r="H105" t="n">
         <v>21.51716666666666</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4106,18 +4615,21 @@
         <v>200</v>
       </c>
       <c r="G106" t="n">
+        <v>21.46133333333334</v>
+      </c>
+      <c r="H106" t="n">
         <v>21.51216666666666</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4141,18 +4653,21 @@
         <v>985.2352</v>
       </c>
       <c r="G107" t="n">
+        <v>21.47066666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>21.50733333333333</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4176,18 +4691,21 @@
         <v>201</v>
       </c>
       <c r="G108" t="n">
+        <v>21.49600000000001</v>
+      </c>
+      <c r="H108" t="n">
         <v>21.50933333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4211,18 +4729,21 @@
         <v>895.4906</v>
       </c>
       <c r="G109" t="n">
+        <v>21.52133333333334</v>
+      </c>
+      <c r="H109" t="n">
         <v>21.51316666666666</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4246,18 +4767,21 @@
         <v>500</v>
       </c>
       <c r="G110" t="n">
+        <v>21.53533333333334</v>
+      </c>
+      <c r="H110" t="n">
         <v>21.51516666666666</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4281,18 +4805,21 @@
         <v>4243.8916</v>
       </c>
       <c r="G111" t="n">
+        <v>21.54533333333334</v>
+      </c>
+      <c r="H111" t="n">
         <v>21.51516666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4316,18 +4843,21 @@
         <v>113015.2786</v>
       </c>
       <c r="G112" t="n">
+        <v>21.55133333333334</v>
+      </c>
+      <c r="H112" t="n">
         <v>21.51516666666666</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4351,18 +4881,21 @@
         <v>35</v>
       </c>
       <c r="G113" t="n">
+        <v>21.57200000000001</v>
+      </c>
+      <c r="H113" t="n">
         <v>21.51699999999999</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4386,18 +4919,21 @@
         <v>13671</v>
       </c>
       <c r="G114" t="n">
+        <v>21.59200000000001</v>
+      </c>
+      <c r="H114" t="n">
         <v>21.51866666666666</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4421,18 +4957,21 @@
         <v>28976</v>
       </c>
       <c r="G115" t="n">
+        <v>21.59866666666668</v>
+      </c>
+      <c r="H115" t="n">
         <v>21.52033333333332</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,18 +4995,21 @@
         <v>13200</v>
       </c>
       <c r="G116" t="n">
+        <v>21.60533333333334</v>
+      </c>
+      <c r="H116" t="n">
         <v>21.52533333333332</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4491,18 +5033,21 @@
         <v>262.7731</v>
       </c>
       <c r="G117" t="n">
+        <v>21.60600000000001</v>
+      </c>
+      <c r="H117" t="n">
         <v>21.52783333333332</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4526,18 +5071,21 @@
         <v>12131.861</v>
       </c>
       <c r="G118" t="n">
+        <v>21.59000000000002</v>
+      </c>
+      <c r="H118" t="n">
         <v>21.52616666666665</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4561,18 +5109,21 @@
         <v>100</v>
       </c>
       <c r="G119" t="n">
+        <v>21.59066666666669</v>
+      </c>
+      <c r="H119" t="n">
         <v>21.52866666666665</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4596,18 +5147,21 @@
         <v>100</v>
       </c>
       <c r="G120" t="n">
+        <v>21.58200000000002</v>
+      </c>
+      <c r="H120" t="n">
         <v>21.53116666666665</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4631,18 +5185,21 @@
         <v>37219.2531</v>
       </c>
       <c r="G121" t="n">
+        <v>21.56533333333335</v>
+      </c>
+      <c r="H121" t="n">
         <v>21.52949999999998</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4666,18 +5223,21 @@
         <v>9000</v>
       </c>
       <c r="G122" t="n">
+        <v>21.54866666666669</v>
+      </c>
+      <c r="H122" t="n">
         <v>21.52783333333331</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4701,18 +5261,21 @@
         <v>14181</v>
       </c>
       <c r="G123" t="n">
+        <v>21.52333333333335</v>
+      </c>
+      <c r="H123" t="n">
         <v>21.52949999999997</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4736,18 +5299,21 @@
         <v>20881.4035</v>
       </c>
       <c r="G124" t="n">
+        <v>21.49800000000002</v>
+      </c>
+      <c r="H124" t="n">
         <v>21.53033333333331</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4771,18 +5337,21 @@
         <v>7095.3764</v>
       </c>
       <c r="G125" t="n">
+        <v>21.48400000000002</v>
+      </c>
+      <c r="H125" t="n">
         <v>21.52999999999997</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4806,18 +5375,21 @@
         <v>7313.944</v>
       </c>
       <c r="G126" t="n">
+        <v>21.47733333333335</v>
+      </c>
+      <c r="H126" t="n">
         <v>21.52683333333331</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4841,18 +5413,21 @@
         <v>67992.3173</v>
       </c>
       <c r="G127" t="n">
+        <v>21.47266666666668</v>
+      </c>
+      <c r="H127" t="n">
         <v>21.51649999999997</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4876,18 +5451,21 @@
         <v>5089.7232</v>
       </c>
       <c r="G128" t="n">
+        <v>21.47266666666668</v>
+      </c>
+      <c r="H128" t="n">
         <v>21.51666666666664</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4911,18 +5489,21 @@
         <v>25479.6038</v>
       </c>
       <c r="G129" t="n">
+        <v>21.47933333333335</v>
+      </c>
+      <c r="H129" t="n">
         <v>21.51666666666664</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4946,18 +5527,21 @@
         <v>30958.3935</v>
       </c>
       <c r="G130" t="n">
+        <v>21.46266666666668</v>
+      </c>
+      <c r="H130" t="n">
         <v>21.50933333333331</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4981,18 +5565,21 @@
         <v>3095.7045</v>
       </c>
       <c r="G131" t="n">
+        <v>21.46266666666668</v>
+      </c>
+      <c r="H131" t="n">
         <v>21.51249999999997</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5016,18 +5603,21 @@
         <v>89341.55160000001</v>
       </c>
       <c r="G132" t="n">
+        <v>21.47200000000002</v>
+      </c>
+      <c r="H132" t="n">
         <v>21.5133333333333</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5051,18 +5641,21 @@
         <v>1583.3333</v>
       </c>
       <c r="G133" t="n">
+        <v>21.48200000000001</v>
+      </c>
+      <c r="H133" t="n">
         <v>21.5118333333333</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,18 +5679,21 @@
         <v>1100</v>
       </c>
       <c r="G134" t="n">
+        <v>21.49133333333334</v>
+      </c>
+      <c r="H134" t="n">
         <v>21.5163333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5121,18 +5717,21 @@
         <v>1762.7731</v>
       </c>
       <c r="G135" t="n">
+        <v>21.50466666666668</v>
+      </c>
+      <c r="H135" t="n">
         <v>21.51649999999997</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5156,18 +5755,21 @@
         <v>500</v>
       </c>
       <c r="G136" t="n">
+        <v>21.53466666666668</v>
+      </c>
+      <c r="H136" t="n">
         <v>21.52149999999997</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,18 +5793,21 @@
         <v>500</v>
       </c>
       <c r="G137" t="n">
+        <v>21.57133333333334</v>
+      </c>
+      <c r="H137" t="n">
         <v>21.52649999999997</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5226,18 +5831,21 @@
         <v>1000</v>
       </c>
       <c r="G138" t="n">
+        <v>21.608</v>
+      </c>
+      <c r="H138" t="n">
         <v>21.53166666666664</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5261,18 +5869,21 @@
         <v>4200</v>
       </c>
       <c r="G139" t="n">
+        <v>21.644</v>
+      </c>
+      <c r="H139" t="n">
         <v>21.53666666666664</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5296,18 +5907,21 @@
         <v>46411.2025</v>
       </c>
       <c r="G140" t="n">
+        <v>21.664</v>
+      </c>
+      <c r="H140" t="n">
         <v>21.53833333333331</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5331,18 +5945,21 @@
         <v>2298.387</v>
       </c>
       <c r="G141" t="n">
+        <v>21.684</v>
+      </c>
+      <c r="H141" t="n">
         <v>21.53999999999998</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5366,18 +5983,21 @@
         <v>5000</v>
       </c>
       <c r="G142" t="n">
+        <v>21.70200000000001</v>
+      </c>
+      <c r="H142" t="n">
         <v>21.54166666666665</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5401,18 +6021,21 @@
         <v>43726.9807</v>
       </c>
       <c r="G143" t="n">
+        <v>21.69466666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>21.54166666666665</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5436,18 +6059,21 @@
         <v>2000</v>
       </c>
       <c r="G144" t="n">
+        <v>21.69466666666667</v>
+      </c>
+      <c r="H144" t="n">
         <v>21.54499999999998</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5471,18 +6097,21 @@
         <v>2380.56</v>
       </c>
       <c r="G145" t="n">
+        <v>21.72466666666667</v>
+      </c>
+      <c r="H145" t="n">
         <v>21.54999999999998</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5506,18 +6135,21 @@
         <v>1534.5525</v>
       </c>
       <c r="G146" t="n">
+        <v>21.738</v>
+      </c>
+      <c r="H146" t="n">
         <v>21.55566666666665</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5541,18 +6173,21 @@
         <v>1563.8722</v>
       </c>
       <c r="G147" t="n">
+        <v>21.742</v>
+      </c>
+      <c r="H147" t="n">
         <v>21.56133333333331</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5576,18 +6211,21 @@
         <v>26415.1144</v>
       </c>
       <c r="G148" t="n">
+        <v>21.75533333333334</v>
+      </c>
+      <c r="H148" t="n">
         <v>21.56533333333331</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5611,18 +6249,21 @@
         <v>13200</v>
       </c>
       <c r="G149" t="n">
+        <v>21.766</v>
+      </c>
+      <c r="H149" t="n">
         <v>21.57049999999998</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5646,18 +6287,21 @@
         <v>31091.4303</v>
       </c>
       <c r="G150" t="n">
+        <v>21.772</v>
+      </c>
+      <c r="H150" t="n">
         <v>21.57766666666665</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5681,18 +6325,21 @@
         <v>870.3882</v>
       </c>
       <c r="G151" t="n">
+        <v>21.76533333333333</v>
+      </c>
+      <c r="H151" t="n">
         <v>21.58166666666665</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5716,18 +6363,21 @@
         <v>365.2386</v>
       </c>
       <c r="G152" t="n">
+        <v>21.752</v>
+      </c>
+      <c r="H152" t="n">
         <v>21.58566666666665</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5751,18 +6401,21 @@
         <v>25</v>
       </c>
       <c r="G153" t="n">
+        <v>21.752</v>
+      </c>
+      <c r="H153" t="n">
         <v>21.59483333333332</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>1</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5786,18 +6439,21 @@
         <v>382.1839</v>
       </c>
       <c r="G154" t="n">
+        <v>21.75133333333333</v>
+      </c>
+      <c r="H154" t="n">
         <v>21.60366666666665</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5821,18 +6477,21 @@
         <v>2279.4789</v>
       </c>
       <c r="G155" t="n">
+        <v>21.76333333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>21.61166666666666</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5856,18 +6515,21 @@
         <v>14159.005</v>
       </c>
       <c r="G156" t="n">
+        <v>21.75666666666667</v>
+      </c>
+      <c r="H156" t="n">
         <v>21.61583333333332</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5891,18 +6553,21 @@
         <v>7280.8336</v>
       </c>
       <c r="G157" t="n">
+        <v>21.75666666666667</v>
+      </c>
+      <c r="H157" t="n">
         <v>21.62066666666665</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>1</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5926,18 +6591,21 @@
         <v>9852.9748</v>
       </c>
       <c r="G158" t="n">
+        <v>21.758</v>
+      </c>
+      <c r="H158" t="n">
         <v>21.62433333333332</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5961,18 +6629,21 @@
         <v>1415.9751</v>
       </c>
       <c r="G159" t="n">
+        <v>21.74866666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>21.62866666666666</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5996,18 +6667,21 @@
         <v>236759.1139</v>
       </c>
       <c r="G160" t="n">
+        <v>21.722</v>
+      </c>
+      <c r="H160" t="n">
         <v>21.62699999999999</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6031,18 +6705,21 @@
         <v>6040.3515</v>
       </c>
       <c r="G161" t="n">
+        <v>21.69533333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>21.62533333333333</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6066,18 +6743,21 @@
         <v>776.5886</v>
       </c>
       <c r="G162" t="n">
+        <v>21.66866666666666</v>
+      </c>
+      <c r="H162" t="n">
         <v>21.62216666666666</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6101,18 +6781,21 @@
         <v>1312.5589</v>
       </c>
       <c r="G163" t="n">
+        <v>21.64866666666666</v>
+      </c>
+      <c r="H163" t="n">
         <v>21.619</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6136,18 +6819,21 @@
         <v>10685.8684</v>
       </c>
       <c r="G164" t="n">
+        <v>21.61533333333333</v>
+      </c>
+      <c r="H164" t="n">
         <v>21.61583333333333</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6171,18 +6857,401 @@
         <v>13000</v>
       </c>
       <c r="G165" t="n">
+        <v>21.58266666666666</v>
+      </c>
+      <c r="H165" t="n">
         <v>21.61033333333334</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C166" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D166" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E166" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F166" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G166" t="n">
+        <v>21.56266666666666</v>
+      </c>
+      <c r="H166" t="n">
+        <v>21.60700000000001</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C167" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D167" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E167" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F167" t="n">
+        <v>504.9848</v>
+      </c>
+      <c r="G167" t="n">
+        <v>21.54266666666666</v>
+      </c>
+      <c r="H167" t="n">
+        <v>21.60366666666668</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C168" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D168" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E168" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F168" t="n">
+        <v>200</v>
+      </c>
+      <c r="G168" t="n">
+        <v>21.50933333333332</v>
+      </c>
+      <c r="H168" t="n">
+        <v>21.59816666666667</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C169" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D169" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E169" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G169" t="n">
+        <v>21.47733333333332</v>
+      </c>
+      <c r="H169" t="n">
+        <v>21.59266666666668</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>21.39</v>
+      </c>
+      <c r="C170" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="D170" t="n">
+        <v>21.39</v>
+      </c>
+      <c r="E170" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="F170" t="n">
+        <v>11400</v>
+      </c>
+      <c r="G170" t="n">
+        <v>21.44199999999999</v>
+      </c>
+      <c r="H170" t="n">
+        <v>21.58833333333335</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="C171" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="D171" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="E171" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="F171" t="n">
+        <v>7700</v>
+      </c>
+      <c r="G171" t="n">
+        <v>21.42333333333332</v>
+      </c>
+      <c r="H171" t="n">
+        <v>21.58533333333334</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="C172" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="D172" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="E172" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="F172" t="n">
+        <v>27734.1712</v>
+      </c>
+      <c r="G172" t="n">
+        <v>21.40466666666665</v>
+      </c>
+      <c r="H172" t="n">
+        <v>21.58400000000001</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C173" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D173" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E173" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F173" t="n">
+        <v>75259.7708</v>
+      </c>
+      <c r="G173" t="n">
+        <v>21.38333333333332</v>
+      </c>
+      <c r="H173" t="n">
+        <v>21.57716666666668</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C174" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D174" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E174" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F174" t="n">
+        <v>153578.7569</v>
+      </c>
+      <c r="G174" t="n">
+        <v>21.35266666666666</v>
+      </c>
+      <c r="H174" t="n">
+        <v>21.56883333333334</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="C175" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="D175" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="E175" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1006.4323</v>
+      </c>
+      <c r="G175" t="n">
+        <v>21.34733333333332</v>
+      </c>
+      <c r="H175" t="n">
+        <v>21.56416666666668</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-15 BackTest WAXP.xlsx
+++ b/BackTest/2020-01-15 BackTest WAXP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N175"/>
+  <dimension ref="A1:M204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>21.19</v>
+        <v>20.8</v>
       </c>
       <c r="C2" t="n">
-        <v>21.15</v>
+        <v>20.77</v>
       </c>
       <c r="D2" t="n">
-        <v>21.19</v>
+        <v>20.8</v>
       </c>
       <c r="E2" t="n">
-        <v>21.15</v>
+        <v>20.77</v>
       </c>
       <c r="F2" t="n">
-        <v>187258.3614</v>
+        <v>44602.6059</v>
       </c>
       <c r="G2" t="n">
-        <v>21.048</v>
+        <v>-721389.18209036</v>
       </c>
       <c r="H2" t="n">
-        <v>21.04983333333336</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,40 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21.15</v>
+        <v>20.77</v>
       </c>
       <c r="C3" t="n">
-        <v>21.15</v>
+        <v>20.7</v>
       </c>
       <c r="D3" t="n">
-        <v>21.15</v>
+        <v>20.8</v>
       </c>
       <c r="E3" t="n">
-        <v>21.15</v>
+        <v>20.7</v>
       </c>
       <c r="F3" t="n">
-        <v>4063.9426</v>
+        <v>21554.4772</v>
       </c>
       <c r="G3" t="n">
-        <v>21.06666666666667</v>
+        <v>-742943.6592903599</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0506666666667</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>21.15</v>
-      </c>
-      <c r="L3" t="n">
-        <v>21.15</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,44 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21.37</v>
+        <v>20.71</v>
       </c>
       <c r="C4" t="n">
-        <v>21.37</v>
+        <v>20.71</v>
       </c>
       <c r="D4" t="n">
-        <v>21.37</v>
+        <v>20.71</v>
       </c>
       <c r="E4" t="n">
-        <v>21.37</v>
+        <v>20.71</v>
       </c>
       <c r="F4" t="n">
-        <v>1000</v>
+        <v>1611.321</v>
       </c>
       <c r="G4" t="n">
-        <v>21.07133333333333</v>
+        <v>-741332.3382903599</v>
       </c>
       <c r="H4" t="n">
-        <v>21.05683333333337</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>21.15</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21.15</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,42 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21.21</v>
+        <v>20.8</v>
       </c>
       <c r="C5" t="n">
-        <v>21.2</v>
+        <v>20.94</v>
       </c>
       <c r="D5" t="n">
-        <v>21.21</v>
+        <v>20.94</v>
       </c>
       <c r="E5" t="n">
-        <v>21.2</v>
+        <v>20.8</v>
       </c>
       <c r="F5" t="n">
-        <v>11551.1406</v>
+        <v>25600</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09133333333333</v>
+        <v>-715732.3382903599</v>
       </c>
       <c r="H5" t="n">
-        <v>21.06100000000003</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>21.15</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -608,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>21.21</v>
+        <v>20.95</v>
       </c>
       <c r="C6" t="n">
-        <v>21.21</v>
+        <v>20.95</v>
       </c>
       <c r="D6" t="n">
-        <v>21.21</v>
+        <v>20.95</v>
       </c>
       <c r="E6" t="n">
-        <v>21.21</v>
+        <v>20.95</v>
       </c>
       <c r="F6" t="n">
-        <v>163</v>
+        <v>1521.0485</v>
       </c>
       <c r="G6" t="n">
-        <v>21.122</v>
+        <v>-714211.2897903599</v>
       </c>
       <c r="H6" t="n">
-        <v>21.06533333333336</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -646,42 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21.21</v>
+        <v>20.95</v>
       </c>
       <c r="C7" t="n">
-        <v>21.2</v>
+        <v>20.95</v>
       </c>
       <c r="D7" t="n">
-        <v>21.21</v>
+        <v>20.95</v>
       </c>
       <c r="E7" t="n">
-        <v>21.2</v>
+        <v>20.95</v>
       </c>
       <c r="F7" t="n">
-        <v>6790.7715</v>
+        <v>90.27249999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>21.16066666666666</v>
+        <v>-714211.2897903599</v>
       </c>
       <c r="H7" t="n">
-        <v>21.0686666666667</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>21.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -690,42 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>21.15</v>
+        <v>20.96</v>
       </c>
       <c r="C8" t="n">
-        <v>21.15</v>
+        <v>20.96</v>
       </c>
       <c r="D8" t="n">
-        <v>21.15</v>
+        <v>20.96</v>
       </c>
       <c r="E8" t="n">
-        <v>21.15</v>
+        <v>20.96</v>
       </c>
       <c r="F8" t="n">
-        <v>8279.234200000001</v>
+        <v>2483.6059</v>
       </c>
       <c r="G8" t="n">
-        <v>21.182</v>
+        <v>-711727.6838903599</v>
       </c>
       <c r="H8" t="n">
-        <v>21.06783333333336</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>21.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -734,42 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>21.15</v>
+        <v>20.95</v>
       </c>
       <c r="C9" t="n">
-        <v>21.15</v>
+        <v>20.95</v>
       </c>
       <c r="D9" t="n">
-        <v>21.15</v>
+        <v>20.95</v>
       </c>
       <c r="E9" t="n">
-        <v>21.15</v>
+        <v>20.95</v>
       </c>
       <c r="F9" t="n">
-        <v>13589.1472</v>
+        <v>52</v>
       </c>
       <c r="G9" t="n">
-        <v>21.19866666666666</v>
+        <v>-711779.6838903599</v>
       </c>
       <c r="H9" t="n">
-        <v>21.07100000000003</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>21.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -778,42 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>21.29</v>
+        <v>21.13</v>
       </c>
       <c r="C10" t="n">
-        <v>21.29</v>
+        <v>21.13</v>
       </c>
       <c r="D10" t="n">
-        <v>21.29</v>
+        <v>21.13</v>
       </c>
       <c r="E10" t="n">
-        <v>21.29</v>
+        <v>21.13</v>
       </c>
       <c r="F10" t="n">
-        <v>58</v>
+        <v>991.448</v>
       </c>
       <c r="G10" t="n">
-        <v>21.198</v>
+        <v>-710788.23589036</v>
       </c>
       <c r="H10" t="n">
-        <v>21.0761666666667</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>21.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -822,42 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>21.15</v>
+        <v>21.13</v>
       </c>
       <c r="C11" t="n">
-        <v>21.15</v>
+        <v>21.13</v>
       </c>
       <c r="D11" t="n">
-        <v>21.15</v>
+        <v>21.13</v>
       </c>
       <c r="E11" t="n">
-        <v>21.15</v>
+        <v>21.13</v>
       </c>
       <c r="F11" t="n">
-        <v>4687.4511</v>
+        <v>3706.913</v>
       </c>
       <c r="G11" t="n">
-        <v>21.18133333333333</v>
+        <v>-710788.23589036</v>
       </c>
       <c r="H11" t="n">
-        <v>21.07533333333337</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>21.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -866,40 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>21.15</v>
+        <v>21.3</v>
       </c>
       <c r="C12" t="n">
-        <v>21.14</v>
+        <v>21.3</v>
       </c>
       <c r="D12" t="n">
-        <v>21.15</v>
+        <v>21.3</v>
       </c>
       <c r="E12" t="n">
-        <v>21.14</v>
+        <v>21.3</v>
       </c>
       <c r="F12" t="n">
-        <v>45127.9702</v>
+        <v>5100</v>
       </c>
       <c r="G12" t="n">
-        <v>21.17933333333333</v>
+        <v>-705688.23589036</v>
       </c>
       <c r="H12" t="n">
-        <v>21.07433333333337</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -908,42 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21.29</v>
+        <v>21.1</v>
       </c>
       <c r="C13" t="n">
-        <v>21.29</v>
+        <v>20.96</v>
       </c>
       <c r="D13" t="n">
-        <v>21.29</v>
+        <v>21.1</v>
       </c>
       <c r="E13" t="n">
-        <v>21.29</v>
+        <v>20.96</v>
       </c>
       <c r="F13" t="n">
-        <v>58</v>
+        <v>13998.1728</v>
       </c>
       <c r="G13" t="n">
-        <v>21.19</v>
+        <v>-719686.4086903599</v>
       </c>
       <c r="H13" t="n">
-        <v>21.07450000000004</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>21.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -952,40 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>21.14</v>
+        <v>20.97</v>
       </c>
       <c r="C14" t="n">
-        <v>21.13</v>
+        <v>20.96</v>
       </c>
       <c r="D14" t="n">
-        <v>21.14</v>
+        <v>20.97</v>
       </c>
       <c r="E14" t="n">
-        <v>21.13</v>
+        <v>20.96</v>
       </c>
       <c r="F14" t="n">
-        <v>61780.8305</v>
+        <v>17804.4402</v>
       </c>
       <c r="G14" t="n">
-        <v>21.19133333333333</v>
+        <v>-719686.4086903599</v>
       </c>
       <c r="H14" t="n">
-        <v>21.0731666666667</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -994,42 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>21.13</v>
+        <v>20.96</v>
       </c>
       <c r="C15" t="n">
-        <v>21.14</v>
+        <v>20.96</v>
       </c>
       <c r="D15" t="n">
-        <v>21.14</v>
+        <v>20.96</v>
       </c>
       <c r="E15" t="n">
-        <v>21.13</v>
+        <v>20.96</v>
       </c>
       <c r="F15" t="n">
-        <v>576</v>
+        <v>49368.4616</v>
       </c>
       <c r="G15" t="n">
-        <v>21.192</v>
+        <v>-719686.4086903599</v>
       </c>
       <c r="H15" t="n">
-        <v>21.07200000000004</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>21.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1038,42 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>21.29</v>
+        <v>20.96</v>
       </c>
       <c r="C16" t="n">
-        <v>21.4</v>
+        <v>20.9</v>
       </c>
       <c r="D16" t="n">
-        <v>21.4</v>
+        <v>20.97</v>
       </c>
       <c r="E16" t="n">
-        <v>21.29</v>
+        <v>20.87</v>
       </c>
       <c r="F16" t="n">
-        <v>23368.57194299</v>
+        <v>44703.7014</v>
       </c>
       <c r="G16" t="n">
-        <v>21.20799999999999</v>
+        <v>-764390.1100903599</v>
       </c>
       <c r="H16" t="n">
-        <v>21.07233333333337</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>21.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1082,42 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>21.2</v>
+        <v>20.87</v>
       </c>
       <c r="C17" t="n">
-        <v>21.2</v>
+        <v>20.87</v>
       </c>
       <c r="D17" t="n">
-        <v>21.4</v>
+        <v>20.87</v>
       </c>
       <c r="E17" t="n">
-        <v>21.2</v>
+        <v>20.87</v>
       </c>
       <c r="F17" t="n">
-        <v>37627.29611401</v>
+        <v>30000</v>
       </c>
       <c r="G17" t="n">
-        <v>21.21133333333333</v>
+        <v>-794390.1100903599</v>
       </c>
       <c r="H17" t="n">
-        <v>21.07250000000004</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>21.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1126,40 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>21.14</v>
+        <v>20.86</v>
       </c>
       <c r="C18" t="n">
-        <v>21.14</v>
+        <v>21.3</v>
       </c>
       <c r="D18" t="n">
-        <v>21.14</v>
+        <v>21.3</v>
       </c>
       <c r="E18" t="n">
-        <v>21.14</v>
+        <v>20.73</v>
       </c>
       <c r="F18" t="n">
-        <v>21180.6067</v>
+        <v>156088.53939746</v>
       </c>
       <c r="G18" t="n">
-        <v>21.21066666666666</v>
+        <v>-638301.5706928999</v>
       </c>
       <c r="H18" t="n">
-        <v>21.0716666666667</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1168,42 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>21.13</v>
+        <v>20.9</v>
       </c>
       <c r="C19" t="n">
-        <v>21.12</v>
+        <v>20.9</v>
       </c>
       <c r="D19" t="n">
-        <v>21.13</v>
+        <v>20.9</v>
       </c>
       <c r="E19" t="n">
-        <v>21.12</v>
+        <v>20.9</v>
       </c>
       <c r="F19" t="n">
-        <v>10880.8424</v>
+        <v>198</v>
       </c>
       <c r="G19" t="n">
-        <v>21.194</v>
+        <v>-638499.5706928999</v>
       </c>
       <c r="H19" t="n">
-        <v>21.07050000000003</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>21.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1212,42 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>21.12</v>
+        <v>20.9</v>
       </c>
       <c r="C20" t="n">
-        <v>21.12</v>
+        <v>20.75</v>
       </c>
       <c r="D20" t="n">
-        <v>21.12</v>
+        <v>20.9</v>
       </c>
       <c r="E20" t="n">
-        <v>21.11</v>
+        <v>20.75</v>
       </c>
       <c r="F20" t="n">
-        <v>16798.8443</v>
+        <v>23741.3531</v>
       </c>
       <c r="G20" t="n">
-        <v>21.18866666666666</v>
+        <v>-662240.9237928998</v>
       </c>
       <c r="H20" t="n">
-        <v>21.07200000000003</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>21.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1256,42 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>21.2</v>
+        <v>20.72</v>
       </c>
       <c r="C21" t="n">
-        <v>21.2</v>
+        <v>20.62</v>
       </c>
       <c r="D21" t="n">
-        <v>21.2</v>
+        <v>20.89</v>
       </c>
       <c r="E21" t="n">
-        <v>21.2</v>
+        <v>20.61</v>
       </c>
       <c r="F21" t="n">
-        <v>5991.5938</v>
+        <v>265521.8439</v>
       </c>
       <c r="G21" t="n">
-        <v>21.188</v>
+        <v>-927762.7676928998</v>
       </c>
       <c r="H21" t="n">
-        <v>21.0726666666667</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>21.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1300,42 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>21.2</v>
+        <v>20.62</v>
       </c>
       <c r="C22" t="n">
-        <v>21.2</v>
+        <v>20.83</v>
       </c>
       <c r="D22" t="n">
-        <v>21.2</v>
+        <v>20.83</v>
       </c>
       <c r="E22" t="n">
-        <v>21.2</v>
+        <v>20.61</v>
       </c>
       <c r="F22" t="n">
-        <v>1992</v>
+        <v>13682.9334</v>
       </c>
       <c r="G22" t="n">
-        <v>21.188</v>
+        <v>-914079.8342928998</v>
       </c>
       <c r="H22" t="n">
-        <v>21.07433333333337</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>21.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1344,40 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="C23" t="n">
-        <v>21.4</v>
+        <v>20.9</v>
       </c>
       <c r="D23" t="n">
-        <v>21.4</v>
+        <v>20.9</v>
       </c>
       <c r="E23" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="F23" t="n">
-        <v>26160.6</v>
+        <v>955.3519</v>
       </c>
       <c r="G23" t="n">
-        <v>21.20466666666666</v>
+        <v>-913124.4823928998</v>
       </c>
       <c r="H23" t="n">
-        <v>21.07933333333337</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1386,40 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>21.4</v>
+        <v>20.9</v>
       </c>
       <c r="C24" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="D24" t="n">
-        <v>21.4</v>
+        <v>21.37</v>
       </c>
       <c r="E24" t="n">
-        <v>21.4</v>
+        <v>20.9</v>
       </c>
       <c r="F24" t="n">
-        <v>442.0194</v>
+        <v>95529.48170254</v>
       </c>
       <c r="G24" t="n">
-        <v>21.22133333333333</v>
+        <v>-817595.0006903599</v>
       </c>
       <c r="H24" t="n">
-        <v>21.08550000000004</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,40 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="C25" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="D25" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="E25" t="n">
-        <v>21.4</v>
+        <v>21.17</v>
       </c>
       <c r="F25" t="n">
-        <v>39435.5371</v>
+        <v>71763.61119746001</v>
       </c>
       <c r="G25" t="n">
-        <v>21.23533333333333</v>
+        <v>-745831.3894928999</v>
       </c>
       <c r="H25" t="n">
-        <v>21.09333333333337</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1470,40 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>21.5</v>
+        <v>21.17</v>
       </c>
       <c r="C26" t="n">
-        <v>21.69</v>
+        <v>21.17</v>
       </c>
       <c r="D26" t="n">
-        <v>21.69</v>
+        <v>21.17</v>
       </c>
       <c r="E26" t="n">
-        <v>21.5</v>
+        <v>21.17</v>
       </c>
       <c r="F26" t="n">
-        <v>132172.696743</v>
+        <v>2235.306</v>
       </c>
       <c r="G26" t="n">
-        <v>21.27133333333333</v>
+        <v>-748066.6954928999</v>
       </c>
       <c r="H26" t="n">
-        <v>21.10583333333337</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1512,40 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>21.69</v>
+        <v>21.17</v>
       </c>
       <c r="C27" t="n">
-        <v>21.73</v>
+        <v>21.13</v>
       </c>
       <c r="D27" t="n">
-        <v>21.73</v>
+        <v>21.17</v>
       </c>
       <c r="E27" t="n">
-        <v>21.6</v>
+        <v>21.13</v>
       </c>
       <c r="F27" t="n">
-        <v>23842.3632</v>
+        <v>19879.891</v>
       </c>
       <c r="G27" t="n">
-        <v>21.31066666666667</v>
+        <v>-767946.5864928998</v>
       </c>
       <c r="H27" t="n">
-        <v>21.11183333333338</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1554,40 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>21.69</v>
+        <v>21.11</v>
       </c>
       <c r="C28" t="n">
-        <v>21.69</v>
+        <v>21.11</v>
       </c>
       <c r="D28" t="n">
-        <v>21.69</v>
+        <v>21.11</v>
       </c>
       <c r="E28" t="n">
-        <v>21.69</v>
+        <v>21.11</v>
       </c>
       <c r="F28" t="n">
-        <v>6631.207</v>
+        <v>56290.5296</v>
       </c>
       <c r="G28" t="n">
-        <v>21.33733333333333</v>
+        <v>-824237.1160928998</v>
       </c>
       <c r="H28" t="n">
-        <v>21.12000000000004</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1596,40 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>21.69</v>
+        <v>21.12</v>
       </c>
       <c r="C29" t="n">
-        <v>21.69</v>
+        <v>21.13</v>
       </c>
       <c r="D29" t="n">
-        <v>21.69</v>
+        <v>21.13</v>
       </c>
       <c r="E29" t="n">
-        <v>21.69</v>
+        <v>21.12</v>
       </c>
       <c r="F29" t="n">
-        <v>40419.5248</v>
+        <v>61348.8117</v>
       </c>
       <c r="G29" t="n">
-        <v>21.37466666666666</v>
+        <v>-762888.3043928999</v>
       </c>
       <c r="H29" t="n">
-        <v>21.12816666666671</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,40 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>21.73</v>
+        <v>21.14</v>
       </c>
       <c r="C30" t="n">
-        <v>21.74</v>
+        <v>21.16</v>
       </c>
       <c r="D30" t="n">
-        <v>21.74</v>
+        <v>21.16</v>
       </c>
       <c r="E30" t="n">
-        <v>21.73</v>
+        <v>21.14</v>
       </c>
       <c r="F30" t="n">
-        <v>50</v>
+        <v>22292.7101</v>
       </c>
       <c r="G30" t="n">
-        <v>21.41466666666667</v>
+        <v>-740595.5942928998</v>
       </c>
       <c r="H30" t="n">
-        <v>21.14150000000004</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1680,40 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>21.4</v>
+        <v>21.19</v>
       </c>
       <c r="C31" t="n">
-        <v>21.74</v>
+        <v>21.15</v>
       </c>
       <c r="D31" t="n">
-        <v>21.74</v>
+        <v>21.19</v>
       </c>
       <c r="E31" t="n">
-        <v>21.4</v>
+        <v>21.15</v>
       </c>
       <c r="F31" t="n">
-        <v>809.8564</v>
+        <v>187258.3614</v>
       </c>
       <c r="G31" t="n">
-        <v>21.43733333333333</v>
+        <v>-927853.9556928999</v>
       </c>
       <c r="H31" t="n">
-        <v>21.15533333333337</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1722,40 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>21.41</v>
+        <v>21.15</v>
       </c>
       <c r="C32" t="n">
-        <v>21.41</v>
+        <v>21.15</v>
       </c>
       <c r="D32" t="n">
-        <v>21.41</v>
+        <v>21.15</v>
       </c>
       <c r="E32" t="n">
-        <v>21.41</v>
+        <v>21.15</v>
       </c>
       <c r="F32" t="n">
-        <v>175.7705</v>
+        <v>4063.9426</v>
       </c>
       <c r="G32" t="n">
-        <v>21.45133333333333</v>
+        <v>-927853.9556928999</v>
       </c>
       <c r="H32" t="n">
-        <v>21.16550000000004</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1764,40 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>21.43</v>
+        <v>21.37</v>
       </c>
       <c r="C33" t="n">
-        <v>21.43</v>
+        <v>21.37</v>
       </c>
       <c r="D33" t="n">
-        <v>21.43</v>
+        <v>21.37</v>
       </c>
       <c r="E33" t="n">
-        <v>21.43</v>
+        <v>21.37</v>
       </c>
       <c r="F33" t="n">
-        <v>11199.253</v>
+        <v>1000</v>
       </c>
       <c r="G33" t="n">
-        <v>21.47066666666667</v>
+        <v>-926853.9556928999</v>
       </c>
       <c r="H33" t="n">
-        <v>21.17650000000004</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,40 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>21.43</v>
+        <v>21.21</v>
       </c>
       <c r="C34" t="n">
-        <v>21.43</v>
+        <v>21.2</v>
       </c>
       <c r="D34" t="n">
-        <v>21.43</v>
+        <v>21.21</v>
       </c>
       <c r="E34" t="n">
-        <v>21.43</v>
+        <v>21.2</v>
       </c>
       <c r="F34" t="n">
-        <v>3918.5319</v>
+        <v>11551.1406</v>
       </c>
       <c r="G34" t="n">
-        <v>21.49133333333334</v>
+        <v>-938405.0962928999</v>
       </c>
       <c r="H34" t="n">
-        <v>21.18866666666671</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,40 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>21.43</v>
+        <v>21.21</v>
       </c>
       <c r="C35" t="n">
-        <v>21.4</v>
+        <v>21.21</v>
       </c>
       <c r="D35" t="n">
-        <v>21.43</v>
+        <v>21.21</v>
       </c>
       <c r="E35" t="n">
-        <v>21.4</v>
+        <v>21.21</v>
       </c>
       <c r="F35" t="n">
-        <v>9938.7305</v>
+        <v>163</v>
       </c>
       <c r="G35" t="n">
-        <v>21.51</v>
+        <v>-938242.0962928999</v>
       </c>
       <c r="H35" t="n">
-        <v>21.20016666666671</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1890,40 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>21.4</v>
+        <v>21.21</v>
       </c>
       <c r="C36" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="D36" t="n">
-        <v>21.4</v>
+        <v>21.21</v>
       </c>
       <c r="E36" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="F36" t="n">
-        <v>4400</v>
+        <v>6790.7715</v>
       </c>
       <c r="G36" t="n">
-        <v>21.52333333333333</v>
+        <v>-945032.8677929</v>
       </c>
       <c r="H36" t="n">
-        <v>21.20783333333338</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1932,40 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>21.49</v>
+        <v>21.15</v>
       </c>
       <c r="C37" t="n">
-        <v>21.49</v>
+        <v>21.15</v>
       </c>
       <c r="D37" t="n">
-        <v>21.49</v>
+        <v>21.15</v>
       </c>
       <c r="E37" t="n">
-        <v>21.49</v>
+        <v>21.15</v>
       </c>
       <c r="F37" t="n">
-        <v>11092.751</v>
+        <v>8279.234200000001</v>
       </c>
       <c r="G37" t="n">
-        <v>21.54266666666667</v>
+        <v>-953312.1019928999</v>
       </c>
       <c r="H37" t="n">
-        <v>21.21683333333338</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1974,40 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>21.49</v>
+        <v>21.15</v>
       </c>
       <c r="C38" t="n">
-        <v>21.8</v>
+        <v>21.15</v>
       </c>
       <c r="D38" t="n">
-        <v>21.8</v>
+        <v>21.15</v>
       </c>
       <c r="E38" t="n">
-        <v>21.4</v>
+        <v>21.15</v>
       </c>
       <c r="F38" t="n">
-        <v>164587.3589</v>
+        <v>13589.1472</v>
       </c>
       <c r="G38" t="n">
-        <v>21.56933333333334</v>
+        <v>-953312.1019928999</v>
       </c>
       <c r="H38" t="n">
-        <v>21.23100000000004</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2016,40 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>21.8</v>
+        <v>21.29</v>
       </c>
       <c r="C39" t="n">
-        <v>21.8</v>
+        <v>21.29</v>
       </c>
       <c r="D39" t="n">
-        <v>21.95</v>
+        <v>21.29</v>
       </c>
       <c r="E39" t="n">
-        <v>21.4</v>
+        <v>21.29</v>
       </c>
       <c r="F39" t="n">
-        <v>161904.7887</v>
+        <v>58</v>
       </c>
       <c r="G39" t="n">
-        <v>21.59600000000001</v>
+        <v>-953254.1019928999</v>
       </c>
       <c r="H39" t="n">
-        <v>21.24500000000004</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,40 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>21.95</v>
+        <v>21.15</v>
       </c>
       <c r="C40" t="n">
-        <v>21.95</v>
+        <v>21.15</v>
       </c>
       <c r="D40" t="n">
-        <v>21.95</v>
+        <v>21.15</v>
       </c>
       <c r="E40" t="n">
-        <v>21.95</v>
+        <v>21.15</v>
       </c>
       <c r="F40" t="n">
-        <v>96635.77589999999</v>
+        <v>4687.4511</v>
       </c>
       <c r="G40" t="n">
-        <v>21.62600000000001</v>
+        <v>-957941.5530928998</v>
       </c>
       <c r="H40" t="n">
-        <v>21.26166666666671</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2100,40 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>21.61</v>
+        <v>21.15</v>
       </c>
       <c r="C41" t="n">
-        <v>21.61</v>
+        <v>21.14</v>
       </c>
       <c r="D41" t="n">
-        <v>21.61</v>
+        <v>21.15</v>
       </c>
       <c r="E41" t="n">
-        <v>21.61</v>
+        <v>21.14</v>
       </c>
       <c r="F41" t="n">
-        <v>985</v>
+        <v>45127.9702</v>
       </c>
       <c r="G41" t="n">
-        <v>21.62066666666668</v>
+        <v>-1003069.5232929</v>
       </c>
       <c r="H41" t="n">
-        <v>21.2696666666667</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2142,40 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>21.61</v>
+        <v>21.29</v>
       </c>
       <c r="C42" t="n">
-        <v>21.6</v>
+        <v>21.29</v>
       </c>
       <c r="D42" t="n">
-        <v>21.61</v>
+        <v>21.29</v>
       </c>
       <c r="E42" t="n">
-        <v>21.6</v>
+        <v>21.29</v>
       </c>
       <c r="F42" t="n">
-        <v>16347.0378</v>
+        <v>58</v>
       </c>
       <c r="G42" t="n">
-        <v>21.61200000000001</v>
+        <v>-1003011.5232929</v>
       </c>
       <c r="H42" t="n">
-        <v>21.27750000000004</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2184,40 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>21.79</v>
+        <v>21.14</v>
       </c>
       <c r="C43" t="n">
-        <v>21.79</v>
+        <v>21.13</v>
       </c>
       <c r="D43" t="n">
-        <v>21.79</v>
+        <v>21.14</v>
       </c>
       <c r="E43" t="n">
-        <v>21.79</v>
+        <v>21.13</v>
       </c>
       <c r="F43" t="n">
-        <v>11216</v>
+        <v>61780.8305</v>
       </c>
       <c r="G43" t="n">
-        <v>21.61866666666668</v>
+        <v>-1064792.3537929</v>
       </c>
       <c r="H43" t="n">
-        <v>21.2856666666667</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2226,40 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>21.79</v>
+        <v>21.13</v>
       </c>
       <c r="C44" t="n">
-        <v>21.9</v>
+        <v>21.14</v>
       </c>
       <c r="D44" t="n">
-        <v>21.9</v>
+        <v>21.14</v>
       </c>
       <c r="E44" t="n">
-        <v>21.79</v>
+        <v>21.13</v>
       </c>
       <c r="F44" t="n">
-        <v>6115.5718</v>
+        <v>576</v>
       </c>
       <c r="G44" t="n">
-        <v>21.63266666666668</v>
+        <v>-1064216.3537929</v>
       </c>
       <c r="H44" t="n">
-        <v>21.30133333333337</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,40 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>21.9</v>
+        <v>21.29</v>
       </c>
       <c r="C45" t="n">
-        <v>21.9</v>
+        <v>21.4</v>
       </c>
       <c r="D45" t="n">
-        <v>21.9</v>
+        <v>21.4</v>
       </c>
       <c r="E45" t="n">
-        <v>21.9</v>
+        <v>21.29</v>
       </c>
       <c r="F45" t="n">
-        <v>44856</v>
+        <v>23368.57194299</v>
       </c>
       <c r="G45" t="n">
-        <v>21.64333333333334</v>
+        <v>-1040847.78184991</v>
       </c>
       <c r="H45" t="n">
-        <v>21.31700000000004</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2310,40 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>21.9</v>
+        <v>21.2</v>
       </c>
       <c r="C46" t="n">
-        <v>21.9</v>
+        <v>21.2</v>
       </c>
       <c r="D46" t="n">
-        <v>21.9</v>
+        <v>21.4</v>
       </c>
       <c r="E46" t="n">
-        <v>21.9</v>
+        <v>21.2</v>
       </c>
       <c r="F46" t="n">
-        <v>47186.9376</v>
+        <v>37627.29611401</v>
       </c>
       <c r="G46" t="n">
-        <v>21.654</v>
+        <v>-1078475.07796392</v>
       </c>
       <c r="H46" t="n">
-        <v>21.3326666666667</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2352,40 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>21.89</v>
+        <v>21.14</v>
       </c>
       <c r="C47" t="n">
-        <v>21.89</v>
+        <v>21.14</v>
       </c>
       <c r="D47" t="n">
-        <v>21.89</v>
+        <v>21.14</v>
       </c>
       <c r="E47" t="n">
-        <v>21.89</v>
+        <v>21.14</v>
       </c>
       <c r="F47" t="n">
-        <v>11863.7586</v>
+        <v>21180.6067</v>
       </c>
       <c r="G47" t="n">
-        <v>21.686</v>
+        <v>-1099655.68466392</v>
       </c>
       <c r="H47" t="n">
-        <v>21.3491666666667</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2394,76 +2043,68 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>21.61</v>
+        <v>21.13</v>
       </c>
       <c r="C48" t="n">
-        <v>21.61</v>
+        <v>21.12</v>
       </c>
       <c r="D48" t="n">
-        <v>21.61</v>
+        <v>21.13</v>
       </c>
       <c r="E48" t="n">
-        <v>21.61</v>
+        <v>21.12</v>
       </c>
       <c r="F48" t="n">
-        <v>18300</v>
+        <v>10880.8424</v>
       </c>
       <c r="G48" t="n">
-        <v>21.698</v>
+        <v>-1110536.52706392</v>
       </c>
       <c r="H48" t="n">
-        <v>21.36150000000004</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>1</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>21.5</v>
+        <v>21.12</v>
       </c>
       <c r="C49" t="n">
-        <v>21.5</v>
+        <v>21.12</v>
       </c>
       <c r="D49" t="n">
-        <v>21.5</v>
+        <v>21.12</v>
       </c>
       <c r="E49" t="n">
-        <v>21.5</v>
+        <v>21.11</v>
       </c>
       <c r="F49" t="n">
-        <v>4400</v>
+        <v>16798.8443</v>
       </c>
       <c r="G49" t="n">
-        <v>21.70266666666667</v>
+        <v>-1110536.52706392</v>
       </c>
       <c r="H49" t="n">
-        <v>21.36483333333337</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2472,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>21.49</v>
+        <v>21.2</v>
       </c>
       <c r="C50" t="n">
-        <v>21.49</v>
+        <v>21.2</v>
       </c>
       <c r="D50" t="n">
-        <v>21.49</v>
+        <v>21.2</v>
       </c>
       <c r="E50" t="n">
-        <v>21.49</v>
+        <v>21.2</v>
       </c>
       <c r="F50" t="n">
-        <v>4400</v>
+        <v>5991.5938</v>
       </c>
       <c r="G50" t="n">
-        <v>21.70866666666667</v>
+        <v>-1104544.93326392</v>
       </c>
       <c r="H50" t="n">
-        <v>21.37466666666671</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2510,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>21.5</v>
+        <v>21.2</v>
       </c>
       <c r="C51" t="n">
-        <v>21.5</v>
+        <v>21.2</v>
       </c>
       <c r="D51" t="n">
-        <v>21.5</v>
+        <v>21.2</v>
       </c>
       <c r="E51" t="n">
-        <v>21.5</v>
+        <v>21.2</v>
       </c>
       <c r="F51" t="n">
-        <v>4364.2357</v>
+        <v>1992</v>
       </c>
       <c r="G51" t="n">
-        <v>21.71533333333334</v>
+        <v>-1104544.93326392</v>
       </c>
       <c r="H51" t="n">
-        <v>21.3871666666667</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>21.49</v>
+        <v>21.2</v>
       </c>
       <c r="C52" t="n">
         <v>21.4</v>
       </c>
       <c r="D52" t="n">
-        <v>21.49</v>
+        <v>21.4</v>
       </c>
       <c r="E52" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="F52" t="n">
-        <v>3999.0605</v>
+        <v>26160.6</v>
       </c>
       <c r="G52" t="n">
-        <v>21.70933333333334</v>
+        <v>-1078384.33326392</v>
       </c>
       <c r="H52" t="n">
-        <v>21.40016666666671</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>1</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2586,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="C53" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="D53" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="E53" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="F53" t="n">
-        <v>365.1752</v>
+        <v>442.0194</v>
       </c>
       <c r="G53" t="n">
-        <v>21.68933333333333</v>
+        <v>-1078384.33326392</v>
       </c>
       <c r="H53" t="n">
-        <v>21.41133333333338</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2624,7 +2253,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="C54" t="n">
         <v>21.5</v>
@@ -2633,27 +2262,24 @@
         <v>21.5</v>
       </c>
       <c r="E54" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="F54" t="n">
-        <v>365.1752</v>
+        <v>39435.5371</v>
       </c>
       <c r="G54" t="n">
-        <v>21.66933333333333</v>
+        <v>-1038948.79616392</v>
       </c>
       <c r="H54" t="n">
-        <v>21.42133333333338</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2665,33 +2291,30 @@
         <v>21.5</v>
       </c>
       <c r="C55" t="n">
-        <v>21.5</v>
+        <v>21.69</v>
       </c>
       <c r="D55" t="n">
-        <v>21.5</v>
+        <v>21.69</v>
       </c>
       <c r="E55" t="n">
         <v>21.5</v>
       </c>
       <c r="F55" t="n">
-        <v>365.1752</v>
+        <v>132172.696743</v>
       </c>
       <c r="G55" t="n">
-        <v>21.63933333333334</v>
+        <v>-906776.0994209198</v>
       </c>
       <c r="H55" t="n">
-        <v>21.42466666666671</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2700,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>21.41</v>
+        <v>21.69</v>
       </c>
       <c r="C56" t="n">
-        <v>21.3</v>
+        <v>21.73</v>
       </c>
       <c r="D56" t="n">
-        <v>21.41</v>
+        <v>21.73</v>
       </c>
       <c r="E56" t="n">
-        <v>21.3</v>
+        <v>21.6</v>
       </c>
       <c r="F56" t="n">
-        <v>133053.3387</v>
+        <v>23842.3632</v>
       </c>
       <c r="G56" t="n">
-        <v>21.61866666666667</v>
+        <v>-882933.7362209198</v>
       </c>
       <c r="H56" t="n">
-        <v>21.42300000000004</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2738,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>21.45</v>
+        <v>21.69</v>
       </c>
       <c r="C57" t="n">
-        <v>21.45</v>
+        <v>21.69</v>
       </c>
       <c r="D57" t="n">
-        <v>21.45</v>
+        <v>21.69</v>
       </c>
       <c r="E57" t="n">
-        <v>21.45</v>
+        <v>21.69</v>
       </c>
       <c r="F57" t="n">
-        <v>4396.4955</v>
+        <v>6631.207</v>
       </c>
       <c r="G57" t="n">
-        <v>21.60866666666667</v>
+        <v>-889564.9432209198</v>
       </c>
       <c r="H57" t="n">
-        <v>21.42766666666671</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2776,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>21.46</v>
+        <v>21.69</v>
       </c>
       <c r="C58" t="n">
-        <v>21.45</v>
+        <v>21.69</v>
       </c>
       <c r="D58" t="n">
-        <v>21.46</v>
+        <v>21.69</v>
       </c>
       <c r="E58" t="n">
-        <v>21.3</v>
+        <v>21.69</v>
       </c>
       <c r="F58" t="n">
-        <v>62175.4013</v>
+        <v>40419.5248</v>
       </c>
       <c r="G58" t="n">
-        <v>21.586</v>
+        <v>-889564.9432209198</v>
       </c>
       <c r="H58" t="n">
-        <v>21.43300000000004</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2814,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>21.45</v>
+        <v>21.73</v>
       </c>
       <c r="C59" t="n">
-        <v>21.45</v>
+        <v>21.74</v>
       </c>
       <c r="D59" t="n">
-        <v>21.45</v>
+        <v>21.74</v>
       </c>
       <c r="E59" t="n">
-        <v>21.45</v>
+        <v>21.73</v>
       </c>
       <c r="F59" t="n">
-        <v>11000</v>
+        <v>50</v>
       </c>
       <c r="G59" t="n">
-        <v>21.556</v>
+        <v>-889514.9432209198</v>
       </c>
       <c r="H59" t="n">
-        <v>21.43866666666671</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2852,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>21.45</v>
+        <v>21.4</v>
       </c>
       <c r="C60" t="n">
-        <v>21.45</v>
+        <v>21.74</v>
       </c>
       <c r="D60" t="n">
-        <v>21.45</v>
+        <v>21.74</v>
       </c>
       <c r="E60" t="n">
-        <v>21.45</v>
+        <v>21.4</v>
       </c>
       <c r="F60" t="n">
-        <v>8000</v>
+        <v>809.8564</v>
       </c>
       <c r="G60" t="n">
-        <v>21.526</v>
+        <v>-889514.9432209198</v>
       </c>
       <c r="H60" t="n">
-        <v>21.44400000000004</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2890,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>21.45</v>
+        <v>21.41</v>
       </c>
       <c r="C61" t="n">
-        <v>21.45</v>
+        <v>21.41</v>
       </c>
       <c r="D61" t="n">
-        <v>21.45</v>
+        <v>21.41</v>
       </c>
       <c r="E61" t="n">
-        <v>21.3</v>
+        <v>21.41</v>
       </c>
       <c r="F61" t="n">
-        <v>53772.674</v>
+        <v>175.7705</v>
       </c>
       <c r="G61" t="n">
-        <v>21.496</v>
+        <v>-889690.7137209198</v>
       </c>
       <c r="H61" t="n">
-        <v>21.44883333333337</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2928,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>21.45</v>
+        <v>21.43</v>
       </c>
       <c r="C62" t="n">
-        <v>21.45</v>
+        <v>21.43</v>
       </c>
       <c r="D62" t="n">
-        <v>21.45</v>
+        <v>21.43</v>
       </c>
       <c r="E62" t="n">
-        <v>21.45</v>
+        <v>21.43</v>
       </c>
       <c r="F62" t="n">
-        <v>3000</v>
+        <v>11199.253</v>
       </c>
       <c r="G62" t="n">
-        <v>21.46666666666667</v>
+        <v>-878491.4607209198</v>
       </c>
       <c r="H62" t="n">
-        <v>21.45383333333337</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2966,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>21.3</v>
+        <v>21.43</v>
       </c>
       <c r="C63" t="n">
-        <v>21.25</v>
+        <v>21.43</v>
       </c>
       <c r="D63" t="n">
-        <v>21.3</v>
+        <v>21.43</v>
       </c>
       <c r="E63" t="n">
-        <v>21.25</v>
+        <v>21.43</v>
       </c>
       <c r="F63" t="n">
-        <v>1785.6627</v>
+        <v>3918.5319</v>
       </c>
       <c r="G63" t="n">
-        <v>21.44266666666666</v>
+        <v>-878491.4607209198</v>
       </c>
       <c r="H63" t="n">
-        <v>21.45550000000004</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3004,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>21.3</v>
+        <v>21.43</v>
       </c>
       <c r="C64" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="D64" t="n">
-        <v>21.3</v>
+        <v>21.43</v>
       </c>
       <c r="E64" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="F64" t="n">
-        <v>5995.8557</v>
+        <v>9938.7305</v>
       </c>
       <c r="G64" t="n">
-        <v>21.42933333333333</v>
+        <v>-888430.1912209197</v>
       </c>
       <c r="H64" t="n">
-        <v>21.45433333333337</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3042,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>21.42</v>
+        <v>21.4</v>
       </c>
       <c r="C65" t="n">
-        <v>21.42</v>
+        <v>21.4</v>
       </c>
       <c r="D65" t="n">
-        <v>21.42</v>
+        <v>21.4</v>
       </c>
       <c r="E65" t="n">
-        <v>21.42</v>
+        <v>21.4</v>
       </c>
       <c r="F65" t="n">
-        <v>9353.197099999999</v>
+        <v>4400</v>
       </c>
       <c r="G65" t="n">
-        <v>21.42466666666667</v>
+        <v>-888430.1912209197</v>
       </c>
       <c r="H65" t="n">
-        <v>21.45800000000004</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3080,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>21.59</v>
+        <v>21.49</v>
       </c>
       <c r="C66" t="n">
-        <v>21.59</v>
+        <v>21.49</v>
       </c>
       <c r="D66" t="n">
-        <v>21.59</v>
+        <v>21.49</v>
       </c>
       <c r="E66" t="n">
-        <v>21.59</v>
+        <v>21.49</v>
       </c>
       <c r="F66" t="n">
-        <v>46.1606</v>
+        <v>11092.751</v>
       </c>
       <c r="G66" t="n">
-        <v>21.43066666666666</v>
+        <v>-877337.4402209197</v>
       </c>
       <c r="H66" t="n">
-        <v>21.46433333333337</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3118,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>21.59</v>
+        <v>21.49</v>
       </c>
       <c r="C67" t="n">
-        <v>21.95</v>
+        <v>21.8</v>
       </c>
       <c r="D67" t="n">
-        <v>21.95</v>
+        <v>21.8</v>
       </c>
       <c r="E67" t="n">
-        <v>21.59</v>
+        <v>21.4</v>
       </c>
       <c r="F67" t="n">
-        <v>122666.58325826</v>
+        <v>164587.3589</v>
       </c>
       <c r="G67" t="n">
-        <v>21.46733333333333</v>
+        <v>-712750.0813209197</v>
       </c>
       <c r="H67" t="n">
-        <v>21.47683333333337</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3156,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="C68" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D68" t="n">
-        <v>21.6</v>
+        <v>21.95</v>
       </c>
       <c r="E68" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="F68" t="n">
-        <v>5632.423</v>
+        <v>161904.7887</v>
       </c>
       <c r="G68" t="n">
-        <v>21.474</v>
+        <v>-712750.0813209197</v>
       </c>
       <c r="H68" t="n">
-        <v>21.48433333333337</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3194,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>21.6</v>
+        <v>21.95</v>
       </c>
       <c r="C69" t="n">
-        <v>21.7</v>
+        <v>21.95</v>
       </c>
       <c r="D69" t="n">
-        <v>21.7</v>
+        <v>21.95</v>
       </c>
       <c r="E69" t="n">
-        <v>21.6</v>
+        <v>21.95</v>
       </c>
       <c r="F69" t="n">
-        <v>3967.6984</v>
+        <v>96635.77589999999</v>
       </c>
       <c r="G69" t="n">
-        <v>21.48733333333333</v>
+        <v>-616114.3054209197</v>
       </c>
       <c r="H69" t="n">
-        <v>21.49350000000003</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3232,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>21.6</v>
+        <v>21.61</v>
       </c>
       <c r="C70" t="n">
-        <v>21.79</v>
+        <v>21.61</v>
       </c>
       <c r="D70" t="n">
-        <v>21.79</v>
+        <v>21.61</v>
       </c>
       <c r="E70" t="n">
-        <v>21.6</v>
+        <v>21.61</v>
       </c>
       <c r="F70" t="n">
-        <v>2237.0469</v>
+        <v>985</v>
       </c>
       <c r="G70" t="n">
-        <v>21.50666666666667</v>
+        <v>-617099.3054209197</v>
       </c>
       <c r="H70" t="n">
-        <v>21.50183333333337</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3270,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>21.5</v>
+        <v>21.61</v>
       </c>
       <c r="C71" t="n">
-        <v>21.41</v>
+        <v>21.6</v>
       </c>
       <c r="D71" t="n">
-        <v>21.5</v>
+        <v>21.61</v>
       </c>
       <c r="E71" t="n">
-        <v>21.41</v>
+        <v>21.6</v>
       </c>
       <c r="F71" t="n">
-        <v>122666.5832</v>
+        <v>16347.0378</v>
       </c>
       <c r="G71" t="n">
-        <v>21.514</v>
+        <v>-633446.3432209197</v>
       </c>
       <c r="H71" t="n">
-        <v>21.5061666666667</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3308,36 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>21.69</v>
+        <v>21.79</v>
       </c>
       <c r="C72" t="n">
-        <v>21.69</v>
+        <v>21.79</v>
       </c>
       <c r="D72" t="n">
-        <v>21.69</v>
+        <v>21.79</v>
       </c>
       <c r="E72" t="n">
-        <v>21.69</v>
+        <v>21.79</v>
       </c>
       <c r="F72" t="n">
-        <v>2332.9426</v>
+        <v>11216</v>
       </c>
       <c r="G72" t="n">
-        <v>21.53</v>
+        <v>-622230.3432209197</v>
       </c>
       <c r="H72" t="n">
-        <v>21.51533333333337</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3346,36 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>21.59</v>
+        <v>21.79</v>
       </c>
       <c r="C73" t="n">
-        <v>21.59</v>
+        <v>21.9</v>
       </c>
       <c r="D73" t="n">
-        <v>21.59</v>
+        <v>21.9</v>
       </c>
       <c r="E73" t="n">
-        <v>21.59</v>
+        <v>21.79</v>
       </c>
       <c r="F73" t="n">
-        <v>50</v>
+        <v>6115.5718</v>
       </c>
       <c r="G73" t="n">
-        <v>21.53933333333334</v>
+        <v>-616114.7714209197</v>
       </c>
       <c r="H73" t="n">
-        <v>21.52033333333337</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3384,36 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>21.47</v>
+        <v>21.9</v>
       </c>
       <c r="C74" t="n">
-        <v>21.47</v>
+        <v>21.9</v>
       </c>
       <c r="D74" t="n">
-        <v>21.47</v>
+        <v>21.9</v>
       </c>
       <c r="E74" t="n">
-        <v>21.47</v>
+        <v>21.9</v>
       </c>
       <c r="F74" t="n">
-        <v>9319</v>
+        <v>44856</v>
       </c>
       <c r="G74" t="n">
-        <v>21.54066666666667</v>
+        <v>-616114.7714209197</v>
       </c>
       <c r="H74" t="n">
-        <v>21.52600000000003</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3422,36 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>21.79</v>
+        <v>21.9</v>
       </c>
       <c r="C75" t="n">
-        <v>21.79</v>
+        <v>21.9</v>
       </c>
       <c r="D75" t="n">
-        <v>21.79</v>
+        <v>21.9</v>
       </c>
       <c r="E75" t="n">
-        <v>21.79</v>
+        <v>21.9</v>
       </c>
       <c r="F75" t="n">
-        <v>30.0079</v>
+        <v>47186.9376</v>
       </c>
       <c r="G75" t="n">
-        <v>21.56333333333334</v>
+        <v>-616114.7714209197</v>
       </c>
       <c r="H75" t="n">
-        <v>21.53683333333336</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3460,36 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>21.5</v>
+        <v>21.89</v>
       </c>
       <c r="C76" t="n">
-        <v>21.5</v>
+        <v>21.89</v>
       </c>
       <c r="D76" t="n">
-        <v>21.5</v>
+        <v>21.89</v>
       </c>
       <c r="E76" t="n">
-        <v>21.5</v>
+        <v>21.89</v>
       </c>
       <c r="F76" t="n">
-        <v>11667.4536</v>
+        <v>11863.7586</v>
       </c>
       <c r="G76" t="n">
-        <v>21.56666666666667</v>
+        <v>-627978.5300209196</v>
       </c>
       <c r="H76" t="n">
-        <v>21.53850000000002</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3498,36 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>21.6</v>
+        <v>21.61</v>
       </c>
       <c r="C77" t="n">
-        <v>21.6</v>
+        <v>21.61</v>
       </c>
       <c r="D77" t="n">
-        <v>21.6</v>
+        <v>21.61</v>
       </c>
       <c r="E77" t="n">
-        <v>21.6</v>
+        <v>21.61</v>
       </c>
       <c r="F77" t="n">
-        <v>7090</v>
+        <v>18300</v>
       </c>
       <c r="G77" t="n">
-        <v>21.57666666666668</v>
+        <v>-646278.5300209196</v>
       </c>
       <c r="H77" t="n">
-        <v>21.54516666666669</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3536,36 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>21.59</v>
+        <v>21.5</v>
       </c>
       <c r="C78" t="n">
-        <v>21.59</v>
+        <v>21.5</v>
       </c>
       <c r="D78" t="n">
-        <v>21.59</v>
+        <v>21.5</v>
       </c>
       <c r="E78" t="n">
-        <v>21.59</v>
+        <v>21.5</v>
       </c>
       <c r="F78" t="n">
-        <v>2309.0277</v>
+        <v>4400</v>
       </c>
       <c r="G78" t="n">
-        <v>21.59933333333334</v>
+        <v>-650678.5300209196</v>
       </c>
       <c r="H78" t="n">
-        <v>21.55266666666669</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3574,36 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>21.59</v>
+        <v>21.49</v>
       </c>
       <c r="C79" t="n">
-        <v>21.59</v>
+        <v>21.49</v>
       </c>
       <c r="D79" t="n">
-        <v>21.59</v>
+        <v>21.49</v>
       </c>
       <c r="E79" t="n">
-        <v>21.59</v>
+        <v>21.49</v>
       </c>
       <c r="F79" t="n">
-        <v>6950.5223</v>
+        <v>4400</v>
       </c>
       <c r="G79" t="n">
-        <v>21.61866666666667</v>
+        <v>-655078.5300209196</v>
       </c>
       <c r="H79" t="n">
-        <v>21.56050000000002</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3612,36 +3163,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="C80" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="D80" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="E80" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="F80" t="n">
-        <v>7216.3845</v>
+        <v>4364.2357</v>
       </c>
       <c r="G80" t="n">
-        <v>21.63066666666667</v>
+        <v>-650714.2943209197</v>
       </c>
       <c r="H80" t="n">
-        <v>21.56850000000002</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3650,36 +3198,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>21.6</v>
+        <v>21.49</v>
       </c>
       <c r="C81" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="D81" t="n">
-        <v>21.6</v>
+        <v>21.49</v>
       </c>
       <c r="E81" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="F81" t="n">
-        <v>272.8636</v>
+        <v>3999.0605</v>
       </c>
       <c r="G81" t="n">
-        <v>21.63133333333334</v>
+        <v>-654713.3548209197</v>
       </c>
       <c r="H81" t="n">
-        <v>21.57516666666669</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3688,36 +3233,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>21.59</v>
+        <v>21.5</v>
       </c>
       <c r="C82" t="n">
         <v>21.5</v>
       </c>
       <c r="D82" t="n">
-        <v>21.59</v>
+        <v>21.5</v>
       </c>
       <c r="E82" t="n">
         <v>21.5</v>
       </c>
       <c r="F82" t="n">
-        <v>11680.7284</v>
+        <v>365.1752</v>
       </c>
       <c r="G82" t="n">
-        <v>21.60133333333334</v>
+        <v>-654348.1796209196</v>
       </c>
       <c r="H82" t="n">
-        <v>21.58016666666668</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,24 +3280,21 @@
         <v>21.5</v>
       </c>
       <c r="F83" t="n">
-        <v>6003.8462</v>
+        <v>365.1752</v>
       </c>
       <c r="G83" t="n">
-        <v>21.59466666666668</v>
+        <v>-654348.1796209196</v>
       </c>
       <c r="H83" t="n">
-        <v>21.58183333333335</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3776,24 +3315,21 @@
         <v>21.5</v>
       </c>
       <c r="F84" t="n">
-        <v>3848.3524</v>
+        <v>365.1752</v>
       </c>
       <c r="G84" t="n">
-        <v>21.58133333333334</v>
+        <v>-654348.1796209196</v>
       </c>
       <c r="H84" t="n">
-        <v>21.58350000000002</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3802,36 +3338,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>21.5</v>
+        <v>21.41</v>
       </c>
       <c r="C85" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="D85" t="n">
-        <v>21.5</v>
+        <v>21.41</v>
       </c>
       <c r="E85" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="F85" t="n">
-        <v>39366.7979</v>
+        <v>133053.3387</v>
       </c>
       <c r="G85" t="n">
-        <v>21.56200000000001</v>
+        <v>-787401.5183209196</v>
       </c>
       <c r="H85" t="n">
-        <v>21.58350000000002</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3840,36 +3373,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>21.5</v>
+        <v>21.45</v>
       </c>
       <c r="C86" t="n">
-        <v>21.46</v>
+        <v>21.45</v>
       </c>
       <c r="D86" t="n">
-        <v>21.5</v>
+        <v>21.45</v>
       </c>
       <c r="E86" t="n">
-        <v>21.46</v>
+        <v>21.45</v>
       </c>
       <c r="F86" t="n">
-        <v>59050.6962</v>
+        <v>4396.4955</v>
       </c>
       <c r="G86" t="n">
-        <v>21.56533333333334</v>
+        <v>-783005.0228209196</v>
       </c>
       <c r="H86" t="n">
-        <v>21.57966666666668</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3881,33 +3411,30 @@
         <v>21.46</v>
       </c>
       <c r="C87" t="n">
-        <v>21.46</v>
+        <v>21.45</v>
       </c>
       <c r="D87" t="n">
         <v>21.46</v>
       </c>
       <c r="E87" t="n">
-        <v>21.46</v>
+        <v>21.3</v>
       </c>
       <c r="F87" t="n">
-        <v>626.1446</v>
+        <v>62175.4013</v>
       </c>
       <c r="G87" t="n">
-        <v>21.55</v>
+        <v>-783005.0228209196</v>
       </c>
       <c r="H87" t="n">
-        <v>21.57516666666668</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,36 +3443,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>21.46</v>
+        <v>21.45</v>
       </c>
       <c r="C88" t="n">
-        <v>21.46</v>
+        <v>21.45</v>
       </c>
       <c r="D88" t="n">
-        <v>21.46</v>
+        <v>21.45</v>
       </c>
       <c r="E88" t="n">
-        <v>21.46</v>
+        <v>21.45</v>
       </c>
       <c r="F88" t="n">
-        <v>33263.7995</v>
+        <v>11000</v>
       </c>
       <c r="G88" t="n">
-        <v>21.54133333333334</v>
+        <v>-783005.0228209196</v>
       </c>
       <c r="H88" t="n">
-        <v>21.57133333333335</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3954,36 +3478,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>21.47</v>
+        <v>21.45</v>
       </c>
       <c r="C89" t="n">
-        <v>21.59</v>
+        <v>21.45</v>
       </c>
       <c r="D89" t="n">
-        <v>21.59</v>
+        <v>21.45</v>
       </c>
       <c r="E89" t="n">
-        <v>21.46</v>
+        <v>21.45</v>
       </c>
       <c r="F89" t="n">
-        <v>25212.0027</v>
+        <v>8000</v>
       </c>
       <c r="G89" t="n">
-        <v>21.54933333333333</v>
+        <v>-783005.0228209196</v>
       </c>
       <c r="H89" t="n">
-        <v>21.56966666666668</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3992,36 +3513,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>21.46</v>
+        <v>21.45</v>
       </c>
       <c r="C90" t="n">
-        <v>21.46</v>
+        <v>21.45</v>
       </c>
       <c r="D90" t="n">
-        <v>21.46</v>
+        <v>21.45</v>
       </c>
       <c r="E90" t="n">
-        <v>21.46</v>
+        <v>21.3</v>
       </c>
       <c r="F90" t="n">
-        <v>2633.0952</v>
+        <v>53772.674</v>
       </c>
       <c r="G90" t="n">
-        <v>21.52733333333333</v>
+        <v>-783005.0228209196</v>
       </c>
       <c r="H90" t="n">
-        <v>21.56500000000001</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4030,36 +3548,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>21.46</v>
+        <v>21.45</v>
       </c>
       <c r="C91" t="n">
-        <v>21.46</v>
+        <v>21.45</v>
       </c>
       <c r="D91" t="n">
-        <v>21.46</v>
+        <v>21.45</v>
       </c>
       <c r="E91" t="n">
-        <v>21.46</v>
+        <v>21.45</v>
       </c>
       <c r="F91" t="n">
-        <v>16579.7722</v>
+        <v>3000</v>
       </c>
       <c r="G91" t="n">
-        <v>21.52466666666666</v>
+        <v>-783005.0228209196</v>
       </c>
       <c r="H91" t="n">
-        <v>21.56033333333335</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4068,36 +3583,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>21.46</v>
+        <v>21.3</v>
       </c>
       <c r="C92" t="n">
-        <v>21.46</v>
+        <v>21.25</v>
       </c>
       <c r="D92" t="n">
-        <v>21.46</v>
+        <v>21.3</v>
       </c>
       <c r="E92" t="n">
-        <v>21.46</v>
+        <v>21.25</v>
       </c>
       <c r="F92" t="n">
-        <v>29459.6627</v>
+        <v>1785.6627</v>
       </c>
       <c r="G92" t="n">
-        <v>21.51533333333333</v>
+        <v>-784790.6855209196</v>
       </c>
       <c r="H92" t="n">
-        <v>21.56116666666668</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4106,36 +3618,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>21.43</v>
+        <v>21.3</v>
       </c>
       <c r="C93" t="n">
-        <v>21.35</v>
+        <v>21.3</v>
       </c>
       <c r="D93" t="n">
-        <v>21.43</v>
+        <v>21.3</v>
       </c>
       <c r="E93" t="n">
-        <v>21.35</v>
+        <v>21.3</v>
       </c>
       <c r="F93" t="n">
-        <v>271709.757</v>
+        <v>5995.8557</v>
       </c>
       <c r="G93" t="n">
-        <v>21.49933333333333</v>
+        <v>-778794.8298209197</v>
       </c>
       <c r="H93" t="n">
-        <v>21.55983333333334</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4144,36 +3653,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>21.35</v>
+        <v>21.42</v>
       </c>
       <c r="C94" t="n">
-        <v>21.35</v>
+        <v>21.42</v>
       </c>
       <c r="D94" t="n">
-        <v>21.35</v>
+        <v>21.42</v>
       </c>
       <c r="E94" t="n">
-        <v>21.35</v>
+        <v>21.42</v>
       </c>
       <c r="F94" t="n">
-        <v>599</v>
+        <v>9353.197099999999</v>
       </c>
       <c r="G94" t="n">
-        <v>21.48333333333333</v>
+        <v>-769441.6327209197</v>
       </c>
       <c r="H94" t="n">
-        <v>21.55850000000001</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4182,36 +3688,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>21.4</v>
+        <v>21.59</v>
       </c>
       <c r="C95" t="n">
-        <v>21.4</v>
+        <v>21.59</v>
       </c>
       <c r="D95" t="n">
-        <v>21.4</v>
+        <v>21.59</v>
       </c>
       <c r="E95" t="n">
-        <v>21.4</v>
+        <v>21.59</v>
       </c>
       <c r="F95" t="n">
-        <v>7302.8165</v>
+        <v>46.1606</v>
       </c>
       <c r="G95" t="n">
-        <v>21.47</v>
+        <v>-769395.4721209197</v>
       </c>
       <c r="H95" t="n">
-        <v>21.55850000000001</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4220,36 +3723,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>21.35</v>
+        <v>21.59</v>
       </c>
       <c r="C96" t="n">
-        <v>21.35</v>
+        <v>21.95</v>
       </c>
       <c r="D96" t="n">
-        <v>21.35</v>
+        <v>21.95</v>
       </c>
       <c r="E96" t="n">
-        <v>21.35</v>
+        <v>21.59</v>
       </c>
       <c r="F96" t="n">
-        <v>2336.0655</v>
+        <v>122666.58325826</v>
       </c>
       <c r="G96" t="n">
-        <v>21.45333333333333</v>
+        <v>-646728.8888626597</v>
       </c>
       <c r="H96" t="n">
-        <v>21.55766666666667</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4258,36 +3758,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>21.32</v>
+        <v>21.6</v>
       </c>
       <c r="C97" t="n">
-        <v>21.31</v>
+        <v>21.6</v>
       </c>
       <c r="D97" t="n">
-        <v>21.32</v>
+        <v>21.6</v>
       </c>
       <c r="E97" t="n">
-        <v>21.31</v>
+        <v>21.6</v>
       </c>
       <c r="F97" t="n">
-        <v>152410.124</v>
+        <v>5632.423</v>
       </c>
       <c r="G97" t="n">
-        <v>21.44066666666667</v>
+        <v>-652361.3118626596</v>
       </c>
       <c r="H97" t="n">
-        <v>21.55466666666667</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4296,36 +3793,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>21.31</v>
+        <v>21.6</v>
       </c>
       <c r="C98" t="n">
-        <v>21.3</v>
+        <v>21.7</v>
       </c>
       <c r="D98" t="n">
-        <v>21.31</v>
+        <v>21.7</v>
       </c>
       <c r="E98" t="n">
-        <v>21.3</v>
+        <v>21.6</v>
       </c>
       <c r="F98" t="n">
-        <v>9865.874900000001</v>
+        <v>3967.6984</v>
       </c>
       <c r="G98" t="n">
-        <v>21.42733333333333</v>
+        <v>-648393.6134626596</v>
       </c>
       <c r="H98" t="n">
-        <v>21.54633333333334</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4334,36 +3828,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>21.3</v>
+        <v>21.6</v>
       </c>
       <c r="C99" t="n">
-        <v>21.3</v>
+        <v>21.79</v>
       </c>
       <c r="D99" t="n">
-        <v>21.3</v>
+        <v>21.79</v>
       </c>
       <c r="E99" t="n">
-        <v>21.3</v>
+        <v>21.6</v>
       </c>
       <c r="F99" t="n">
-        <v>68755.6652</v>
+        <v>2237.0469</v>
       </c>
       <c r="G99" t="n">
-        <v>21.414</v>
+        <v>-646156.5665626597</v>
       </c>
       <c r="H99" t="n">
-        <v>21.538</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,33 +3866,30 @@
         <v>21.5</v>
       </c>
       <c r="C100" t="n">
-        <v>21.5</v>
+        <v>21.41</v>
       </c>
       <c r="D100" t="n">
         <v>21.5</v>
       </c>
       <c r="E100" t="n">
-        <v>21.5</v>
+        <v>21.41</v>
       </c>
       <c r="F100" t="n">
-        <v>2012.1123</v>
+        <v>122666.5832</v>
       </c>
       <c r="G100" t="n">
-        <v>21.414</v>
+        <v>-768823.1497626597</v>
       </c>
       <c r="H100" t="n">
-        <v>21.5305</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4410,36 +3898,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>21.5</v>
+        <v>21.69</v>
       </c>
       <c r="C101" t="n">
-        <v>21.5</v>
+        <v>21.69</v>
       </c>
       <c r="D101" t="n">
-        <v>21.5</v>
+        <v>21.69</v>
       </c>
       <c r="E101" t="n">
-        <v>21.5</v>
+        <v>21.69</v>
       </c>
       <c r="F101" t="n">
-        <v>30542.1583</v>
+        <v>2332.9426</v>
       </c>
       <c r="G101" t="n">
-        <v>21.41666666666667</v>
+        <v>-766490.2071626597</v>
       </c>
       <c r="H101" t="n">
-        <v>21.52866666666667</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4448,7 +3933,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>21.5</v>
+        <v>21.59</v>
       </c>
       <c r="C102" t="n">
         <v>21.59</v>
@@ -4457,27 +3942,24 @@
         <v>21.59</v>
       </c>
       <c r="E102" t="n">
-        <v>21.5</v>
+        <v>21.59</v>
       </c>
       <c r="F102" t="n">
-        <v>1038.6713</v>
+        <v>50</v>
       </c>
       <c r="G102" t="n">
-        <v>21.42533333333333</v>
+        <v>-766540.2071626597</v>
       </c>
       <c r="H102" t="n">
-        <v>21.5285</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4486,36 +3968,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>21.59</v>
+        <v>21.47</v>
       </c>
       <c r="C103" t="n">
-        <v>21.59</v>
+        <v>21.47</v>
       </c>
       <c r="D103" t="n">
-        <v>21.59</v>
+        <v>21.47</v>
       </c>
       <c r="E103" t="n">
-        <v>21.59</v>
+        <v>21.47</v>
       </c>
       <c r="F103" t="n">
-        <v>500</v>
+        <v>9319</v>
       </c>
       <c r="G103" t="n">
-        <v>21.434</v>
+        <v>-775859.2071626597</v>
       </c>
       <c r="H103" t="n">
-        <v>21.52516666666667</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4524,36 +4003,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>21.59</v>
+        <v>21.79</v>
       </c>
       <c r="C104" t="n">
-        <v>21.59</v>
+        <v>21.79</v>
       </c>
       <c r="D104" t="n">
-        <v>21.59</v>
+        <v>21.79</v>
       </c>
       <c r="E104" t="n">
-        <v>21.59</v>
+        <v>21.79</v>
       </c>
       <c r="F104" t="n">
-        <v>3356.1842</v>
+        <v>30.0079</v>
       </c>
       <c r="G104" t="n">
-        <v>21.434</v>
+        <v>-775829.1992626598</v>
       </c>
       <c r="H104" t="n">
-        <v>21.52</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4562,36 +4038,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="C105" t="n">
-        <v>21.73</v>
+        <v>21.5</v>
       </c>
       <c r="D105" t="n">
-        <v>21.73</v>
+        <v>21.5</v>
       </c>
       <c r="E105" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="F105" t="n">
-        <v>225</v>
+        <v>11667.4536</v>
       </c>
       <c r="G105" t="n">
-        <v>21.452</v>
+        <v>-787496.6528626598</v>
       </c>
       <c r="H105" t="n">
-        <v>21.51716666666666</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4612,24 +4085,21 @@
         <v>21.6</v>
       </c>
       <c r="F106" t="n">
-        <v>200</v>
+        <v>7090</v>
       </c>
       <c r="G106" t="n">
-        <v>21.46133333333334</v>
+        <v>-780406.6528626598</v>
       </c>
       <c r="H106" t="n">
-        <v>21.51216666666666</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4638,36 +4108,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>21.6</v>
+        <v>21.59</v>
       </c>
       <c r="C107" t="n">
-        <v>21.6</v>
+        <v>21.59</v>
       </c>
       <c r="D107" t="n">
-        <v>21.6</v>
+        <v>21.59</v>
       </c>
       <c r="E107" t="n">
-        <v>21.6</v>
+        <v>21.59</v>
       </c>
       <c r="F107" t="n">
-        <v>985.2352</v>
+        <v>2309.0277</v>
       </c>
       <c r="G107" t="n">
-        <v>21.47066666666667</v>
+        <v>-782715.6805626597</v>
       </c>
       <c r="H107" t="n">
-        <v>21.50733333333333</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4676,36 +4143,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>21.72</v>
+        <v>21.59</v>
       </c>
       <c r="C108" t="n">
-        <v>21.73</v>
+        <v>21.59</v>
       </c>
       <c r="D108" t="n">
-        <v>21.73</v>
+        <v>21.59</v>
       </c>
       <c r="E108" t="n">
-        <v>21.72</v>
+        <v>21.59</v>
       </c>
       <c r="F108" t="n">
-        <v>201</v>
+        <v>6950.5223</v>
       </c>
       <c r="G108" t="n">
-        <v>21.49600000000001</v>
+        <v>-782715.6805626597</v>
       </c>
       <c r="H108" t="n">
-        <v>21.50933333333333</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4714,36 +4178,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>21.62</v>
+        <v>21.6</v>
       </c>
       <c r="C109" t="n">
-        <v>21.73</v>
+        <v>21.6</v>
       </c>
       <c r="D109" t="n">
-        <v>21.73</v>
+        <v>21.6</v>
       </c>
       <c r="E109" t="n">
-        <v>21.61</v>
+        <v>21.6</v>
       </c>
       <c r="F109" t="n">
-        <v>895.4906</v>
+        <v>7216.3845</v>
       </c>
       <c r="G109" t="n">
-        <v>21.52133333333334</v>
+        <v>-775499.2960626597</v>
       </c>
       <c r="H109" t="n">
-        <v>21.51316666666666</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4752,36 +4213,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>21.61</v>
+        <v>21.6</v>
       </c>
       <c r="C110" t="n">
-        <v>21.61</v>
+        <v>21.6</v>
       </c>
       <c r="D110" t="n">
-        <v>21.61</v>
+        <v>21.6</v>
       </c>
       <c r="E110" t="n">
-        <v>21.61</v>
+        <v>21.6</v>
       </c>
       <c r="F110" t="n">
-        <v>500</v>
+        <v>272.8636</v>
       </c>
       <c r="G110" t="n">
-        <v>21.53533333333334</v>
+        <v>-775499.2960626597</v>
       </c>
       <c r="H110" t="n">
-        <v>21.51516666666666</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4790,36 +4248,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>21.61</v>
+        <v>21.59</v>
       </c>
       <c r="C111" t="n">
         <v>21.5</v>
       </c>
       <c r="D111" t="n">
-        <v>21.61</v>
+        <v>21.59</v>
       </c>
       <c r="E111" t="n">
         <v>21.5</v>
       </c>
       <c r="F111" t="n">
-        <v>4243.8916</v>
+        <v>11680.7284</v>
       </c>
       <c r="G111" t="n">
-        <v>21.54533333333334</v>
+        <v>-787180.0244626597</v>
       </c>
       <c r="H111" t="n">
-        <v>21.51516666666666</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4831,33 +4286,30 @@
         <v>21.5</v>
       </c>
       <c r="C112" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="D112" t="n">
         <v>21.5</v>
       </c>
       <c r="E112" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="F112" t="n">
-        <v>113015.2786</v>
+        <v>6003.8462</v>
       </c>
       <c r="G112" t="n">
-        <v>21.55133333333334</v>
+        <v>-787180.0244626597</v>
       </c>
       <c r="H112" t="n">
-        <v>21.51516666666666</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4866,36 +4318,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>21.61</v>
+        <v>21.5</v>
       </c>
       <c r="C113" t="n">
-        <v>21.61</v>
+        <v>21.5</v>
       </c>
       <c r="D113" t="n">
-        <v>21.61</v>
+        <v>21.5</v>
       </c>
       <c r="E113" t="n">
-        <v>21.61</v>
+        <v>21.5</v>
       </c>
       <c r="F113" t="n">
-        <v>35</v>
+        <v>3848.3524</v>
       </c>
       <c r="G113" t="n">
-        <v>21.57200000000001</v>
+        <v>-787180.0244626597</v>
       </c>
       <c r="H113" t="n">
-        <v>21.51699999999999</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4904,36 +4353,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="C114" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="D114" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="E114" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="F114" t="n">
-        <v>13671</v>
+        <v>39366.7979</v>
       </c>
       <c r="G114" t="n">
-        <v>21.59200000000001</v>
+        <v>-787180.0244626597</v>
       </c>
       <c r="H114" t="n">
-        <v>21.51866666666666</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4942,36 +4388,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="C115" t="n">
-        <v>21.6</v>
+        <v>21.46</v>
       </c>
       <c r="D115" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="E115" t="n">
-        <v>21.6</v>
+        <v>21.46</v>
       </c>
       <c r="F115" t="n">
-        <v>28976</v>
+        <v>59050.6962</v>
       </c>
       <c r="G115" t="n">
-        <v>21.59866666666668</v>
+        <v>-846230.7206626597</v>
       </c>
       <c r="H115" t="n">
-        <v>21.52033333333332</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4980,36 +4423,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>21.6</v>
+        <v>21.46</v>
       </c>
       <c r="C116" t="n">
-        <v>21.6</v>
+        <v>21.46</v>
       </c>
       <c r="D116" t="n">
-        <v>21.6</v>
+        <v>21.46</v>
       </c>
       <c r="E116" t="n">
-        <v>21.6</v>
+        <v>21.46</v>
       </c>
       <c r="F116" t="n">
-        <v>13200</v>
+        <v>626.1446</v>
       </c>
       <c r="G116" t="n">
-        <v>21.60533333333334</v>
+        <v>-846230.7206626597</v>
       </c>
       <c r="H116" t="n">
-        <v>21.52533333333332</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5018,36 +4458,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>21.6</v>
+        <v>21.46</v>
       </c>
       <c r="C117" t="n">
-        <v>21.6</v>
+        <v>21.46</v>
       </c>
       <c r="D117" t="n">
-        <v>21.6</v>
+        <v>21.46</v>
       </c>
       <c r="E117" t="n">
-        <v>21.6</v>
+        <v>21.46</v>
       </c>
       <c r="F117" t="n">
-        <v>262.7731</v>
+        <v>33263.7995</v>
       </c>
       <c r="G117" t="n">
-        <v>21.60600000000001</v>
+        <v>-846230.7206626597</v>
       </c>
       <c r="H117" t="n">
-        <v>21.52783333333332</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5056,36 +4493,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>21.35</v>
+        <v>21.47</v>
       </c>
       <c r="C118" t="n">
-        <v>21.35</v>
+        <v>21.59</v>
       </c>
       <c r="D118" t="n">
-        <v>21.35</v>
+        <v>21.59</v>
       </c>
       <c r="E118" t="n">
-        <v>21.35</v>
+        <v>21.46</v>
       </c>
       <c r="F118" t="n">
-        <v>12131.861</v>
+        <v>25212.0027</v>
       </c>
       <c r="G118" t="n">
-        <v>21.59000000000002</v>
+        <v>-821018.7179626598</v>
       </c>
       <c r="H118" t="n">
-        <v>21.52616666666665</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5094,36 +4528,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>21.6</v>
+        <v>21.46</v>
       </c>
       <c r="C119" t="n">
-        <v>21.6</v>
+        <v>21.46</v>
       </c>
       <c r="D119" t="n">
-        <v>21.6</v>
+        <v>21.46</v>
       </c>
       <c r="E119" t="n">
-        <v>21.6</v>
+        <v>21.46</v>
       </c>
       <c r="F119" t="n">
-        <v>100</v>
+        <v>2633.0952</v>
       </c>
       <c r="G119" t="n">
-        <v>21.59066666666669</v>
+        <v>-823651.8131626598</v>
       </c>
       <c r="H119" t="n">
-        <v>21.52866666666665</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5132,36 +4563,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>21.6</v>
+        <v>21.46</v>
       </c>
       <c r="C120" t="n">
-        <v>21.6</v>
+        <v>21.46</v>
       </c>
       <c r="D120" t="n">
-        <v>21.6</v>
+        <v>21.46</v>
       </c>
       <c r="E120" t="n">
-        <v>21.6</v>
+        <v>21.46</v>
       </c>
       <c r="F120" t="n">
-        <v>100</v>
+        <v>16579.7722</v>
       </c>
       <c r="G120" t="n">
-        <v>21.58200000000002</v>
+        <v>-823651.8131626598</v>
       </c>
       <c r="H120" t="n">
-        <v>21.53116666666665</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5170,36 +4598,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>21.35</v>
+        <v>21.46</v>
       </c>
       <c r="C121" t="n">
-        <v>21.35</v>
+        <v>21.46</v>
       </c>
       <c r="D121" t="n">
-        <v>21.35</v>
+        <v>21.46</v>
       </c>
       <c r="E121" t="n">
-        <v>21.35</v>
+        <v>21.46</v>
       </c>
       <c r="F121" t="n">
-        <v>37219.2531</v>
+        <v>29459.6627</v>
       </c>
       <c r="G121" t="n">
-        <v>21.56533333333335</v>
+        <v>-823651.8131626598</v>
       </c>
       <c r="H121" t="n">
-        <v>21.52949999999998</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,36 +4633,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>21.35</v>
+        <v>21.43</v>
       </c>
       <c r="C122" t="n">
         <v>21.35</v>
       </c>
       <c r="D122" t="n">
-        <v>21.35</v>
+        <v>21.43</v>
       </c>
       <c r="E122" t="n">
         <v>21.35</v>
       </c>
       <c r="F122" t="n">
-        <v>9000</v>
+        <v>271709.757</v>
       </c>
       <c r="G122" t="n">
-        <v>21.54866666666669</v>
+        <v>-1095361.57016266</v>
       </c>
       <c r="H122" t="n">
-        <v>21.52783333333331</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5258,24 +4680,21 @@
         <v>21.35</v>
       </c>
       <c r="F123" t="n">
-        <v>14181</v>
+        <v>599</v>
       </c>
       <c r="G123" t="n">
-        <v>21.52333333333335</v>
+        <v>-1095361.57016266</v>
       </c>
       <c r="H123" t="n">
-        <v>21.52949999999997</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5284,36 +4703,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>21.35</v>
+        <v>21.4</v>
       </c>
       <c r="C124" t="n">
-        <v>21.35</v>
+        <v>21.4</v>
       </c>
       <c r="D124" t="n">
-        <v>21.35</v>
+        <v>21.4</v>
       </c>
       <c r="E124" t="n">
-        <v>21.35</v>
+        <v>21.4</v>
       </c>
       <c r="F124" t="n">
-        <v>20881.4035</v>
+        <v>7302.8165</v>
       </c>
       <c r="G124" t="n">
-        <v>21.49800000000002</v>
+        <v>-1088058.75366266</v>
       </c>
       <c r="H124" t="n">
-        <v>21.53033333333331</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5322,36 +4738,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>21.4</v>
+        <v>21.35</v>
       </c>
       <c r="C125" t="n">
-        <v>21.4</v>
+        <v>21.35</v>
       </c>
       <c r="D125" t="n">
-        <v>21.4</v>
+        <v>21.35</v>
       </c>
       <c r="E125" t="n">
-        <v>21.4</v>
+        <v>21.35</v>
       </c>
       <c r="F125" t="n">
-        <v>7095.3764</v>
+        <v>2336.0655</v>
       </c>
       <c r="G125" t="n">
-        <v>21.48400000000002</v>
+        <v>-1090394.81916266</v>
       </c>
       <c r="H125" t="n">
-        <v>21.52999999999997</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5360,36 +4773,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>21.4</v>
+        <v>21.32</v>
       </c>
       <c r="C126" t="n">
-        <v>21.4</v>
+        <v>21.31</v>
       </c>
       <c r="D126" t="n">
-        <v>21.4</v>
+        <v>21.32</v>
       </c>
       <c r="E126" t="n">
-        <v>21.4</v>
+        <v>21.31</v>
       </c>
       <c r="F126" t="n">
-        <v>7313.944</v>
+        <v>152410.124</v>
       </c>
       <c r="G126" t="n">
-        <v>21.47733333333335</v>
+        <v>-1242804.94316266</v>
       </c>
       <c r="H126" t="n">
-        <v>21.52683333333331</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5398,36 +4808,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>21.33</v>
+        <v>21.31</v>
       </c>
       <c r="C127" t="n">
-        <v>21.33</v>
+        <v>21.3</v>
       </c>
       <c r="D127" t="n">
-        <v>21.33</v>
+        <v>21.31</v>
       </c>
       <c r="E127" t="n">
-        <v>21.33</v>
+        <v>21.3</v>
       </c>
       <c r="F127" t="n">
-        <v>67992.3173</v>
+        <v>9865.874900000001</v>
       </c>
       <c r="G127" t="n">
-        <v>21.47266666666668</v>
+        <v>-1252670.81806266</v>
       </c>
       <c r="H127" t="n">
-        <v>21.51649999999997</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5436,36 +4843,33 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>21.61</v>
+        <v>21.3</v>
       </c>
       <c r="C128" t="n">
-        <v>21.61</v>
+        <v>21.3</v>
       </c>
       <c r="D128" t="n">
-        <v>21.61</v>
+        <v>21.3</v>
       </c>
       <c r="E128" t="n">
-        <v>21.61</v>
+        <v>21.3</v>
       </c>
       <c r="F128" t="n">
-        <v>5089.7232</v>
+        <v>68755.6652</v>
       </c>
       <c r="G128" t="n">
-        <v>21.47266666666668</v>
+        <v>-1252670.81806266</v>
       </c>
       <c r="H128" t="n">
-        <v>21.51666666666664</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5474,36 +4878,33 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="C129" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="D129" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="E129" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="F129" t="n">
-        <v>25479.6038</v>
+        <v>2012.1123</v>
       </c>
       <c r="G129" t="n">
-        <v>21.47933333333335</v>
+        <v>-1250658.70576266</v>
       </c>
       <c r="H129" t="n">
-        <v>21.51666666666664</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5512,36 +4913,33 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="C130" t="n">
-        <v>21.35</v>
+        <v>21.5</v>
       </c>
       <c r="D130" t="n">
-        <v>21.74</v>
+        <v>21.5</v>
       </c>
       <c r="E130" t="n">
-        <v>21.35</v>
+        <v>21.5</v>
       </c>
       <c r="F130" t="n">
-        <v>30958.3935</v>
+        <v>30542.1583</v>
       </c>
       <c r="G130" t="n">
-        <v>21.46266666666668</v>
+        <v>-1250658.70576266</v>
       </c>
       <c r="H130" t="n">
-        <v>21.50933333333331</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5550,36 +4948,33 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="C131" t="n">
-        <v>21.6</v>
+        <v>21.59</v>
       </c>
       <c r="D131" t="n">
-        <v>21.6</v>
+        <v>21.59</v>
       </c>
       <c r="E131" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="F131" t="n">
-        <v>3095.7045</v>
+        <v>1038.6713</v>
       </c>
       <c r="G131" t="n">
-        <v>21.46266666666668</v>
+        <v>-1249620.03446266</v>
       </c>
       <c r="H131" t="n">
-        <v>21.51249999999997</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5588,36 +4983,33 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>21.57</v>
+        <v>21.59</v>
       </c>
       <c r="C132" t="n">
-        <v>21.74</v>
+        <v>21.59</v>
       </c>
       <c r="D132" t="n">
-        <v>21.74</v>
+        <v>21.59</v>
       </c>
       <c r="E132" t="n">
-        <v>21.57</v>
+        <v>21.59</v>
       </c>
       <c r="F132" t="n">
-        <v>89341.55160000001</v>
+        <v>500</v>
       </c>
       <c r="G132" t="n">
-        <v>21.47200000000002</v>
+        <v>-1249620.03446266</v>
       </c>
       <c r="H132" t="n">
-        <v>21.5133333333333</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5626,36 +5018,33 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>21.5</v>
+        <v>21.59</v>
       </c>
       <c r="C133" t="n">
-        <v>21.5</v>
+        <v>21.59</v>
       </c>
       <c r="D133" t="n">
-        <v>21.5</v>
+        <v>21.59</v>
       </c>
       <c r="E133" t="n">
-        <v>21.5</v>
+        <v>21.59</v>
       </c>
       <c r="F133" t="n">
-        <v>1583.3333</v>
+        <v>3356.1842</v>
       </c>
       <c r="G133" t="n">
-        <v>21.48200000000001</v>
+        <v>-1249620.03446266</v>
       </c>
       <c r="H133" t="n">
-        <v>21.5118333333333</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5664,36 +5053,33 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>21.74</v>
+        <v>21.6</v>
       </c>
       <c r="C134" t="n">
-        <v>21.74</v>
+        <v>21.73</v>
       </c>
       <c r="D134" t="n">
-        <v>21.74</v>
+        <v>21.73</v>
       </c>
       <c r="E134" t="n">
-        <v>21.74</v>
+        <v>21.6</v>
       </c>
       <c r="F134" t="n">
-        <v>1100</v>
+        <v>225</v>
       </c>
       <c r="G134" t="n">
-        <v>21.49133333333334</v>
+        <v>-1249395.03446266</v>
       </c>
       <c r="H134" t="n">
-        <v>21.5163333333333</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5702,36 +5088,33 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="C135" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="D135" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="E135" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="F135" t="n">
-        <v>1762.7731</v>
+        <v>200</v>
       </c>
       <c r="G135" t="n">
-        <v>21.50466666666668</v>
+        <v>-1249595.03446266</v>
       </c>
       <c r="H135" t="n">
-        <v>21.51649999999997</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5740,36 +5123,33 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="C136" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="D136" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="E136" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="F136" t="n">
-        <v>500</v>
+        <v>985.2352</v>
       </c>
       <c r="G136" t="n">
-        <v>21.53466666666668</v>
+        <v>-1249595.03446266</v>
       </c>
       <c r="H136" t="n">
-        <v>21.52149999999997</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="n">
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5778,36 +5158,33 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>21.9</v>
+        <v>21.72</v>
       </c>
       <c r="C137" t="n">
-        <v>21.9</v>
+        <v>21.73</v>
       </c>
       <c r="D137" t="n">
-        <v>21.9</v>
+        <v>21.73</v>
       </c>
       <c r="E137" t="n">
-        <v>21.9</v>
+        <v>21.72</v>
       </c>
       <c r="F137" t="n">
-        <v>500</v>
+        <v>201</v>
       </c>
       <c r="G137" t="n">
-        <v>21.57133333333334</v>
+        <v>-1249394.03446266</v>
       </c>
       <c r="H137" t="n">
-        <v>21.52649999999997</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="n">
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5816,36 +5193,33 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>21.9</v>
+        <v>21.62</v>
       </c>
       <c r="C138" t="n">
-        <v>21.9</v>
+        <v>21.73</v>
       </c>
       <c r="D138" t="n">
-        <v>21.9</v>
+        <v>21.73</v>
       </c>
       <c r="E138" t="n">
-        <v>21.9</v>
+        <v>21.61</v>
       </c>
       <c r="F138" t="n">
-        <v>1000</v>
+        <v>895.4906</v>
       </c>
       <c r="G138" t="n">
-        <v>21.608</v>
+        <v>-1249394.03446266</v>
       </c>
       <c r="H138" t="n">
-        <v>21.53166666666664</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="n">
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,36 +5228,33 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>21.89</v>
+        <v>21.61</v>
       </c>
       <c r="C139" t="n">
-        <v>21.89</v>
+        <v>21.61</v>
       </c>
       <c r="D139" t="n">
-        <v>21.89</v>
+        <v>21.61</v>
       </c>
       <c r="E139" t="n">
-        <v>21.89</v>
+        <v>21.61</v>
       </c>
       <c r="F139" t="n">
-        <v>4200</v>
+        <v>500</v>
       </c>
       <c r="G139" t="n">
-        <v>21.644</v>
+        <v>-1249894.03446266</v>
       </c>
       <c r="H139" t="n">
-        <v>21.53666666666664</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="n">
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5892,36 +5263,33 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>21.7</v>
+        <v>21.61</v>
       </c>
       <c r="C140" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="D140" t="n">
-        <v>21.7</v>
+        <v>21.61</v>
       </c>
       <c r="E140" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="F140" t="n">
-        <v>46411.2025</v>
+        <v>4243.8916</v>
       </c>
       <c r="G140" t="n">
-        <v>21.664</v>
+        <v>-1254137.92606266</v>
       </c>
       <c r="H140" t="n">
-        <v>21.53833333333331</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="n">
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5930,36 +5298,33 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="C141" t="n">
-        <v>21.7</v>
+        <v>21.4</v>
       </c>
       <c r="D141" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="E141" t="n">
-        <v>21.7</v>
+        <v>21.4</v>
       </c>
       <c r="F141" t="n">
-        <v>2298.387</v>
+        <v>113015.2786</v>
       </c>
       <c r="G141" t="n">
-        <v>21.684</v>
+        <v>-1367153.20466266</v>
       </c>
       <c r="H141" t="n">
-        <v>21.53999999999998</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="n">
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5968,36 +5333,33 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>21.6</v>
+        <v>21.61</v>
       </c>
       <c r="C142" t="n">
-        <v>21.6</v>
+        <v>21.61</v>
       </c>
       <c r="D142" t="n">
-        <v>21.6</v>
+        <v>21.61</v>
       </c>
       <c r="E142" t="n">
-        <v>21.6</v>
+        <v>21.61</v>
       </c>
       <c r="F142" t="n">
-        <v>5000</v>
+        <v>35</v>
       </c>
       <c r="G142" t="n">
-        <v>21.70200000000001</v>
+        <v>-1367118.20466266</v>
       </c>
       <c r="H142" t="n">
-        <v>21.54166666666665</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="n">
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6009,33 +5371,30 @@
         <v>21.6</v>
       </c>
       <c r="C143" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="D143" t="n">
         <v>21.6</v>
       </c>
       <c r="E143" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="F143" t="n">
-        <v>43726.9807</v>
+        <v>13671</v>
       </c>
       <c r="G143" t="n">
-        <v>21.69466666666667</v>
+        <v>-1380789.20466266</v>
       </c>
       <c r="H143" t="n">
-        <v>21.54166666666665</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
-      <c r="N143" t="n">
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6044,36 +5403,33 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="C144" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="D144" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="E144" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="F144" t="n">
-        <v>2000</v>
+        <v>28976</v>
       </c>
       <c r="G144" t="n">
-        <v>21.69466666666667</v>
+        <v>-1380789.20466266</v>
       </c>
       <c r="H144" t="n">
-        <v>21.54499999999998</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="n">
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6082,36 +5438,33 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="C145" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="D145" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="E145" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="F145" t="n">
-        <v>2380.56</v>
+        <v>13200</v>
       </c>
       <c r="G145" t="n">
-        <v>21.72466666666667</v>
+        <v>-1380789.20466266</v>
       </c>
       <c r="H145" t="n">
-        <v>21.54999999999998</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="n">
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6120,36 +5473,33 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="C146" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="D146" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="E146" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="F146" t="n">
-        <v>1534.5525</v>
+        <v>262.7731</v>
       </c>
       <c r="G146" t="n">
-        <v>21.738</v>
+        <v>-1380789.20466266</v>
       </c>
       <c r="H146" t="n">
-        <v>21.55566666666665</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
-      <c r="N146" t="n">
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6158,36 +5508,33 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>21.8</v>
+        <v>21.35</v>
       </c>
       <c r="C147" t="n">
-        <v>21.8</v>
+        <v>21.35</v>
       </c>
       <c r="D147" t="n">
-        <v>21.8</v>
+        <v>21.35</v>
       </c>
       <c r="E147" t="n">
-        <v>21.8</v>
+        <v>21.35</v>
       </c>
       <c r="F147" t="n">
-        <v>1563.8722</v>
+        <v>12131.861</v>
       </c>
       <c r="G147" t="n">
-        <v>21.742</v>
+        <v>-1392921.06566266</v>
       </c>
       <c r="H147" t="n">
-        <v>21.56133333333331</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="n">
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6196,36 +5543,33 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="C148" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="D148" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="E148" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="F148" t="n">
-        <v>26415.1144</v>
+        <v>100</v>
       </c>
       <c r="G148" t="n">
-        <v>21.75533333333334</v>
+        <v>-1392821.06566266</v>
       </c>
       <c r="H148" t="n">
-        <v>21.56533333333331</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>1</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="n">
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6234,36 +5578,33 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>21.9</v>
+        <v>21.6</v>
       </c>
       <c r="C149" t="n">
-        <v>21.9</v>
+        <v>21.6</v>
       </c>
       <c r="D149" t="n">
-        <v>21.9</v>
+        <v>21.6</v>
       </c>
       <c r="E149" t="n">
-        <v>21.9</v>
+        <v>21.6</v>
       </c>
       <c r="F149" t="n">
-        <v>13200</v>
+        <v>100</v>
       </c>
       <c r="G149" t="n">
-        <v>21.766</v>
+        <v>-1392821.06566266</v>
       </c>
       <c r="H149" t="n">
-        <v>21.57049999999998</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>1</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
-      <c r="N149" t="n">
+      <c r="M149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6272,36 +5613,33 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>21.87</v>
+        <v>21.35</v>
       </c>
       <c r="C150" t="n">
-        <v>21.89</v>
+        <v>21.35</v>
       </c>
       <c r="D150" t="n">
-        <v>21.89</v>
+        <v>21.35</v>
       </c>
       <c r="E150" t="n">
-        <v>21.87</v>
+        <v>21.35</v>
       </c>
       <c r="F150" t="n">
-        <v>31091.4303</v>
+        <v>37219.2531</v>
       </c>
       <c r="G150" t="n">
-        <v>21.772</v>
+        <v>-1430040.31876266</v>
       </c>
       <c r="H150" t="n">
-        <v>21.57766666666665</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>1</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
-      <c r="N150" t="n">
+      <c r="M150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6310,36 +5648,33 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>21.7</v>
+        <v>21.35</v>
       </c>
       <c r="C151" t="n">
-        <v>21.7</v>
+        <v>21.35</v>
       </c>
       <c r="D151" t="n">
-        <v>21.7</v>
+        <v>21.35</v>
       </c>
       <c r="E151" t="n">
-        <v>21.7</v>
+        <v>21.35</v>
       </c>
       <c r="F151" t="n">
-        <v>870.3882</v>
+        <v>9000</v>
       </c>
       <c r="G151" t="n">
-        <v>21.76533333333333</v>
+        <v>-1430040.31876266</v>
       </c>
       <c r="H151" t="n">
-        <v>21.58166666666665</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>1</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
-      <c r="N151" t="n">
+      <c r="M151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6348,36 +5683,33 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>21.7</v>
+        <v>21.35</v>
       </c>
       <c r="C152" t="n">
-        <v>21.7</v>
+        <v>21.35</v>
       </c>
       <c r="D152" t="n">
-        <v>21.7</v>
+        <v>21.35</v>
       </c>
       <c r="E152" t="n">
-        <v>21.7</v>
+        <v>21.35</v>
       </c>
       <c r="F152" t="n">
-        <v>365.2386</v>
+        <v>14181</v>
       </c>
       <c r="G152" t="n">
-        <v>21.752</v>
+        <v>-1430040.31876266</v>
       </c>
       <c r="H152" t="n">
-        <v>21.58566666666665</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>1</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
-      <c r="N152" t="n">
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6386,36 +5718,33 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>21.9</v>
+        <v>21.35</v>
       </c>
       <c r="C153" t="n">
-        <v>21.9</v>
+        <v>21.35</v>
       </c>
       <c r="D153" t="n">
-        <v>21.9</v>
+        <v>21.35</v>
       </c>
       <c r="E153" t="n">
-        <v>21.9</v>
+        <v>21.35</v>
       </c>
       <c r="F153" t="n">
-        <v>25</v>
+        <v>20881.4035</v>
       </c>
       <c r="G153" t="n">
-        <v>21.752</v>
+        <v>-1430040.31876266</v>
       </c>
       <c r="H153" t="n">
-        <v>21.59483333333332</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>1</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr"/>
-      <c r="N153" t="n">
+      <c r="M153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6424,36 +5753,33 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>21.88</v>
+        <v>21.4</v>
       </c>
       <c r="C154" t="n">
-        <v>21.88</v>
+        <v>21.4</v>
       </c>
       <c r="D154" t="n">
-        <v>21.88</v>
+        <v>21.4</v>
       </c>
       <c r="E154" t="n">
-        <v>21.88</v>
+        <v>21.4</v>
       </c>
       <c r="F154" t="n">
-        <v>382.1839</v>
+        <v>7095.3764</v>
       </c>
       <c r="G154" t="n">
-        <v>21.75133333333333</v>
+        <v>-1422944.94236266</v>
       </c>
       <c r="H154" t="n">
-        <v>21.60366666666665</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>1</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
-      <c r="N154" t="n">
+      <c r="M154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6462,36 +5788,33 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>21.88</v>
+        <v>21.4</v>
       </c>
       <c r="C155" t="n">
-        <v>21.88</v>
+        <v>21.4</v>
       </c>
       <c r="D155" t="n">
-        <v>21.88</v>
+        <v>21.4</v>
       </c>
       <c r="E155" t="n">
-        <v>21.88</v>
+        <v>21.4</v>
       </c>
       <c r="F155" t="n">
-        <v>2279.4789</v>
+        <v>7313.944</v>
       </c>
       <c r="G155" t="n">
-        <v>21.76333333333333</v>
+        <v>-1422944.94236266</v>
       </c>
       <c r="H155" t="n">
-        <v>21.61166666666666</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>1</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
-      <c r="N155" t="n">
+      <c r="M155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6500,36 +5823,33 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>21.7</v>
+        <v>21.33</v>
       </c>
       <c r="C156" t="n">
-        <v>21.6</v>
+        <v>21.33</v>
       </c>
       <c r="D156" t="n">
-        <v>21.84</v>
+        <v>21.33</v>
       </c>
       <c r="E156" t="n">
-        <v>21.6</v>
+        <v>21.33</v>
       </c>
       <c r="F156" t="n">
-        <v>14159.005</v>
+        <v>67992.3173</v>
       </c>
       <c r="G156" t="n">
-        <v>21.75666666666667</v>
+        <v>-1490937.25966266</v>
       </c>
       <c r="H156" t="n">
-        <v>21.61583333333332</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>1</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
-      <c r="N156" t="n">
+      <c r="M156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,36 +5858,33 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>21.6</v>
+        <v>21.61</v>
       </c>
       <c r="C157" t="n">
-        <v>21.6</v>
+        <v>21.61</v>
       </c>
       <c r="D157" t="n">
-        <v>21.6</v>
+        <v>21.61</v>
       </c>
       <c r="E157" t="n">
-        <v>21.6</v>
+        <v>21.61</v>
       </c>
       <c r="F157" t="n">
-        <v>7280.8336</v>
+        <v>5089.7232</v>
       </c>
       <c r="G157" t="n">
-        <v>21.75666666666667</v>
+        <v>-1485847.53646266</v>
       </c>
       <c r="H157" t="n">
-        <v>21.62066666666665</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>1</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
-      <c r="N157" t="n">
+      <c r="M157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6576,36 +5893,33 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>21.51</v>
+        <v>21.6</v>
       </c>
       <c r="C158" t="n">
-        <v>21.52</v>
+        <v>21.7</v>
       </c>
       <c r="D158" t="n">
-        <v>21.52</v>
+        <v>21.7</v>
       </c>
       <c r="E158" t="n">
-        <v>21.51</v>
+        <v>21.6</v>
       </c>
       <c r="F158" t="n">
-        <v>9852.9748</v>
+        <v>25479.6038</v>
       </c>
       <c r="G158" t="n">
-        <v>21.758</v>
+        <v>-1460367.93266266</v>
       </c>
       <c r="H158" t="n">
-        <v>21.62433333333332</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>1</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr"/>
-      <c r="N158" t="n">
+      <c r="M158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6614,36 +5928,33 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>21.56</v>
+        <v>21.7</v>
       </c>
       <c r="C159" t="n">
-        <v>21.56</v>
+        <v>21.35</v>
       </c>
       <c r="D159" t="n">
-        <v>21.56</v>
+        <v>21.74</v>
       </c>
       <c r="E159" t="n">
-        <v>21.56</v>
+        <v>21.35</v>
       </c>
       <c r="F159" t="n">
-        <v>1415.9751</v>
+        <v>30958.3935</v>
       </c>
       <c r="G159" t="n">
-        <v>21.74866666666667</v>
+        <v>-1491326.32616266</v>
       </c>
       <c r="H159" t="n">
-        <v>21.62866666666666</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>1</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr"/>
-      <c r="N159" t="n">
+      <c r="M159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6652,36 +5963,33 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>21.56</v>
+        <v>21.6</v>
       </c>
       <c r="C160" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="D160" t="n">
-        <v>21.56</v>
+        <v>21.6</v>
       </c>
       <c r="E160" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="F160" t="n">
-        <v>236759.1139</v>
+        <v>3095.7045</v>
       </c>
       <c r="G160" t="n">
-        <v>21.722</v>
+        <v>-1488230.62166266</v>
       </c>
       <c r="H160" t="n">
-        <v>21.62699999999999</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>0</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr"/>
-      <c r="N160" t="n">
+      <c r="M160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6690,36 +5998,33 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>21.4</v>
+        <v>21.57</v>
       </c>
       <c r="C161" t="n">
-        <v>21.4</v>
+        <v>21.74</v>
       </c>
       <c r="D161" t="n">
-        <v>21.4</v>
+        <v>21.74</v>
       </c>
       <c r="E161" t="n">
-        <v>21.4</v>
+        <v>21.57</v>
       </c>
       <c r="F161" t="n">
-        <v>6040.3515</v>
+        <v>89341.55160000001</v>
       </c>
       <c r="G161" t="n">
-        <v>21.69533333333333</v>
+        <v>-1398889.07006266</v>
       </c>
       <c r="H161" t="n">
-        <v>21.62533333333333</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>0</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr"/>
-      <c r="N161" t="n">
+      <c r="M161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6728,36 +6033,33 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="C162" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="D162" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="E162" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="F162" t="n">
-        <v>776.5886</v>
+        <v>1583.3333</v>
       </c>
       <c r="G162" t="n">
-        <v>21.66866666666666</v>
+        <v>-1400472.40336266</v>
       </c>
       <c r="H162" t="n">
-        <v>21.62216666666666</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>0</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr"/>
-      <c r="N162" t="n">
+      <c r="M162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6766,36 +6068,33 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>21.4</v>
+        <v>21.74</v>
       </c>
       <c r="C163" t="n">
-        <v>21.4</v>
+        <v>21.74</v>
       </c>
       <c r="D163" t="n">
-        <v>21.4</v>
+        <v>21.74</v>
       </c>
       <c r="E163" t="n">
-        <v>21.4</v>
+        <v>21.74</v>
       </c>
       <c r="F163" t="n">
-        <v>1312.5589</v>
+        <v>1100</v>
       </c>
       <c r="G163" t="n">
-        <v>21.64866666666666</v>
+        <v>-1399372.40336266</v>
       </c>
       <c r="H163" t="n">
-        <v>21.619</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>1</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="inlineStr"/>
-      <c r="N163" t="n">
+      <c r="M163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6804,36 +6103,33 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="C164" t="n">
-        <v>21.4</v>
+        <v>21.8</v>
       </c>
       <c r="D164" t="n">
-        <v>21.4</v>
+        <v>21.8</v>
       </c>
       <c r="E164" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="F164" t="n">
-        <v>10685.8684</v>
+        <v>1762.7731</v>
       </c>
       <c r="G164" t="n">
-        <v>21.61533333333333</v>
+        <v>-1397609.63026266</v>
       </c>
       <c r="H164" t="n">
-        <v>21.61583333333333</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>0</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="inlineStr"/>
-      <c r="N164" t="n">
+      <c r="M164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6842,36 +6138,33 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>21.4</v>
+        <v>21.8</v>
       </c>
       <c r="C165" t="n">
-        <v>21.4</v>
+        <v>21.8</v>
       </c>
       <c r="D165" t="n">
-        <v>21.4</v>
+        <v>21.8</v>
       </c>
       <c r="E165" t="n">
-        <v>21.4</v>
+        <v>21.8</v>
       </c>
       <c r="F165" t="n">
-        <v>13000</v>
+        <v>500</v>
       </c>
       <c r="G165" t="n">
-        <v>21.58266666666666</v>
+        <v>-1397609.63026266</v>
       </c>
       <c r="H165" t="n">
-        <v>21.61033333333334</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>0</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="inlineStr"/>
-      <c r="N165" t="n">
+      <c r="M165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6880,36 +6173,33 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>21.4</v>
+        <v>21.9</v>
       </c>
       <c r="C166" t="n">
-        <v>21.4</v>
+        <v>21.9</v>
       </c>
       <c r="D166" t="n">
-        <v>21.4</v>
+        <v>21.9</v>
       </c>
       <c r="E166" t="n">
-        <v>21.4</v>
+        <v>21.9</v>
       </c>
       <c r="F166" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G166" t="n">
-        <v>21.56266666666666</v>
+        <v>-1397109.63026266</v>
       </c>
       <c r="H166" t="n">
-        <v>21.60700000000001</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>0</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="inlineStr"/>
-      <c r="N166" t="n">
+      <c r="M166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6918,36 +6208,33 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>21.4</v>
+        <v>21.9</v>
       </c>
       <c r="C167" t="n">
-        <v>21.4</v>
+        <v>21.9</v>
       </c>
       <c r="D167" t="n">
-        <v>21.4</v>
+        <v>21.9</v>
       </c>
       <c r="E167" t="n">
-        <v>21.4</v>
+        <v>21.9</v>
       </c>
       <c r="F167" t="n">
-        <v>504.9848</v>
+        <v>1000</v>
       </c>
       <c r="G167" t="n">
-        <v>21.54266666666666</v>
+        <v>-1397109.63026266</v>
       </c>
       <c r="H167" t="n">
-        <v>21.60366666666668</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>0</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="inlineStr"/>
-      <c r="N167" t="n">
+      <c r="M167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6956,36 +6243,33 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>21.4</v>
+        <v>21.89</v>
       </c>
       <c r="C168" t="n">
-        <v>21.4</v>
+        <v>21.89</v>
       </c>
       <c r="D168" t="n">
-        <v>21.4</v>
+        <v>21.89</v>
       </c>
       <c r="E168" t="n">
-        <v>21.4</v>
+        <v>21.89</v>
       </c>
       <c r="F168" t="n">
-        <v>200</v>
+        <v>4200</v>
       </c>
       <c r="G168" t="n">
-        <v>21.50933333333332</v>
+        <v>-1401309.63026266</v>
       </c>
       <c r="H168" t="n">
-        <v>21.59816666666667</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>0</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="inlineStr"/>
-      <c r="N168" t="n">
+      <c r="M168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6994,36 +6278,33 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>21.4</v>
+        <v>21.7</v>
       </c>
       <c r="C169" t="n">
-        <v>21.4</v>
+        <v>21.7</v>
       </c>
       <c r="D169" t="n">
-        <v>21.4</v>
+        <v>21.7</v>
       </c>
       <c r="E169" t="n">
-        <v>21.4</v>
+        <v>21.7</v>
       </c>
       <c r="F169" t="n">
-        <v>1000</v>
+        <v>46411.2025</v>
       </c>
       <c r="G169" t="n">
-        <v>21.47733333333332</v>
+        <v>-1447720.83276266</v>
       </c>
       <c r="H169" t="n">
-        <v>21.59266666666668</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>0</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="inlineStr"/>
-      <c r="N169" t="n">
+      <c r="M169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7032,36 +6313,33 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>21.39</v>
+        <v>21.7</v>
       </c>
       <c r="C170" t="n">
-        <v>21.35</v>
+        <v>21.7</v>
       </c>
       <c r="D170" t="n">
-        <v>21.39</v>
+        <v>21.7</v>
       </c>
       <c r="E170" t="n">
-        <v>21.35</v>
+        <v>21.7</v>
       </c>
       <c r="F170" t="n">
-        <v>11400</v>
+        <v>2298.387</v>
       </c>
       <c r="G170" t="n">
-        <v>21.44199999999999</v>
+        <v>-1447720.83276266</v>
       </c>
       <c r="H170" t="n">
-        <v>21.58833333333335</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>0</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="inlineStr"/>
-      <c r="N170" t="n">
+      <c r="M170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7070,36 +6348,33 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>21.35</v>
+        <v>21.6</v>
       </c>
       <c r="C171" t="n">
-        <v>21.32</v>
+        <v>21.6</v>
       </c>
       <c r="D171" t="n">
-        <v>21.35</v>
+        <v>21.6</v>
       </c>
       <c r="E171" t="n">
-        <v>21.32</v>
+        <v>21.6</v>
       </c>
       <c r="F171" t="n">
-        <v>7700</v>
+        <v>5000</v>
       </c>
       <c r="G171" t="n">
-        <v>21.42333333333332</v>
+        <v>-1452720.83276266</v>
       </c>
       <c r="H171" t="n">
-        <v>21.58533333333334</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>0</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="inlineStr"/>
-      <c r="N171" t="n">
+      <c r="M171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7108,36 +6383,33 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>21.32</v>
+        <v>21.6</v>
       </c>
       <c r="C172" t="n">
-        <v>21.32</v>
+        <v>21.5</v>
       </c>
       <c r="D172" t="n">
-        <v>21.32</v>
+        <v>21.6</v>
       </c>
       <c r="E172" t="n">
-        <v>21.32</v>
+        <v>21.5</v>
       </c>
       <c r="F172" t="n">
-        <v>27734.1712</v>
+        <v>43726.9807</v>
       </c>
       <c r="G172" t="n">
-        <v>21.40466666666665</v>
+        <v>-1496447.81346266</v>
       </c>
       <c r="H172" t="n">
-        <v>21.58400000000001</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>0</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="inlineStr"/>
-      <c r="N172" t="n">
+      <c r="M172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7146,36 +6418,33 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>21.3</v>
+        <v>21.7</v>
       </c>
       <c r="C173" t="n">
-        <v>21.2</v>
+        <v>21.7</v>
       </c>
       <c r="D173" t="n">
-        <v>21.3</v>
+        <v>21.7</v>
       </c>
       <c r="E173" t="n">
-        <v>21.2</v>
+        <v>21.7</v>
       </c>
       <c r="F173" t="n">
-        <v>75259.7708</v>
+        <v>2000</v>
       </c>
       <c r="G173" t="n">
-        <v>21.38333333333332</v>
+        <v>-1494447.81346266</v>
       </c>
       <c r="H173" t="n">
-        <v>21.57716666666668</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>0</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="inlineStr"/>
-      <c r="N173" t="n">
+      <c r="M173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7184,36 +6453,33 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>21.2</v>
+        <v>21.7</v>
       </c>
       <c r="C174" t="n">
-        <v>21.1</v>
+        <v>21.8</v>
       </c>
       <c r="D174" t="n">
-        <v>21.2</v>
+        <v>21.8</v>
       </c>
       <c r="E174" t="n">
-        <v>21.1</v>
+        <v>21.7</v>
       </c>
       <c r="F174" t="n">
-        <v>153578.7569</v>
+        <v>2380.56</v>
       </c>
       <c r="G174" t="n">
-        <v>21.35266666666666</v>
+        <v>-1492067.25346266</v>
       </c>
       <c r="H174" t="n">
-        <v>21.56883333333334</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>0</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="inlineStr"/>
-      <c r="N174" t="n">
+      <c r="M174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7222,36 +6488,1052 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>21.32</v>
+        <v>21.8</v>
       </c>
       <c r="C175" t="n">
-        <v>21.32</v>
+        <v>21.8</v>
       </c>
       <c r="D175" t="n">
-        <v>21.32</v>
+        <v>21.8</v>
       </c>
       <c r="E175" t="n">
-        <v>21.32</v>
+        <v>21.8</v>
       </c>
       <c r="F175" t="n">
-        <v>1006.4323</v>
+        <v>1534.5525</v>
       </c>
       <c r="G175" t="n">
-        <v>21.34733333333332</v>
+        <v>-1492067.25346266</v>
       </c>
       <c r="H175" t="n">
-        <v>21.56416666666668</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>0</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="inlineStr"/>
-      <c r="N175" t="n">
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="C176" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="D176" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="E176" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1563.8722</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-1492067.25346266</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="C177" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="D177" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E177" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="F177" t="n">
+        <v>26415.1144</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-1518482.36786266</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="C178" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="D178" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="E178" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="F178" t="n">
+        <v>13200</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-1505282.36786266</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>21.87</v>
+      </c>
+      <c r="C179" t="n">
+        <v>21.89</v>
+      </c>
+      <c r="D179" t="n">
+        <v>21.89</v>
+      </c>
+      <c r="E179" t="n">
+        <v>21.87</v>
+      </c>
+      <c r="F179" t="n">
+        <v>31091.4303</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-1536373.79816266</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="C180" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="D180" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E180" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="F180" t="n">
+        <v>870.3882</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-1537244.18636266</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="C181" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="D181" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E181" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="F181" t="n">
+        <v>365.2386</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-1537244.18636266</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="C182" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="D182" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="E182" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="F182" t="n">
+        <v>25</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-1537219.18636266</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="C183" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="D183" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="E183" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="F183" t="n">
+        <v>382.1839</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-1537601.37026266</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="C184" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="D184" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="E184" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2279.4789</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-1537601.37026266</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="C185" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="D185" t="n">
+        <v>21.84</v>
+      </c>
+      <c r="E185" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="F185" t="n">
+        <v>14159.005</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-1551760.37526266</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="C186" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="D186" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="E186" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="F186" t="n">
+        <v>7280.8336</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-1551760.37526266</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="C187" t="n">
+        <v>21.52</v>
+      </c>
+      <c r="D187" t="n">
+        <v>21.52</v>
+      </c>
+      <c r="E187" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="F187" t="n">
+        <v>9852.9748</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-1561613.35006266</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>21.56</v>
+      </c>
+      <c r="C188" t="n">
+        <v>21.56</v>
+      </c>
+      <c r="D188" t="n">
+        <v>21.56</v>
+      </c>
+      <c r="E188" t="n">
+        <v>21.56</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1415.9751</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-1560197.37496266</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>21.56</v>
+      </c>
+      <c r="C189" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D189" t="n">
+        <v>21.56</v>
+      </c>
+      <c r="E189" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F189" t="n">
+        <v>236759.1139</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-1796956.48886266</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C190" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D190" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E190" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F190" t="n">
+        <v>6040.3515</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-1796956.48886266</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C191" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D191" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E191" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F191" t="n">
+        <v>776.5886</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-1796956.48886266</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C192" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D192" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E192" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1312.5589</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-1796956.48886266</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C193" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D193" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E193" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F193" t="n">
+        <v>10685.8684</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-1796956.48886266</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C194" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D194" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E194" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F194" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-1796956.48886266</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C195" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D195" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E195" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F195" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-1796956.48886266</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C196" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D196" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E196" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F196" t="n">
+        <v>504.9848</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-1796956.48886266</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C197" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D197" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E197" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F197" t="n">
+        <v>200</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-1796956.48886266</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C198" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D198" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E198" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-1796956.48886266</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>21.39</v>
+      </c>
+      <c r="C199" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="D199" t="n">
+        <v>21.39</v>
+      </c>
+      <c r="E199" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="F199" t="n">
+        <v>11400</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-1808356.48886266</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="C200" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="D200" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="E200" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="F200" t="n">
+        <v>7700</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-1816056.48886266</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="C201" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="D201" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="E201" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="F201" t="n">
+        <v>27734.1712</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-1816056.48886266</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C202" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D202" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E202" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F202" t="n">
+        <v>75259.7708</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-1891316.25966266</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C203" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D203" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E203" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F203" t="n">
+        <v>153578.7569</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-2044895.01656266</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="C204" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="D204" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="E204" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1006.4323</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-2043888.58426266</v>
+      </c>
+      <c r="H204" t="n">
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="K204" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-15 BackTest WAXP.xlsx
+++ b/BackTest/2020-01-15 BackTest WAXP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M204"/>
+  <dimension ref="A1:N162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20.8</v>
+        <v>21.13</v>
       </c>
       <c r="C2" t="n">
-        <v>20.77</v>
+        <v>21.14</v>
       </c>
       <c r="D2" t="n">
-        <v>20.8</v>
+        <v>21.14</v>
       </c>
       <c r="E2" t="n">
-        <v>20.77</v>
+        <v>21.13</v>
       </c>
       <c r="F2" t="n">
-        <v>44602.6059</v>
+        <v>576</v>
       </c>
       <c r="G2" t="n">
-        <v>-721389.18209036</v>
+        <v>-1064216.3537929</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20.77</v>
+        <v>21.29</v>
       </c>
       <c r="C3" t="n">
-        <v>20.7</v>
+        <v>21.4</v>
       </c>
       <c r="D3" t="n">
-        <v>20.8</v>
+        <v>21.4</v>
       </c>
       <c r="E3" t="n">
-        <v>20.7</v>
+        <v>21.29</v>
       </c>
       <c r="F3" t="n">
-        <v>21554.4772</v>
+        <v>23368.57194299</v>
       </c>
       <c r="G3" t="n">
-        <v>-742943.6592903599</v>
+        <v>-1040847.78184991</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20.71</v>
+        <v>21.2</v>
       </c>
       <c r="C4" t="n">
-        <v>20.71</v>
+        <v>21.2</v>
       </c>
       <c r="D4" t="n">
-        <v>20.71</v>
+        <v>21.4</v>
       </c>
       <c r="E4" t="n">
-        <v>20.71</v>
+        <v>21.2</v>
       </c>
       <c r="F4" t="n">
-        <v>1611.321</v>
+        <v>37627.29611401</v>
       </c>
       <c r="G4" t="n">
-        <v>-741332.3382903599</v>
+        <v>-1078475.07796392</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20.8</v>
+        <v>21.14</v>
       </c>
       <c r="C5" t="n">
-        <v>20.94</v>
+        <v>21.14</v>
       </c>
       <c r="D5" t="n">
-        <v>20.94</v>
+        <v>21.14</v>
       </c>
       <c r="E5" t="n">
-        <v>20.8</v>
+        <v>21.14</v>
       </c>
       <c r="F5" t="n">
-        <v>25600</v>
+        <v>21180.6067</v>
       </c>
       <c r="G5" t="n">
-        <v>-715732.3382903599</v>
+        <v>-1099655.68466392</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,168 +575,197 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20.95</v>
+        <v>21.13</v>
       </c>
       <c r="C6" t="n">
-        <v>20.95</v>
+        <v>21.12</v>
       </c>
       <c r="D6" t="n">
-        <v>20.95</v>
+        <v>21.13</v>
       </c>
       <c r="E6" t="n">
-        <v>20.95</v>
+        <v>21.12</v>
       </c>
       <c r="F6" t="n">
-        <v>1521.0485</v>
+        <v>10880.8424</v>
       </c>
       <c r="G6" t="n">
-        <v>-714211.2897903599</v>
+        <v>-1110536.52706392</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>21.14</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20.95</v>
+        <v>21.12</v>
       </c>
       <c r="C7" t="n">
-        <v>20.95</v>
+        <v>21.12</v>
       </c>
       <c r="D7" t="n">
-        <v>20.95</v>
+        <v>21.12</v>
       </c>
       <c r="E7" t="n">
-        <v>20.95</v>
+        <v>21.11</v>
       </c>
       <c r="F7" t="n">
-        <v>90.27249999999999</v>
+        <v>16798.8443</v>
       </c>
       <c r="G7" t="n">
-        <v>-714211.2897903599</v>
+        <v>-1110536.52706392</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>21.12</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20.96</v>
+        <v>21.2</v>
       </c>
       <c r="C8" t="n">
-        <v>20.96</v>
+        <v>21.2</v>
       </c>
       <c r="D8" t="n">
-        <v>20.96</v>
+        <v>21.2</v>
       </c>
       <c r="E8" t="n">
-        <v>20.96</v>
+        <v>21.2</v>
       </c>
       <c r="F8" t="n">
-        <v>2483.6059</v>
+        <v>5991.5938</v>
       </c>
       <c r="G8" t="n">
-        <v>-711727.6838903599</v>
+        <v>-1104544.93326392</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>21.12</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20.95</v>
+        <v>21.2</v>
       </c>
       <c r="C9" t="n">
-        <v>20.95</v>
+        <v>21.2</v>
       </c>
       <c r="D9" t="n">
-        <v>20.95</v>
+        <v>21.2</v>
       </c>
       <c r="E9" t="n">
-        <v>20.95</v>
+        <v>21.2</v>
       </c>
       <c r="F9" t="n">
-        <v>52</v>
+        <v>1992</v>
       </c>
       <c r="G9" t="n">
-        <v>-711779.6838903599</v>
+        <v>-1104544.93326392</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>21.2</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>21.13</v>
+        <v>21.2</v>
       </c>
       <c r="C10" t="n">
-        <v>21.13</v>
+        <v>21.4</v>
       </c>
       <c r="D10" t="n">
-        <v>21.13</v>
+        <v>21.4</v>
       </c>
       <c r="E10" t="n">
-        <v>21.13</v>
+        <v>21.2</v>
       </c>
       <c r="F10" t="n">
-        <v>991.448</v>
+        <v>26160.6</v>
       </c>
       <c r="G10" t="n">
-        <v>-710788.23589036</v>
+        <v>-1078384.33326392</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -738,32 +775,37 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>21.13</v>
+        <v>21.4</v>
       </c>
       <c r="C11" t="n">
-        <v>21.13</v>
+        <v>21.4</v>
       </c>
       <c r="D11" t="n">
-        <v>21.13</v>
+        <v>21.4</v>
       </c>
       <c r="E11" t="n">
-        <v>21.13</v>
+        <v>21.4</v>
       </c>
       <c r="F11" t="n">
-        <v>3706.913</v>
+        <v>442.0194</v>
       </c>
       <c r="G11" t="n">
-        <v>-710788.23589036</v>
+        <v>-1078384.33326392</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -773,32 +815,37 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="C12" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="D12" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="E12" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="F12" t="n">
-        <v>5100</v>
+        <v>39435.5371</v>
       </c>
       <c r="G12" t="n">
-        <v>-705688.23589036</v>
+        <v>-1038948.79616392</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -808,32 +855,37 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21.1</v>
+        <v>21.5</v>
       </c>
       <c r="C13" t="n">
-        <v>20.96</v>
+        <v>21.69</v>
       </c>
       <c r="D13" t="n">
-        <v>21.1</v>
+        <v>21.69</v>
       </c>
       <c r="E13" t="n">
-        <v>20.96</v>
+        <v>21.5</v>
       </c>
       <c r="F13" t="n">
-        <v>13998.1728</v>
+        <v>132172.696743</v>
       </c>
       <c r="G13" t="n">
-        <v>-719686.4086903599</v>
+        <v>-906776.0994209198</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -843,32 +895,37 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20.97</v>
+        <v>21.69</v>
       </c>
       <c r="C14" t="n">
-        <v>20.96</v>
+        <v>21.73</v>
       </c>
       <c r="D14" t="n">
-        <v>20.97</v>
+        <v>21.73</v>
       </c>
       <c r="E14" t="n">
-        <v>20.96</v>
+        <v>21.6</v>
       </c>
       <c r="F14" t="n">
-        <v>17804.4402</v>
+        <v>23842.3632</v>
       </c>
       <c r="G14" t="n">
-        <v>-719686.4086903599</v>
+        <v>-882933.7362209198</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -878,32 +935,37 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20.96</v>
+        <v>21.69</v>
       </c>
       <c r="C15" t="n">
-        <v>20.96</v>
+        <v>21.69</v>
       </c>
       <c r="D15" t="n">
-        <v>20.96</v>
+        <v>21.69</v>
       </c>
       <c r="E15" t="n">
-        <v>20.96</v>
+        <v>21.69</v>
       </c>
       <c r="F15" t="n">
-        <v>49368.4616</v>
+        <v>6631.207</v>
       </c>
       <c r="G15" t="n">
-        <v>-719686.4086903599</v>
+        <v>-889564.9432209198</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -913,32 +975,37 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20.96</v>
+        <v>21.69</v>
       </c>
       <c r="C16" t="n">
-        <v>20.9</v>
+        <v>21.69</v>
       </c>
       <c r="D16" t="n">
-        <v>20.97</v>
+        <v>21.69</v>
       </c>
       <c r="E16" t="n">
-        <v>20.87</v>
+        <v>21.69</v>
       </c>
       <c r="F16" t="n">
-        <v>44703.7014</v>
+        <v>40419.5248</v>
       </c>
       <c r="G16" t="n">
-        <v>-764390.1100903599</v>
+        <v>-889564.9432209198</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -948,32 +1015,37 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>20.87</v>
+        <v>21.73</v>
       </c>
       <c r="C17" t="n">
-        <v>20.87</v>
+        <v>21.74</v>
       </c>
       <c r="D17" t="n">
-        <v>20.87</v>
+        <v>21.74</v>
       </c>
       <c r="E17" t="n">
-        <v>20.87</v>
+        <v>21.73</v>
       </c>
       <c r="F17" t="n">
-        <v>30000</v>
+        <v>50</v>
       </c>
       <c r="G17" t="n">
-        <v>-794390.1100903599</v>
+        <v>-889514.9432209198</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -983,32 +1055,37 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20.86</v>
+        <v>21.4</v>
       </c>
       <c r="C18" t="n">
-        <v>21.3</v>
+        <v>21.74</v>
       </c>
       <c r="D18" t="n">
-        <v>21.3</v>
+        <v>21.74</v>
       </c>
       <c r="E18" t="n">
-        <v>20.73</v>
+        <v>21.4</v>
       </c>
       <c r="F18" t="n">
-        <v>156088.53939746</v>
+        <v>809.8564</v>
       </c>
       <c r="G18" t="n">
-        <v>-638301.5706928999</v>
+        <v>-889514.9432209198</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1018,32 +1095,37 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20.9</v>
+        <v>21.41</v>
       </c>
       <c r="C19" t="n">
-        <v>20.9</v>
+        <v>21.41</v>
       </c>
       <c r="D19" t="n">
-        <v>20.9</v>
+        <v>21.41</v>
       </c>
       <c r="E19" t="n">
-        <v>20.9</v>
+        <v>21.41</v>
       </c>
       <c r="F19" t="n">
-        <v>198</v>
+        <v>175.7705</v>
       </c>
       <c r="G19" t="n">
-        <v>-638499.5706928999</v>
+        <v>-889690.7137209198</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1053,32 +1135,37 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20.9</v>
+        <v>21.43</v>
       </c>
       <c r="C20" t="n">
-        <v>20.75</v>
+        <v>21.43</v>
       </c>
       <c r="D20" t="n">
-        <v>20.9</v>
+        <v>21.43</v>
       </c>
       <c r="E20" t="n">
-        <v>20.75</v>
+        <v>21.43</v>
       </c>
       <c r="F20" t="n">
-        <v>23741.3531</v>
+        <v>11199.253</v>
       </c>
       <c r="G20" t="n">
-        <v>-662240.9237928998</v>
+        <v>-878491.4607209198</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1088,32 +1175,37 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20.72</v>
+        <v>21.43</v>
       </c>
       <c r="C21" t="n">
-        <v>20.62</v>
+        <v>21.43</v>
       </c>
       <c r="D21" t="n">
-        <v>20.89</v>
+        <v>21.43</v>
       </c>
       <c r="E21" t="n">
-        <v>20.61</v>
+        <v>21.43</v>
       </c>
       <c r="F21" t="n">
-        <v>265521.8439</v>
+        <v>3918.5319</v>
       </c>
       <c r="G21" t="n">
-        <v>-927762.7676928998</v>
+        <v>-878491.4607209198</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1123,32 +1215,37 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20.62</v>
+        <v>21.43</v>
       </c>
       <c r="C22" t="n">
-        <v>20.83</v>
+        <v>21.4</v>
       </c>
       <c r="D22" t="n">
-        <v>20.83</v>
+        <v>21.43</v>
       </c>
       <c r="E22" t="n">
-        <v>20.61</v>
+        <v>21.4</v>
       </c>
       <c r="F22" t="n">
-        <v>13682.9334</v>
+        <v>9938.7305</v>
       </c>
       <c r="G22" t="n">
-        <v>-914079.8342928998</v>
+        <v>-888430.1912209197</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1158,32 +1255,37 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20.9</v>
+        <v>21.4</v>
       </c>
       <c r="C23" t="n">
-        <v>20.9</v>
+        <v>21.4</v>
       </c>
       <c r="D23" t="n">
-        <v>20.9</v>
+        <v>21.4</v>
       </c>
       <c r="E23" t="n">
-        <v>20.9</v>
+        <v>21.4</v>
       </c>
       <c r="F23" t="n">
-        <v>955.3519</v>
+        <v>4400</v>
       </c>
       <c r="G23" t="n">
-        <v>-913124.4823928998</v>
+        <v>-888430.1912209197</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1193,32 +1295,37 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20.9</v>
+        <v>21.49</v>
       </c>
       <c r="C24" t="n">
-        <v>21.3</v>
+        <v>21.49</v>
       </c>
       <c r="D24" t="n">
-        <v>21.37</v>
+        <v>21.49</v>
       </c>
       <c r="E24" t="n">
-        <v>20.9</v>
+        <v>21.49</v>
       </c>
       <c r="F24" t="n">
-        <v>95529.48170254</v>
+        <v>11092.751</v>
       </c>
       <c r="G24" t="n">
-        <v>-817595.0006903599</v>
+        <v>-877337.4402209197</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1228,32 +1335,37 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>21.3</v>
+        <v>21.49</v>
       </c>
       <c r="C25" t="n">
-        <v>21.4</v>
+        <v>21.8</v>
       </c>
       <c r="D25" t="n">
-        <v>21.4</v>
+        <v>21.8</v>
       </c>
       <c r="E25" t="n">
-        <v>21.17</v>
+        <v>21.4</v>
       </c>
       <c r="F25" t="n">
-        <v>71763.61119746001</v>
+        <v>164587.3589</v>
       </c>
       <c r="G25" t="n">
-        <v>-745831.3894928999</v>
+        <v>-712750.0813209197</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1263,32 +1375,37 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>21.17</v>
+        <v>21.8</v>
       </c>
       <c r="C26" t="n">
-        <v>21.17</v>
+        <v>21.8</v>
       </c>
       <c r="D26" t="n">
-        <v>21.17</v>
+        <v>21.95</v>
       </c>
       <c r="E26" t="n">
-        <v>21.17</v>
+        <v>21.4</v>
       </c>
       <c r="F26" t="n">
-        <v>2235.306</v>
+        <v>161904.7887</v>
       </c>
       <c r="G26" t="n">
-        <v>-748066.6954928999</v>
+        <v>-712750.0813209197</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1298,32 +1415,37 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>21.17</v>
+        <v>21.95</v>
       </c>
       <c r="C27" t="n">
-        <v>21.13</v>
+        <v>21.95</v>
       </c>
       <c r="D27" t="n">
-        <v>21.17</v>
+        <v>21.95</v>
       </c>
       <c r="E27" t="n">
-        <v>21.13</v>
+        <v>21.95</v>
       </c>
       <c r="F27" t="n">
-        <v>19879.891</v>
+        <v>96635.77589999999</v>
       </c>
       <c r="G27" t="n">
-        <v>-767946.5864928998</v>
+        <v>-616114.3054209197</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1333,32 +1455,37 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>21.11</v>
+        <v>21.61</v>
       </c>
       <c r="C28" t="n">
-        <v>21.11</v>
+        <v>21.61</v>
       </c>
       <c r="D28" t="n">
-        <v>21.11</v>
+        <v>21.61</v>
       </c>
       <c r="E28" t="n">
-        <v>21.11</v>
+        <v>21.61</v>
       </c>
       <c r="F28" t="n">
-        <v>56290.5296</v>
+        <v>985</v>
       </c>
       <c r="G28" t="n">
-        <v>-824237.1160928998</v>
+        <v>-617099.3054209197</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1368,32 +1495,37 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>21.12</v>
+        <v>21.61</v>
       </c>
       <c r="C29" t="n">
-        <v>21.13</v>
+        <v>21.6</v>
       </c>
       <c r="D29" t="n">
-        <v>21.13</v>
+        <v>21.61</v>
       </c>
       <c r="E29" t="n">
-        <v>21.12</v>
+        <v>21.6</v>
       </c>
       <c r="F29" t="n">
-        <v>61348.8117</v>
+        <v>16347.0378</v>
       </c>
       <c r="G29" t="n">
-        <v>-762888.3043928999</v>
+        <v>-633446.3432209197</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1403,32 +1535,37 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>21.14</v>
+        <v>21.79</v>
       </c>
       <c r="C30" t="n">
-        <v>21.16</v>
+        <v>21.79</v>
       </c>
       <c r="D30" t="n">
-        <v>21.16</v>
+        <v>21.79</v>
       </c>
       <c r="E30" t="n">
-        <v>21.14</v>
+        <v>21.79</v>
       </c>
       <c r="F30" t="n">
-        <v>22292.7101</v>
+        <v>11216</v>
       </c>
       <c r="G30" t="n">
-        <v>-740595.5942928998</v>
+        <v>-622230.3432209197</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1438,32 +1575,37 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>21.19</v>
+        <v>21.79</v>
       </c>
       <c r="C31" t="n">
-        <v>21.15</v>
+        <v>21.9</v>
       </c>
       <c r="D31" t="n">
-        <v>21.19</v>
+        <v>21.9</v>
       </c>
       <c r="E31" t="n">
-        <v>21.15</v>
+        <v>21.79</v>
       </c>
       <c r="F31" t="n">
-        <v>187258.3614</v>
+        <v>6115.5718</v>
       </c>
       <c r="G31" t="n">
-        <v>-927853.9556928999</v>
+        <v>-616114.7714209197</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1473,32 +1615,37 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>21.15</v>
+        <v>21.9</v>
       </c>
       <c r="C32" t="n">
-        <v>21.15</v>
+        <v>21.9</v>
       </c>
       <c r="D32" t="n">
-        <v>21.15</v>
+        <v>21.9</v>
       </c>
       <c r="E32" t="n">
-        <v>21.15</v>
+        <v>21.9</v>
       </c>
       <c r="F32" t="n">
-        <v>4063.9426</v>
+        <v>44856</v>
       </c>
       <c r="G32" t="n">
-        <v>-927853.9556928999</v>
+        <v>-616114.7714209197</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1508,32 +1655,37 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>21.37</v>
+        <v>21.9</v>
       </c>
       <c r="C33" t="n">
-        <v>21.37</v>
+        <v>21.9</v>
       </c>
       <c r="D33" t="n">
-        <v>21.37</v>
+        <v>21.9</v>
       </c>
       <c r="E33" t="n">
-        <v>21.37</v>
+        <v>21.9</v>
       </c>
       <c r="F33" t="n">
-        <v>1000</v>
+        <v>47186.9376</v>
       </c>
       <c r="G33" t="n">
-        <v>-926853.9556928999</v>
+        <v>-616114.7714209197</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1543,32 +1695,37 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>21.21</v>
+        <v>21.89</v>
       </c>
       <c r="C34" t="n">
-        <v>21.2</v>
+        <v>21.89</v>
       </c>
       <c r="D34" t="n">
-        <v>21.21</v>
+        <v>21.89</v>
       </c>
       <c r="E34" t="n">
-        <v>21.2</v>
+        <v>21.89</v>
       </c>
       <c r="F34" t="n">
-        <v>11551.1406</v>
+        <v>11863.7586</v>
       </c>
       <c r="G34" t="n">
-        <v>-938405.0962928999</v>
+        <v>-627978.5300209196</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1578,32 +1735,37 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>21.21</v>
+        <v>21.61</v>
       </c>
       <c r="C35" t="n">
-        <v>21.21</v>
+        <v>21.61</v>
       </c>
       <c r="D35" t="n">
-        <v>21.21</v>
+        <v>21.61</v>
       </c>
       <c r="E35" t="n">
-        <v>21.21</v>
+        <v>21.61</v>
       </c>
       <c r="F35" t="n">
-        <v>163</v>
+        <v>18300</v>
       </c>
       <c r="G35" t="n">
-        <v>-938242.0962928999</v>
+        <v>-646278.5300209196</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1613,32 +1775,37 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>21.21</v>
+        <v>21.5</v>
       </c>
       <c r="C36" t="n">
-        <v>21.2</v>
+        <v>21.5</v>
       </c>
       <c r="D36" t="n">
-        <v>21.21</v>
+        <v>21.5</v>
       </c>
       <c r="E36" t="n">
-        <v>21.2</v>
+        <v>21.5</v>
       </c>
       <c r="F36" t="n">
-        <v>6790.7715</v>
+        <v>4400</v>
       </c>
       <c r="G36" t="n">
-        <v>-945032.8677929</v>
+        <v>-650678.5300209196</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1648,32 +1815,37 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>21.15</v>
+        <v>21.49</v>
       </c>
       <c r="C37" t="n">
-        <v>21.15</v>
+        <v>21.49</v>
       </c>
       <c r="D37" t="n">
-        <v>21.15</v>
+        <v>21.49</v>
       </c>
       <c r="E37" t="n">
-        <v>21.15</v>
+        <v>21.49</v>
       </c>
       <c r="F37" t="n">
-        <v>8279.234200000001</v>
+        <v>4400</v>
       </c>
       <c r="G37" t="n">
-        <v>-953312.1019928999</v>
+        <v>-655078.5300209196</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1683,32 +1855,37 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>21.15</v>
+        <v>21.5</v>
       </c>
       <c r="C38" t="n">
-        <v>21.15</v>
+        <v>21.5</v>
       </c>
       <c r="D38" t="n">
-        <v>21.15</v>
+        <v>21.5</v>
       </c>
       <c r="E38" t="n">
-        <v>21.15</v>
+        <v>21.5</v>
       </c>
       <c r="F38" t="n">
-        <v>13589.1472</v>
+        <v>4364.2357</v>
       </c>
       <c r="G38" t="n">
-        <v>-953312.1019928999</v>
+        <v>-650714.2943209197</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1718,32 +1895,37 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>21.29</v>
+        <v>21.49</v>
       </c>
       <c r="C39" t="n">
-        <v>21.29</v>
+        <v>21.4</v>
       </c>
       <c r="D39" t="n">
-        <v>21.29</v>
+        <v>21.49</v>
       </c>
       <c r="E39" t="n">
-        <v>21.29</v>
+        <v>21.4</v>
       </c>
       <c r="F39" t="n">
-        <v>58</v>
+        <v>3999.0605</v>
       </c>
       <c r="G39" t="n">
-        <v>-953254.1019928999</v>
+        <v>-654713.3548209197</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1753,32 +1935,37 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>21.15</v>
+        <v>21.5</v>
       </c>
       <c r="C40" t="n">
-        <v>21.15</v>
+        <v>21.5</v>
       </c>
       <c r="D40" t="n">
-        <v>21.15</v>
+        <v>21.5</v>
       </c>
       <c r="E40" t="n">
-        <v>21.15</v>
+        <v>21.5</v>
       </c>
       <c r="F40" t="n">
-        <v>4687.4511</v>
+        <v>365.1752</v>
       </c>
       <c r="G40" t="n">
-        <v>-957941.5530928998</v>
+        <v>-654348.1796209196</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1788,32 +1975,37 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>21.15</v>
+        <v>21.5</v>
       </c>
       <c r="C41" t="n">
-        <v>21.14</v>
+        <v>21.5</v>
       </c>
       <c r="D41" t="n">
-        <v>21.15</v>
+        <v>21.5</v>
       </c>
       <c r="E41" t="n">
-        <v>21.14</v>
+        <v>21.5</v>
       </c>
       <c r="F41" t="n">
-        <v>45127.9702</v>
+        <v>365.1752</v>
       </c>
       <c r="G41" t="n">
-        <v>-1003069.5232929</v>
+        <v>-654348.1796209196</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1823,32 +2015,37 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>21.29</v>
+        <v>21.5</v>
       </c>
       <c r="C42" t="n">
-        <v>21.29</v>
+        <v>21.5</v>
       </c>
       <c r="D42" t="n">
-        <v>21.29</v>
+        <v>21.5</v>
       </c>
       <c r="E42" t="n">
-        <v>21.29</v>
+        <v>21.5</v>
       </c>
       <c r="F42" t="n">
-        <v>58</v>
+        <v>365.1752</v>
       </c>
       <c r="G42" t="n">
-        <v>-1003011.5232929</v>
+        <v>-654348.1796209196</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1858,32 +2055,37 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>21.14</v>
+        <v>21.41</v>
       </c>
       <c r="C43" t="n">
-        <v>21.13</v>
+        <v>21.3</v>
       </c>
       <c r="D43" t="n">
-        <v>21.14</v>
+        <v>21.41</v>
       </c>
       <c r="E43" t="n">
-        <v>21.13</v>
+        <v>21.3</v>
       </c>
       <c r="F43" t="n">
-        <v>61780.8305</v>
+        <v>133053.3387</v>
       </c>
       <c r="G43" t="n">
-        <v>-1064792.3537929</v>
+        <v>-787401.5183209196</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1893,32 +2095,37 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>21.13</v>
+        <v>21.45</v>
       </c>
       <c r="C44" t="n">
-        <v>21.14</v>
+        <v>21.45</v>
       </c>
       <c r="D44" t="n">
-        <v>21.14</v>
+        <v>21.45</v>
       </c>
       <c r="E44" t="n">
-        <v>21.13</v>
+        <v>21.45</v>
       </c>
       <c r="F44" t="n">
-        <v>576</v>
+        <v>4396.4955</v>
       </c>
       <c r="G44" t="n">
-        <v>-1064216.3537929</v>
+        <v>-783005.0228209196</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1928,32 +2135,37 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>21.29</v>
+        <v>21.46</v>
       </c>
       <c r="C45" t="n">
-        <v>21.4</v>
+        <v>21.45</v>
       </c>
       <c r="D45" t="n">
-        <v>21.4</v>
+        <v>21.46</v>
       </c>
       <c r="E45" t="n">
-        <v>21.29</v>
+        <v>21.3</v>
       </c>
       <c r="F45" t="n">
-        <v>23368.57194299</v>
+        <v>62175.4013</v>
       </c>
       <c r="G45" t="n">
-        <v>-1040847.78184991</v>
+        <v>-783005.0228209196</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1963,32 +2175,37 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>21.2</v>
+        <v>21.45</v>
       </c>
       <c r="C46" t="n">
-        <v>21.2</v>
+        <v>21.45</v>
       </c>
       <c r="D46" t="n">
-        <v>21.4</v>
+        <v>21.45</v>
       </c>
       <c r="E46" t="n">
-        <v>21.2</v>
+        <v>21.45</v>
       </c>
       <c r="F46" t="n">
-        <v>37627.29611401</v>
+        <v>11000</v>
       </c>
       <c r="G46" t="n">
-        <v>-1078475.07796392</v>
+        <v>-783005.0228209196</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1998,32 +2215,37 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>21.14</v>
+        <v>21.45</v>
       </c>
       <c r="C47" t="n">
-        <v>21.14</v>
+        <v>21.45</v>
       </c>
       <c r="D47" t="n">
-        <v>21.14</v>
+        <v>21.45</v>
       </c>
       <c r="E47" t="n">
-        <v>21.14</v>
+        <v>21.45</v>
       </c>
       <c r="F47" t="n">
-        <v>21180.6067</v>
+        <v>8000</v>
       </c>
       <c r="G47" t="n">
-        <v>-1099655.68466392</v>
+        <v>-783005.0228209196</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2033,32 +2255,37 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>21.13</v>
+        <v>21.45</v>
       </c>
       <c r="C48" t="n">
-        <v>21.12</v>
+        <v>21.45</v>
       </c>
       <c r="D48" t="n">
-        <v>21.13</v>
+        <v>21.45</v>
       </c>
       <c r="E48" t="n">
-        <v>21.12</v>
+        <v>21.3</v>
       </c>
       <c r="F48" t="n">
-        <v>10880.8424</v>
+        <v>53772.674</v>
       </c>
       <c r="G48" t="n">
-        <v>-1110536.52706392</v>
+        <v>-783005.0228209196</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2068,32 +2295,37 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>21.12</v>
+        <v>21.45</v>
       </c>
       <c r="C49" t="n">
-        <v>21.12</v>
+        <v>21.45</v>
       </c>
       <c r="D49" t="n">
-        <v>21.12</v>
+        <v>21.45</v>
       </c>
       <c r="E49" t="n">
-        <v>21.11</v>
+        <v>21.45</v>
       </c>
       <c r="F49" t="n">
-        <v>16798.8443</v>
+        <v>3000</v>
       </c>
       <c r="G49" t="n">
-        <v>-1110536.52706392</v>
+        <v>-783005.0228209196</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2103,32 +2335,37 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="C50" t="n">
-        <v>21.2</v>
+        <v>21.25</v>
       </c>
       <c r="D50" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="E50" t="n">
-        <v>21.2</v>
+        <v>21.25</v>
       </c>
       <c r="F50" t="n">
-        <v>5991.5938</v>
+        <v>1785.6627</v>
       </c>
       <c r="G50" t="n">
-        <v>-1104544.93326392</v>
+        <v>-784790.6855209196</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,32 +2375,37 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="C51" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="D51" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="E51" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="F51" t="n">
-        <v>1992</v>
+        <v>5995.8557</v>
       </c>
       <c r="G51" t="n">
-        <v>-1104544.93326392</v>
+        <v>-778794.8298209197</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2173,32 +2415,37 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>21.2</v>
+        <v>21.42</v>
       </c>
       <c r="C52" t="n">
-        <v>21.4</v>
+        <v>21.42</v>
       </c>
       <c r="D52" t="n">
-        <v>21.4</v>
+        <v>21.42</v>
       </c>
       <c r="E52" t="n">
-        <v>21.2</v>
+        <v>21.42</v>
       </c>
       <c r="F52" t="n">
-        <v>26160.6</v>
+        <v>9353.197099999999</v>
       </c>
       <c r="G52" t="n">
-        <v>-1078384.33326392</v>
+        <v>-769441.6327209197</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,32 +2455,37 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>21.4</v>
+        <v>21.59</v>
       </c>
       <c r="C53" t="n">
-        <v>21.4</v>
+        <v>21.59</v>
       </c>
       <c r="D53" t="n">
-        <v>21.4</v>
+        <v>21.59</v>
       </c>
       <c r="E53" t="n">
-        <v>21.4</v>
+        <v>21.59</v>
       </c>
       <c r="F53" t="n">
-        <v>442.0194</v>
+        <v>46.1606</v>
       </c>
       <c r="G53" t="n">
-        <v>-1078384.33326392</v>
+        <v>-769395.4721209197</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2243,32 +2495,37 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>21.4</v>
+        <v>21.59</v>
       </c>
       <c r="C54" t="n">
-        <v>21.5</v>
+        <v>21.95</v>
       </c>
       <c r="D54" t="n">
-        <v>21.5</v>
+        <v>21.95</v>
       </c>
       <c r="E54" t="n">
-        <v>21.4</v>
+        <v>21.59</v>
       </c>
       <c r="F54" t="n">
-        <v>39435.5371</v>
+        <v>122666.58325826</v>
       </c>
       <c r="G54" t="n">
-        <v>-1038948.79616392</v>
+        <v>-646728.8888626597</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,32 +2535,37 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="C55" t="n">
-        <v>21.69</v>
+        <v>21.6</v>
       </c>
       <c r="D55" t="n">
-        <v>21.69</v>
+        <v>21.6</v>
       </c>
       <c r="E55" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="F55" t="n">
-        <v>132172.696743</v>
+        <v>5632.423</v>
       </c>
       <c r="G55" t="n">
-        <v>-906776.0994209198</v>
+        <v>-652361.3118626596</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,32 +2575,37 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>21.69</v>
+        <v>21.6</v>
       </c>
       <c r="C56" t="n">
-        <v>21.73</v>
+        <v>21.7</v>
       </c>
       <c r="D56" t="n">
-        <v>21.73</v>
+        <v>21.7</v>
       </c>
       <c r="E56" t="n">
         <v>21.6</v>
       </c>
       <c r="F56" t="n">
-        <v>23842.3632</v>
+        <v>3967.6984</v>
       </c>
       <c r="G56" t="n">
-        <v>-882933.7362209198</v>
+        <v>-648393.6134626596</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,32 +2615,37 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>21.69</v>
+        <v>21.6</v>
       </c>
       <c r="C57" t="n">
-        <v>21.69</v>
+        <v>21.79</v>
       </c>
       <c r="D57" t="n">
-        <v>21.69</v>
+        <v>21.79</v>
       </c>
       <c r="E57" t="n">
-        <v>21.69</v>
+        <v>21.6</v>
       </c>
       <c r="F57" t="n">
-        <v>6631.207</v>
+        <v>2237.0469</v>
       </c>
       <c r="G57" t="n">
-        <v>-889564.9432209198</v>
+        <v>-646156.5665626597</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,32 +2655,37 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>21.69</v>
+        <v>21.5</v>
       </c>
       <c r="C58" t="n">
-        <v>21.69</v>
+        <v>21.41</v>
       </c>
       <c r="D58" t="n">
-        <v>21.69</v>
+        <v>21.5</v>
       </c>
       <c r="E58" t="n">
-        <v>21.69</v>
+        <v>21.41</v>
       </c>
       <c r="F58" t="n">
-        <v>40419.5248</v>
+        <v>122666.5832</v>
       </c>
       <c r="G58" t="n">
-        <v>-889564.9432209198</v>
+        <v>-768823.1497626597</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,32 +2695,37 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>21.73</v>
+        <v>21.69</v>
       </c>
       <c r="C59" t="n">
-        <v>21.74</v>
+        <v>21.69</v>
       </c>
       <c r="D59" t="n">
-        <v>21.74</v>
+        <v>21.69</v>
       </c>
       <c r="E59" t="n">
-        <v>21.73</v>
+        <v>21.69</v>
       </c>
       <c r="F59" t="n">
-        <v>50</v>
+        <v>2332.9426</v>
       </c>
       <c r="G59" t="n">
-        <v>-889514.9432209198</v>
+        <v>-766490.2071626597</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,32 +2735,37 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>21.4</v>
+        <v>21.59</v>
       </c>
       <c r="C60" t="n">
-        <v>21.74</v>
+        <v>21.59</v>
       </c>
       <c r="D60" t="n">
-        <v>21.74</v>
+        <v>21.59</v>
       </c>
       <c r="E60" t="n">
-        <v>21.4</v>
+        <v>21.59</v>
       </c>
       <c r="F60" t="n">
-        <v>809.8564</v>
+        <v>50</v>
       </c>
       <c r="G60" t="n">
-        <v>-889514.9432209198</v>
+        <v>-766540.2071626597</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,32 +2775,37 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>21.41</v>
+        <v>21.47</v>
       </c>
       <c r="C61" t="n">
-        <v>21.41</v>
+        <v>21.47</v>
       </c>
       <c r="D61" t="n">
-        <v>21.41</v>
+        <v>21.47</v>
       </c>
       <c r="E61" t="n">
-        <v>21.41</v>
+        <v>21.47</v>
       </c>
       <c r="F61" t="n">
-        <v>175.7705</v>
+        <v>9319</v>
       </c>
       <c r="G61" t="n">
-        <v>-889690.7137209198</v>
+        <v>-775859.2071626597</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2523,32 +2815,37 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>21.43</v>
+        <v>21.79</v>
       </c>
       <c r="C62" t="n">
-        <v>21.43</v>
+        <v>21.79</v>
       </c>
       <c r="D62" t="n">
-        <v>21.43</v>
+        <v>21.79</v>
       </c>
       <c r="E62" t="n">
-        <v>21.43</v>
+        <v>21.79</v>
       </c>
       <c r="F62" t="n">
-        <v>11199.253</v>
+        <v>30.0079</v>
       </c>
       <c r="G62" t="n">
-        <v>-878491.4607209198</v>
+        <v>-775829.1992626598</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,32 +2855,37 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>21.43</v>
+        <v>21.5</v>
       </c>
       <c r="C63" t="n">
-        <v>21.43</v>
+        <v>21.5</v>
       </c>
       <c r="D63" t="n">
-        <v>21.43</v>
+        <v>21.5</v>
       </c>
       <c r="E63" t="n">
-        <v>21.43</v>
+        <v>21.5</v>
       </c>
       <c r="F63" t="n">
-        <v>3918.5319</v>
+        <v>11667.4536</v>
       </c>
       <c r="G63" t="n">
-        <v>-878491.4607209198</v>
+        <v>-787496.6528626598</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,32 +2895,37 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>21.43</v>
+        <v>21.6</v>
       </c>
       <c r="C64" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="D64" t="n">
-        <v>21.43</v>
+        <v>21.6</v>
       </c>
       <c r="E64" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="F64" t="n">
-        <v>9938.7305</v>
+        <v>7090</v>
       </c>
       <c r="G64" t="n">
-        <v>-888430.1912209197</v>
+        <v>-780406.6528626598</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2628,32 +2935,37 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>21.4</v>
+        <v>21.59</v>
       </c>
       <c r="C65" t="n">
-        <v>21.4</v>
+        <v>21.59</v>
       </c>
       <c r="D65" t="n">
-        <v>21.4</v>
+        <v>21.59</v>
       </c>
       <c r="E65" t="n">
-        <v>21.4</v>
+        <v>21.59</v>
       </c>
       <c r="F65" t="n">
-        <v>4400</v>
+        <v>2309.0277</v>
       </c>
       <c r="G65" t="n">
-        <v>-888430.1912209197</v>
+        <v>-782715.6805626597</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2663,32 +2975,37 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>21.49</v>
+        <v>21.59</v>
       </c>
       <c r="C66" t="n">
-        <v>21.49</v>
+        <v>21.59</v>
       </c>
       <c r="D66" t="n">
-        <v>21.49</v>
+        <v>21.59</v>
       </c>
       <c r="E66" t="n">
-        <v>21.49</v>
+        <v>21.59</v>
       </c>
       <c r="F66" t="n">
-        <v>11092.751</v>
+        <v>6950.5223</v>
       </c>
       <c r="G66" t="n">
-        <v>-877337.4402209197</v>
+        <v>-782715.6805626597</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2698,32 +3015,37 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>21.49</v>
+        <v>21.6</v>
       </c>
       <c r="C67" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="D67" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="E67" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="F67" t="n">
-        <v>164587.3589</v>
+        <v>7216.3845</v>
       </c>
       <c r="G67" t="n">
-        <v>-712750.0813209197</v>
+        <v>-775499.2960626597</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,32 +3055,37 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="C68" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="D68" t="n">
-        <v>21.95</v>
+        <v>21.6</v>
       </c>
       <c r="E68" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="F68" t="n">
-        <v>161904.7887</v>
+        <v>272.8636</v>
       </c>
       <c r="G68" t="n">
-        <v>-712750.0813209197</v>
+        <v>-775499.2960626597</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2768,32 +3095,37 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>21.95</v>
+        <v>21.59</v>
       </c>
       <c r="C69" t="n">
-        <v>21.95</v>
+        <v>21.5</v>
       </c>
       <c r="D69" t="n">
-        <v>21.95</v>
+        <v>21.59</v>
       </c>
       <c r="E69" t="n">
-        <v>21.95</v>
+        <v>21.5</v>
       </c>
       <c r="F69" t="n">
-        <v>96635.77589999999</v>
+        <v>11680.7284</v>
       </c>
       <c r="G69" t="n">
-        <v>-616114.3054209197</v>
+        <v>-787180.0244626597</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2803,32 +3135,37 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>21.61</v>
+        <v>21.5</v>
       </c>
       <c r="C70" t="n">
-        <v>21.61</v>
+        <v>21.5</v>
       </c>
       <c r="D70" t="n">
-        <v>21.61</v>
+        <v>21.5</v>
       </c>
       <c r="E70" t="n">
-        <v>21.61</v>
+        <v>21.5</v>
       </c>
       <c r="F70" t="n">
-        <v>985</v>
+        <v>6003.8462</v>
       </c>
       <c r="G70" t="n">
-        <v>-617099.3054209197</v>
+        <v>-787180.0244626597</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2838,32 +3175,37 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>21.61</v>
+        <v>21.5</v>
       </c>
       <c r="C71" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="D71" t="n">
-        <v>21.61</v>
+        <v>21.5</v>
       </c>
       <c r="E71" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="F71" t="n">
-        <v>16347.0378</v>
+        <v>3848.3524</v>
       </c>
       <c r="G71" t="n">
-        <v>-633446.3432209197</v>
+        <v>-787180.0244626597</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2873,32 +3215,37 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>21.79</v>
+        <v>21.5</v>
       </c>
       <c r="C72" t="n">
-        <v>21.79</v>
+        <v>21.5</v>
       </c>
       <c r="D72" t="n">
-        <v>21.79</v>
+        <v>21.5</v>
       </c>
       <c r="E72" t="n">
-        <v>21.79</v>
+        <v>21.5</v>
       </c>
       <c r="F72" t="n">
-        <v>11216</v>
+        <v>39366.7979</v>
       </c>
       <c r="G72" t="n">
-        <v>-622230.3432209197</v>
+        <v>-787180.0244626597</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2908,32 +3255,37 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>21.79</v>
+        <v>21.5</v>
       </c>
       <c r="C73" t="n">
-        <v>21.9</v>
+        <v>21.46</v>
       </c>
       <c r="D73" t="n">
-        <v>21.9</v>
+        <v>21.5</v>
       </c>
       <c r="E73" t="n">
-        <v>21.79</v>
+        <v>21.46</v>
       </c>
       <c r="F73" t="n">
-        <v>6115.5718</v>
+        <v>59050.6962</v>
       </c>
       <c r="G73" t="n">
-        <v>-616114.7714209197</v>
+        <v>-846230.7206626597</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2943,172 +3295,197 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>21.9</v>
+        <v>21.46</v>
       </c>
       <c r="C74" t="n">
-        <v>21.9</v>
+        <v>21.46</v>
       </c>
       <c r="D74" t="n">
-        <v>21.9</v>
+        <v>21.46</v>
       </c>
       <c r="E74" t="n">
-        <v>21.9</v>
+        <v>21.46</v>
       </c>
       <c r="F74" t="n">
-        <v>44856</v>
+        <v>626.1446</v>
       </c>
       <c r="G74" t="n">
-        <v>-616114.7714209197</v>
+        <v>-846230.7206626597</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>21.9</v>
+        <v>21.46</v>
       </c>
       <c r="C75" t="n">
-        <v>21.9</v>
+        <v>21.46</v>
       </c>
       <c r="D75" t="n">
-        <v>21.9</v>
+        <v>21.46</v>
       </c>
       <c r="E75" t="n">
-        <v>21.9</v>
+        <v>21.46</v>
       </c>
       <c r="F75" t="n">
-        <v>47186.9376</v>
+        <v>33263.7995</v>
       </c>
       <c r="G75" t="n">
-        <v>-616114.7714209197</v>
+        <v>-846230.7206626597</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>21.89</v>
+        <v>21.47</v>
       </c>
       <c r="C76" t="n">
-        <v>21.89</v>
+        <v>21.59</v>
       </c>
       <c r="D76" t="n">
-        <v>21.89</v>
+        <v>21.59</v>
       </c>
       <c r="E76" t="n">
-        <v>21.89</v>
+        <v>21.46</v>
       </c>
       <c r="F76" t="n">
-        <v>11863.7586</v>
+        <v>25212.0027</v>
       </c>
       <c r="G76" t="n">
-        <v>-627978.5300209196</v>
+        <v>-821018.7179626598</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>21.61</v>
+        <v>21.46</v>
       </c>
       <c r="C77" t="n">
-        <v>21.61</v>
+        <v>21.46</v>
       </c>
       <c r="D77" t="n">
-        <v>21.61</v>
+        <v>21.46</v>
       </c>
       <c r="E77" t="n">
-        <v>21.61</v>
+        <v>21.46</v>
       </c>
       <c r="F77" t="n">
-        <v>18300</v>
+        <v>2633.0952</v>
       </c>
       <c r="G77" t="n">
-        <v>-646278.5300209196</v>
+        <v>-823651.8131626598</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>21.5</v>
+        <v>21.46</v>
       </c>
       <c r="C78" t="n">
-        <v>21.5</v>
+        <v>21.46</v>
       </c>
       <c r="D78" t="n">
-        <v>21.5</v>
+        <v>21.46</v>
       </c>
       <c r="E78" t="n">
-        <v>21.5</v>
+        <v>21.46</v>
       </c>
       <c r="F78" t="n">
-        <v>4400</v>
+        <v>16579.7722</v>
       </c>
       <c r="G78" t="n">
-        <v>-650678.5300209196</v>
+        <v>-823651.8131626598</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3118,32 +3495,37 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>21.49</v>
+        <v>21.46</v>
       </c>
       <c r="C79" t="n">
-        <v>21.49</v>
+        <v>21.46</v>
       </c>
       <c r="D79" t="n">
-        <v>21.49</v>
+        <v>21.46</v>
       </c>
       <c r="E79" t="n">
-        <v>21.49</v>
+        <v>21.46</v>
       </c>
       <c r="F79" t="n">
-        <v>4400</v>
+        <v>29459.6627</v>
       </c>
       <c r="G79" t="n">
-        <v>-655078.5300209196</v>
+        <v>-823651.8131626598</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3153,32 +3535,37 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>21.5</v>
+        <v>21.43</v>
       </c>
       <c r="C80" t="n">
-        <v>21.5</v>
+        <v>21.35</v>
       </c>
       <c r="D80" t="n">
-        <v>21.5</v>
+        <v>21.43</v>
       </c>
       <c r="E80" t="n">
-        <v>21.5</v>
+        <v>21.35</v>
       </c>
       <c r="F80" t="n">
-        <v>4364.2357</v>
+        <v>271709.757</v>
       </c>
       <c r="G80" t="n">
-        <v>-650714.2943209197</v>
+        <v>-1095361.57016266</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3188,32 +3575,37 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>21.49</v>
+        <v>21.35</v>
       </c>
       <c r="C81" t="n">
-        <v>21.4</v>
+        <v>21.35</v>
       </c>
       <c r="D81" t="n">
-        <v>21.49</v>
+        <v>21.35</v>
       </c>
       <c r="E81" t="n">
-        <v>21.4</v>
+        <v>21.35</v>
       </c>
       <c r="F81" t="n">
-        <v>3999.0605</v>
+        <v>599</v>
       </c>
       <c r="G81" t="n">
-        <v>-654713.3548209197</v>
+        <v>-1095361.57016266</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3223,32 +3615,37 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="C82" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="D82" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="E82" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="F82" t="n">
-        <v>365.1752</v>
+        <v>7302.8165</v>
       </c>
       <c r="G82" t="n">
-        <v>-654348.1796209196</v>
+        <v>-1088058.75366266</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3258,32 +3655,37 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>21.5</v>
+        <v>21.35</v>
       </c>
       <c r="C83" t="n">
-        <v>21.5</v>
+        <v>21.35</v>
       </c>
       <c r="D83" t="n">
-        <v>21.5</v>
+        <v>21.35</v>
       </c>
       <c r="E83" t="n">
-        <v>21.5</v>
+        <v>21.35</v>
       </c>
       <c r="F83" t="n">
-        <v>365.1752</v>
+        <v>2336.0655</v>
       </c>
       <c r="G83" t="n">
-        <v>-654348.1796209196</v>
+        <v>-1090394.81916266</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3293,32 +3695,37 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>21.5</v>
+        <v>21.32</v>
       </c>
       <c r="C84" t="n">
-        <v>21.5</v>
+        <v>21.31</v>
       </c>
       <c r="D84" t="n">
-        <v>21.5</v>
+        <v>21.32</v>
       </c>
       <c r="E84" t="n">
-        <v>21.5</v>
+        <v>21.31</v>
       </c>
       <c r="F84" t="n">
-        <v>365.1752</v>
+        <v>152410.124</v>
       </c>
       <c r="G84" t="n">
-        <v>-654348.1796209196</v>
+        <v>-1242804.94316266</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3328,32 +3735,37 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>21.41</v>
+        <v>21.31</v>
       </c>
       <c r="C85" t="n">
         <v>21.3</v>
       </c>
       <c r="D85" t="n">
-        <v>21.41</v>
+        <v>21.31</v>
       </c>
       <c r="E85" t="n">
         <v>21.3</v>
       </c>
       <c r="F85" t="n">
-        <v>133053.3387</v>
+        <v>9865.874900000001</v>
       </c>
       <c r="G85" t="n">
-        <v>-787401.5183209196</v>
+        <v>-1252670.81806266</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3363,32 +3775,37 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>21.45</v>
+        <v>21.3</v>
       </c>
       <c r="C86" t="n">
-        <v>21.45</v>
+        <v>21.3</v>
       </c>
       <c r="D86" t="n">
-        <v>21.45</v>
+        <v>21.3</v>
       </c>
       <c r="E86" t="n">
-        <v>21.45</v>
+        <v>21.3</v>
       </c>
       <c r="F86" t="n">
-        <v>4396.4955</v>
+        <v>68755.6652</v>
       </c>
       <c r="G86" t="n">
-        <v>-783005.0228209196</v>
+        <v>-1252670.81806266</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3398,32 +3815,37 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>21.46</v>
+        <v>21.5</v>
       </c>
       <c r="C87" t="n">
-        <v>21.45</v>
+        <v>21.5</v>
       </c>
       <c r="D87" t="n">
-        <v>21.46</v>
+        <v>21.5</v>
       </c>
       <c r="E87" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="F87" t="n">
-        <v>62175.4013</v>
+        <v>2012.1123</v>
       </c>
       <c r="G87" t="n">
-        <v>-783005.0228209196</v>
+        <v>-1250658.70576266</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3433,32 +3855,37 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>21.45</v>
+        <v>21.5</v>
       </c>
       <c r="C88" t="n">
-        <v>21.45</v>
+        <v>21.5</v>
       </c>
       <c r="D88" t="n">
-        <v>21.45</v>
+        <v>21.5</v>
       </c>
       <c r="E88" t="n">
-        <v>21.45</v>
+        <v>21.5</v>
       </c>
       <c r="F88" t="n">
-        <v>11000</v>
+        <v>30542.1583</v>
       </c>
       <c r="G88" t="n">
-        <v>-783005.0228209196</v>
+        <v>-1250658.70576266</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3468,32 +3895,37 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>21.45</v>
+        <v>21.5</v>
       </c>
       <c r="C89" t="n">
-        <v>21.45</v>
+        <v>21.59</v>
       </c>
       <c r="D89" t="n">
-        <v>21.45</v>
+        <v>21.59</v>
       </c>
       <c r="E89" t="n">
-        <v>21.45</v>
+        <v>21.5</v>
       </c>
       <c r="F89" t="n">
-        <v>8000</v>
+        <v>1038.6713</v>
       </c>
       <c r="G89" t="n">
-        <v>-783005.0228209196</v>
+        <v>-1249620.03446266</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3503,32 +3935,37 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>21.45</v>
+        <v>21.59</v>
       </c>
       <c r="C90" t="n">
-        <v>21.45</v>
+        <v>21.59</v>
       </c>
       <c r="D90" t="n">
-        <v>21.45</v>
+        <v>21.59</v>
       </c>
       <c r="E90" t="n">
-        <v>21.3</v>
+        <v>21.59</v>
       </c>
       <c r="F90" t="n">
-        <v>53772.674</v>
+        <v>500</v>
       </c>
       <c r="G90" t="n">
-        <v>-783005.0228209196</v>
+        <v>-1249620.03446266</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3538,32 +3975,37 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>21.45</v>
+        <v>21.59</v>
       </c>
       <c r="C91" t="n">
-        <v>21.45</v>
+        <v>21.59</v>
       </c>
       <c r="D91" t="n">
-        <v>21.45</v>
+        <v>21.59</v>
       </c>
       <c r="E91" t="n">
-        <v>21.45</v>
+        <v>21.59</v>
       </c>
       <c r="F91" t="n">
-        <v>3000</v>
+        <v>3356.1842</v>
       </c>
       <c r="G91" t="n">
-        <v>-783005.0228209196</v>
+        <v>-1249620.03446266</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3573,32 +4015,37 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>21.3</v>
+        <v>21.6</v>
       </c>
       <c r="C92" t="n">
-        <v>21.25</v>
+        <v>21.73</v>
       </c>
       <c r="D92" t="n">
-        <v>21.3</v>
+        <v>21.73</v>
       </c>
       <c r="E92" t="n">
-        <v>21.25</v>
+        <v>21.6</v>
       </c>
       <c r="F92" t="n">
-        <v>1785.6627</v>
+        <v>225</v>
       </c>
       <c r="G92" t="n">
-        <v>-784790.6855209196</v>
+        <v>-1249395.03446266</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3608,32 +4055,37 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>21.3</v>
+        <v>21.6</v>
       </c>
       <c r="C93" t="n">
-        <v>21.3</v>
+        <v>21.6</v>
       </c>
       <c r="D93" t="n">
-        <v>21.3</v>
+        <v>21.6</v>
       </c>
       <c r="E93" t="n">
-        <v>21.3</v>
+        <v>21.6</v>
       </c>
       <c r="F93" t="n">
-        <v>5995.8557</v>
+        <v>200</v>
       </c>
       <c r="G93" t="n">
-        <v>-778794.8298209197</v>
+        <v>-1249595.03446266</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3643,32 +4095,37 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>21.42</v>
+        <v>21.6</v>
       </c>
       <c r="C94" t="n">
-        <v>21.42</v>
+        <v>21.6</v>
       </c>
       <c r="D94" t="n">
-        <v>21.42</v>
+        <v>21.6</v>
       </c>
       <c r="E94" t="n">
-        <v>21.42</v>
+        <v>21.6</v>
       </c>
       <c r="F94" t="n">
-        <v>9353.197099999999</v>
+        <v>985.2352</v>
       </c>
       <c r="G94" t="n">
-        <v>-769441.6327209197</v>
+        <v>-1249595.03446266</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3678,32 +4135,37 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>21.59</v>
+        <v>21.72</v>
       </c>
       <c r="C95" t="n">
-        <v>21.59</v>
+        <v>21.73</v>
       </c>
       <c r="D95" t="n">
-        <v>21.59</v>
+        <v>21.73</v>
       </c>
       <c r="E95" t="n">
-        <v>21.59</v>
+        <v>21.72</v>
       </c>
       <c r="F95" t="n">
-        <v>46.1606</v>
+        <v>201</v>
       </c>
       <c r="G95" t="n">
-        <v>-769395.4721209197</v>
+        <v>-1249394.03446266</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3713,32 +4175,37 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>21.59</v>
+        <v>21.62</v>
       </c>
       <c r="C96" t="n">
-        <v>21.95</v>
+        <v>21.73</v>
       </c>
       <c r="D96" t="n">
-        <v>21.95</v>
+        <v>21.73</v>
       </c>
       <c r="E96" t="n">
-        <v>21.59</v>
+        <v>21.61</v>
       </c>
       <c r="F96" t="n">
-        <v>122666.58325826</v>
+        <v>895.4906</v>
       </c>
       <c r="G96" t="n">
-        <v>-646728.8888626597</v>
+        <v>-1249394.03446266</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3748,32 +4215,37 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>21.6</v>
+        <v>21.61</v>
       </c>
       <c r="C97" t="n">
-        <v>21.6</v>
+        <v>21.61</v>
       </c>
       <c r="D97" t="n">
-        <v>21.6</v>
+        <v>21.61</v>
       </c>
       <c r="E97" t="n">
-        <v>21.6</v>
+        <v>21.61</v>
       </c>
       <c r="F97" t="n">
-        <v>5632.423</v>
+        <v>500</v>
       </c>
       <c r="G97" t="n">
-        <v>-652361.3118626596</v>
+        <v>-1249894.03446266</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3783,38 +4255,41 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>21.6</v>
+        <v>21.61</v>
       </c>
       <c r="C98" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="D98" t="n">
-        <v>21.7</v>
+        <v>21.61</v>
       </c>
       <c r="E98" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="F98" t="n">
-        <v>3967.6984</v>
+        <v>4243.8916</v>
       </c>
       <c r="G98" t="n">
-        <v>-648393.6134626596</v>
+        <v>-1254137.92606266</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3822,34 +4297,35 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="C99" t="n">
-        <v>21.79</v>
+        <v>21.4</v>
       </c>
       <c r="D99" t="n">
-        <v>21.79</v>
+        <v>21.5</v>
       </c>
       <c r="E99" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="F99" t="n">
-        <v>2237.0469</v>
+        <v>113015.2786</v>
       </c>
       <c r="G99" t="n">
-        <v>-646156.5665626597</v>
+        <v>-1367153.20466266</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3857,28 +4333,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>21.5</v>
+        <v>21.61</v>
       </c>
       <c r="C100" t="n">
-        <v>21.41</v>
+        <v>21.61</v>
       </c>
       <c r="D100" t="n">
-        <v>21.5</v>
+        <v>21.61</v>
       </c>
       <c r="E100" t="n">
-        <v>21.41</v>
+        <v>21.61</v>
       </c>
       <c r="F100" t="n">
-        <v>122666.5832</v>
+        <v>35</v>
       </c>
       <c r="G100" t="n">
-        <v>-768823.1497626597</v>
+        <v>-1367118.20466266</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,34 +4369,35 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>21.69</v>
+        <v>21.6</v>
       </c>
       <c r="C101" t="n">
-        <v>21.69</v>
+        <v>21.6</v>
       </c>
       <c r="D101" t="n">
-        <v>21.69</v>
+        <v>21.6</v>
       </c>
       <c r="E101" t="n">
-        <v>21.69</v>
+        <v>21.6</v>
       </c>
       <c r="F101" t="n">
-        <v>2332.9426</v>
+        <v>13671</v>
       </c>
       <c r="G101" t="n">
-        <v>-766490.2071626597</v>
+        <v>-1380789.20466266</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -3927,28 +4405,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>21.59</v>
+        <v>21.6</v>
       </c>
       <c r="C102" t="n">
-        <v>21.59</v>
+        <v>21.6</v>
       </c>
       <c r="D102" t="n">
-        <v>21.59</v>
+        <v>21.6</v>
       </c>
       <c r="E102" t="n">
-        <v>21.59</v>
+        <v>21.6</v>
       </c>
       <c r="F102" t="n">
-        <v>50</v>
+        <v>28976</v>
       </c>
       <c r="G102" t="n">
-        <v>-766540.2071626597</v>
+        <v>-1380789.20466266</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,28 +4441,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>21.47</v>
+        <v>21.6</v>
       </c>
       <c r="C103" t="n">
-        <v>21.47</v>
+        <v>21.6</v>
       </c>
       <c r="D103" t="n">
-        <v>21.47</v>
+        <v>21.6</v>
       </c>
       <c r="E103" t="n">
-        <v>21.47</v>
+        <v>21.6</v>
       </c>
       <c r="F103" t="n">
-        <v>9319</v>
+        <v>13200</v>
       </c>
       <c r="G103" t="n">
-        <v>-775859.2071626597</v>
+        <v>-1380789.20466266</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4477,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>21.79</v>
+        <v>21.6</v>
       </c>
       <c r="C104" t="n">
-        <v>21.79</v>
+        <v>21.6</v>
       </c>
       <c r="D104" t="n">
-        <v>21.79</v>
+        <v>21.6</v>
       </c>
       <c r="E104" t="n">
-        <v>21.79</v>
+        <v>21.6</v>
       </c>
       <c r="F104" t="n">
-        <v>30.0079</v>
+        <v>262.7731</v>
       </c>
       <c r="G104" t="n">
-        <v>-775829.1992626598</v>
+        <v>-1380789.20466266</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,28 +4513,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>21.5</v>
+        <v>21.35</v>
       </c>
       <c r="C105" t="n">
-        <v>21.5</v>
+        <v>21.35</v>
       </c>
       <c r="D105" t="n">
-        <v>21.5</v>
+        <v>21.35</v>
       </c>
       <c r="E105" t="n">
-        <v>21.5</v>
+        <v>21.35</v>
       </c>
       <c r="F105" t="n">
-        <v>11667.4536</v>
+        <v>12131.861</v>
       </c>
       <c r="G105" t="n">
-        <v>-787496.6528626598</v>
+        <v>-1392921.06566266</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,6 +4549,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4085,10 +4568,10 @@
         <v>21.6</v>
       </c>
       <c r="F106" t="n">
-        <v>7090</v>
+        <v>100</v>
       </c>
       <c r="G106" t="n">
-        <v>-780406.6528626598</v>
+        <v>-1392821.06566266</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,28 +4585,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>21.59</v>
+        <v>21.6</v>
       </c>
       <c r="C107" t="n">
-        <v>21.59</v>
+        <v>21.6</v>
       </c>
       <c r="D107" t="n">
-        <v>21.59</v>
+        <v>21.6</v>
       </c>
       <c r="E107" t="n">
-        <v>21.59</v>
+        <v>21.6</v>
       </c>
       <c r="F107" t="n">
-        <v>2309.0277</v>
+        <v>100</v>
       </c>
       <c r="G107" t="n">
-        <v>-782715.6805626597</v>
+        <v>-1392821.06566266</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,28 +4621,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>21.59</v>
+        <v>21.35</v>
       </c>
       <c r="C108" t="n">
-        <v>21.59</v>
+        <v>21.35</v>
       </c>
       <c r="D108" t="n">
-        <v>21.59</v>
+        <v>21.35</v>
       </c>
       <c r="E108" t="n">
-        <v>21.59</v>
+        <v>21.35</v>
       </c>
       <c r="F108" t="n">
-        <v>6950.5223</v>
+        <v>37219.2531</v>
       </c>
       <c r="G108" t="n">
-        <v>-782715.6805626597</v>
+        <v>-1430040.31876266</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4172,28 +4657,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>21.6</v>
+        <v>21.35</v>
       </c>
       <c r="C109" t="n">
-        <v>21.6</v>
+        <v>21.35</v>
       </c>
       <c r="D109" t="n">
-        <v>21.6</v>
+        <v>21.35</v>
       </c>
       <c r="E109" t="n">
-        <v>21.6</v>
+        <v>21.35</v>
       </c>
       <c r="F109" t="n">
-        <v>7216.3845</v>
+        <v>9000</v>
       </c>
       <c r="G109" t="n">
-        <v>-775499.2960626597</v>
+        <v>-1430040.31876266</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4207,28 +4693,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>21.6</v>
+        <v>21.35</v>
       </c>
       <c r="C110" t="n">
-        <v>21.6</v>
+        <v>21.35</v>
       </c>
       <c r="D110" t="n">
-        <v>21.6</v>
+        <v>21.35</v>
       </c>
       <c r="E110" t="n">
-        <v>21.6</v>
+        <v>21.35</v>
       </c>
       <c r="F110" t="n">
-        <v>272.8636</v>
+        <v>14181</v>
       </c>
       <c r="G110" t="n">
-        <v>-775499.2960626597</v>
+        <v>-1430040.31876266</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,28 +4729,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>21.59</v>
+        <v>21.35</v>
       </c>
       <c r="C111" t="n">
-        <v>21.5</v>
+        <v>21.35</v>
       </c>
       <c r="D111" t="n">
-        <v>21.59</v>
+        <v>21.35</v>
       </c>
       <c r="E111" t="n">
-        <v>21.5</v>
+        <v>21.35</v>
       </c>
       <c r="F111" t="n">
-        <v>11680.7284</v>
+        <v>20881.4035</v>
       </c>
       <c r="G111" t="n">
-        <v>-787180.0244626597</v>
+        <v>-1430040.31876266</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4277,28 +4765,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="C112" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="D112" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="E112" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="F112" t="n">
-        <v>6003.8462</v>
+        <v>7095.3764</v>
       </c>
       <c r="G112" t="n">
-        <v>-787180.0244626597</v>
+        <v>-1422944.94236266</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,28 +4801,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="C113" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="D113" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="E113" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="F113" t="n">
-        <v>3848.3524</v>
+        <v>7313.944</v>
       </c>
       <c r="G113" t="n">
-        <v>-787180.0244626597</v>
+        <v>-1422944.94236266</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,28 +4837,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>21.5</v>
+        <v>21.33</v>
       </c>
       <c r="C114" t="n">
-        <v>21.5</v>
+        <v>21.33</v>
       </c>
       <c r="D114" t="n">
-        <v>21.5</v>
+        <v>21.33</v>
       </c>
       <c r="E114" t="n">
-        <v>21.5</v>
+        <v>21.33</v>
       </c>
       <c r="F114" t="n">
-        <v>39366.7979</v>
+        <v>67992.3173</v>
       </c>
       <c r="G114" t="n">
-        <v>-787180.0244626597</v>
+        <v>-1490937.25966266</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4382,28 +4873,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>21.5</v>
+        <v>21.61</v>
       </c>
       <c r="C115" t="n">
-        <v>21.46</v>
+        <v>21.61</v>
       </c>
       <c r="D115" t="n">
-        <v>21.5</v>
+        <v>21.61</v>
       </c>
       <c r="E115" t="n">
-        <v>21.46</v>
+        <v>21.61</v>
       </c>
       <c r="F115" t="n">
-        <v>59050.6962</v>
+        <v>5089.7232</v>
       </c>
       <c r="G115" t="n">
-        <v>-846230.7206626597</v>
+        <v>-1485847.53646266</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4417,28 +4909,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>21.46</v>
+        <v>21.6</v>
       </c>
       <c r="C116" t="n">
-        <v>21.46</v>
+        <v>21.7</v>
       </c>
       <c r="D116" t="n">
-        <v>21.46</v>
+        <v>21.7</v>
       </c>
       <c r="E116" t="n">
-        <v>21.46</v>
+        <v>21.6</v>
       </c>
       <c r="F116" t="n">
-        <v>626.1446</v>
+        <v>25479.6038</v>
       </c>
       <c r="G116" t="n">
-        <v>-846230.7206626597</v>
+        <v>-1460367.93266266</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4452,28 +4945,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>21.46</v>
+        <v>21.7</v>
       </c>
       <c r="C117" t="n">
-        <v>21.46</v>
+        <v>21.35</v>
       </c>
       <c r="D117" t="n">
-        <v>21.46</v>
+        <v>21.74</v>
       </c>
       <c r="E117" t="n">
-        <v>21.46</v>
+        <v>21.35</v>
       </c>
       <c r="F117" t="n">
-        <v>33263.7995</v>
+        <v>30958.3935</v>
       </c>
       <c r="G117" t="n">
-        <v>-846230.7206626597</v>
+        <v>-1491326.32616266</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4487,28 +4981,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>21.47</v>
+        <v>21.6</v>
       </c>
       <c r="C118" t="n">
-        <v>21.59</v>
+        <v>21.6</v>
       </c>
       <c r="D118" t="n">
-        <v>21.59</v>
+        <v>21.6</v>
       </c>
       <c r="E118" t="n">
-        <v>21.46</v>
+        <v>21.6</v>
       </c>
       <c r="F118" t="n">
-        <v>25212.0027</v>
+        <v>3095.7045</v>
       </c>
       <c r="G118" t="n">
-        <v>-821018.7179626598</v>
+        <v>-1488230.62166266</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4522,28 +5017,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>21.46</v>
+        <v>21.57</v>
       </c>
       <c r="C119" t="n">
-        <v>21.46</v>
+        <v>21.74</v>
       </c>
       <c r="D119" t="n">
-        <v>21.46</v>
+        <v>21.74</v>
       </c>
       <c r="E119" t="n">
-        <v>21.46</v>
+        <v>21.57</v>
       </c>
       <c r="F119" t="n">
-        <v>2633.0952</v>
+        <v>89341.55160000001</v>
       </c>
       <c r="G119" t="n">
-        <v>-823651.8131626598</v>
+        <v>-1398889.07006266</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4557,28 +5053,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>21.46</v>
+        <v>21.5</v>
       </c>
       <c r="C120" t="n">
-        <v>21.46</v>
+        <v>21.5</v>
       </c>
       <c r="D120" t="n">
-        <v>21.46</v>
+        <v>21.5</v>
       </c>
       <c r="E120" t="n">
-        <v>21.46</v>
+        <v>21.5</v>
       </c>
       <c r="F120" t="n">
-        <v>16579.7722</v>
+        <v>1583.3333</v>
       </c>
       <c r="G120" t="n">
-        <v>-823651.8131626598</v>
+        <v>-1400472.40336266</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4592,28 +5089,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>21.46</v>
+        <v>21.74</v>
       </c>
       <c r="C121" t="n">
-        <v>21.46</v>
+        <v>21.74</v>
       </c>
       <c r="D121" t="n">
-        <v>21.46</v>
+        <v>21.74</v>
       </c>
       <c r="E121" t="n">
-        <v>21.46</v>
+        <v>21.74</v>
       </c>
       <c r="F121" t="n">
-        <v>29459.6627</v>
+        <v>1100</v>
       </c>
       <c r="G121" t="n">
-        <v>-823651.8131626598</v>
+        <v>-1399372.40336266</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4627,28 +5125,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>21.43</v>
+        <v>21.5</v>
       </c>
       <c r="C122" t="n">
-        <v>21.35</v>
+        <v>21.8</v>
       </c>
       <c r="D122" t="n">
-        <v>21.43</v>
+        <v>21.8</v>
       </c>
       <c r="E122" t="n">
-        <v>21.35</v>
+        <v>21.5</v>
       </c>
       <c r="F122" t="n">
-        <v>271709.757</v>
+        <v>1762.7731</v>
       </c>
       <c r="G122" t="n">
-        <v>-1095361.57016266</v>
+        <v>-1397609.63026266</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4662,28 +5161,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>21.35</v>
+        <v>21.8</v>
       </c>
       <c r="C123" t="n">
-        <v>21.35</v>
+        <v>21.8</v>
       </c>
       <c r="D123" t="n">
-        <v>21.35</v>
+        <v>21.8</v>
       </c>
       <c r="E123" t="n">
-        <v>21.35</v>
+        <v>21.8</v>
       </c>
       <c r="F123" t="n">
-        <v>599</v>
+        <v>500</v>
       </c>
       <c r="G123" t="n">
-        <v>-1095361.57016266</v>
+        <v>-1397609.63026266</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4697,34 +5197,35 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>21.4</v>
+        <v>21.9</v>
       </c>
       <c r="C124" t="n">
-        <v>21.4</v>
+        <v>21.9</v>
       </c>
       <c r="D124" t="n">
-        <v>21.4</v>
+        <v>21.9</v>
       </c>
       <c r="E124" t="n">
-        <v>21.4</v>
+        <v>21.9</v>
       </c>
       <c r="F124" t="n">
-        <v>7302.8165</v>
+        <v>500</v>
       </c>
       <c r="G124" t="n">
-        <v>-1088058.75366266</v>
+        <v>-1397109.63026266</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -4732,28 +5233,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>21.35</v>
+        <v>21.9</v>
       </c>
       <c r="C125" t="n">
-        <v>21.35</v>
+        <v>21.9</v>
       </c>
       <c r="D125" t="n">
-        <v>21.35</v>
+        <v>21.9</v>
       </c>
       <c r="E125" t="n">
-        <v>21.35</v>
+        <v>21.9</v>
       </c>
       <c r="F125" t="n">
-        <v>2336.0655</v>
+        <v>1000</v>
       </c>
       <c r="G125" t="n">
-        <v>-1090394.81916266</v>
+        <v>-1397109.63026266</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4767,34 +5269,35 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>21.32</v>
+        <v>21.89</v>
       </c>
       <c r="C126" t="n">
-        <v>21.31</v>
+        <v>21.89</v>
       </c>
       <c r="D126" t="n">
-        <v>21.32</v>
+        <v>21.89</v>
       </c>
       <c r="E126" t="n">
-        <v>21.31</v>
+        <v>21.89</v>
       </c>
       <c r="F126" t="n">
-        <v>152410.124</v>
+        <v>4200</v>
       </c>
       <c r="G126" t="n">
-        <v>-1242804.94316266</v>
+        <v>-1401309.63026266</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -4802,34 +5305,35 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>21.31</v>
+        <v>21.7</v>
       </c>
       <c r="C127" t="n">
-        <v>21.3</v>
+        <v>21.7</v>
       </c>
       <c r="D127" t="n">
-        <v>21.31</v>
+        <v>21.7</v>
       </c>
       <c r="E127" t="n">
-        <v>21.3</v>
+        <v>21.7</v>
       </c>
       <c r="F127" t="n">
-        <v>9865.874900000001</v>
+        <v>46411.2025</v>
       </c>
       <c r="G127" t="n">
-        <v>-1252670.81806266</v>
+        <v>-1447720.83276266</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -4837,34 +5341,35 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>21.3</v>
+        <v>21.7</v>
       </c>
       <c r="C128" t="n">
-        <v>21.3</v>
+        <v>21.7</v>
       </c>
       <c r="D128" t="n">
-        <v>21.3</v>
+        <v>21.7</v>
       </c>
       <c r="E128" t="n">
-        <v>21.3</v>
+        <v>21.7</v>
       </c>
       <c r="F128" t="n">
-        <v>68755.6652</v>
+        <v>2298.387</v>
       </c>
       <c r="G128" t="n">
-        <v>-1252670.81806266</v>
+        <v>-1447720.83276266</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -4872,34 +5377,35 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="C129" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="D129" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="E129" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="F129" t="n">
-        <v>2012.1123</v>
+        <v>5000</v>
       </c>
       <c r="G129" t="n">
-        <v>-1250658.70576266</v>
+        <v>-1452720.83276266</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -4907,34 +5413,35 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="C130" t="n">
         <v>21.5</v>
       </c>
       <c r="D130" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="E130" t="n">
         <v>21.5</v>
       </c>
       <c r="F130" t="n">
-        <v>30542.1583</v>
+        <v>43726.9807</v>
       </c>
       <c r="G130" t="n">
-        <v>-1250658.70576266</v>
+        <v>-1496447.81346266</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -4942,28 +5449,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="C131" t="n">
-        <v>21.59</v>
+        <v>21.7</v>
       </c>
       <c r="D131" t="n">
-        <v>21.59</v>
+        <v>21.7</v>
       </c>
       <c r="E131" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="F131" t="n">
-        <v>1038.6713</v>
+        <v>2000</v>
       </c>
       <c r="G131" t="n">
-        <v>-1249620.03446266</v>
+        <v>-1494447.81346266</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4977,34 +5485,35 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>21.59</v>
+        <v>21.7</v>
       </c>
       <c r="C132" t="n">
-        <v>21.59</v>
+        <v>21.8</v>
       </c>
       <c r="D132" t="n">
-        <v>21.59</v>
+        <v>21.8</v>
       </c>
       <c r="E132" t="n">
-        <v>21.59</v>
+        <v>21.7</v>
       </c>
       <c r="F132" t="n">
-        <v>500</v>
+        <v>2380.56</v>
       </c>
       <c r="G132" t="n">
-        <v>-1249620.03446266</v>
+        <v>-1492067.25346266</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5012,28 +5521,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>21.59</v>
+        <v>21.8</v>
       </c>
       <c r="C133" t="n">
-        <v>21.59</v>
+        <v>21.8</v>
       </c>
       <c r="D133" t="n">
-        <v>21.59</v>
+        <v>21.8</v>
       </c>
       <c r="E133" t="n">
-        <v>21.59</v>
+        <v>21.8</v>
       </c>
       <c r="F133" t="n">
-        <v>3356.1842</v>
+        <v>1534.5525</v>
       </c>
       <c r="G133" t="n">
-        <v>-1249620.03446266</v>
+        <v>-1492067.25346266</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5047,34 +5557,35 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="C134" t="n">
-        <v>21.73</v>
+        <v>21.8</v>
       </c>
       <c r="D134" t="n">
-        <v>21.73</v>
+        <v>21.8</v>
       </c>
       <c r="E134" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="F134" t="n">
-        <v>225</v>
+        <v>1563.8722</v>
       </c>
       <c r="G134" t="n">
-        <v>-1249395.03446266</v>
+        <v>-1492067.25346266</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -5082,34 +5593,35 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="C135" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="D135" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="E135" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="F135" t="n">
-        <v>200</v>
+        <v>26415.1144</v>
       </c>
       <c r="G135" t="n">
-        <v>-1249595.03446266</v>
+        <v>-1518482.36786266</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -5117,28 +5629,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>21.6</v>
+        <v>21.9</v>
       </c>
       <c r="C136" t="n">
-        <v>21.6</v>
+        <v>21.9</v>
       </c>
       <c r="D136" t="n">
-        <v>21.6</v>
+        <v>21.9</v>
       </c>
       <c r="E136" t="n">
-        <v>21.6</v>
+        <v>21.9</v>
       </c>
       <c r="F136" t="n">
-        <v>985.2352</v>
+        <v>13200</v>
       </c>
       <c r="G136" t="n">
-        <v>-1249595.03446266</v>
+        <v>-1505282.36786266</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5152,28 +5665,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>21.72</v>
+        <v>21.87</v>
       </c>
       <c r="C137" t="n">
-        <v>21.73</v>
+        <v>21.89</v>
       </c>
       <c r="D137" t="n">
-        <v>21.73</v>
+        <v>21.89</v>
       </c>
       <c r="E137" t="n">
-        <v>21.72</v>
+        <v>21.87</v>
       </c>
       <c r="F137" t="n">
-        <v>201</v>
+        <v>31091.4303</v>
       </c>
       <c r="G137" t="n">
-        <v>-1249394.03446266</v>
+        <v>-1536373.79816266</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5187,34 +5701,35 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>21.62</v>
+        <v>21.7</v>
       </c>
       <c r="C138" t="n">
-        <v>21.73</v>
+        <v>21.7</v>
       </c>
       <c r="D138" t="n">
-        <v>21.73</v>
+        <v>21.7</v>
       </c>
       <c r="E138" t="n">
-        <v>21.61</v>
+        <v>21.7</v>
       </c>
       <c r="F138" t="n">
-        <v>895.4906</v>
+        <v>870.3882</v>
       </c>
       <c r="G138" t="n">
-        <v>-1249394.03446266</v>
+        <v>-1537244.18636266</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -5222,34 +5737,35 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>21.61</v>
+        <v>21.7</v>
       </c>
       <c r="C139" t="n">
-        <v>21.61</v>
+        <v>21.7</v>
       </c>
       <c r="D139" t="n">
-        <v>21.61</v>
+        <v>21.7</v>
       </c>
       <c r="E139" t="n">
-        <v>21.61</v>
+        <v>21.7</v>
       </c>
       <c r="F139" t="n">
-        <v>500</v>
+        <v>365.2386</v>
       </c>
       <c r="G139" t="n">
-        <v>-1249894.03446266</v>
+        <v>-1537244.18636266</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5257,28 +5773,29 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>21.61</v>
+        <v>21.9</v>
       </c>
       <c r="C140" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="D140" t="n">
-        <v>21.61</v>
+        <v>21.9</v>
       </c>
       <c r="E140" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="F140" t="n">
-        <v>4243.8916</v>
+        <v>25</v>
       </c>
       <c r="G140" t="n">
-        <v>-1254137.92606266</v>
+        <v>-1537219.18636266</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5292,28 +5809,29 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>21.5</v>
+        <v>21.88</v>
       </c>
       <c r="C141" t="n">
-        <v>21.4</v>
+        <v>21.88</v>
       </c>
       <c r="D141" t="n">
-        <v>21.5</v>
+        <v>21.88</v>
       </c>
       <c r="E141" t="n">
-        <v>21.4</v>
+        <v>21.88</v>
       </c>
       <c r="F141" t="n">
-        <v>113015.2786</v>
+        <v>382.1839</v>
       </c>
       <c r="G141" t="n">
-        <v>-1367153.20466266</v>
+        <v>-1537601.37026266</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5327,34 +5845,35 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>21.61</v>
+        <v>21.88</v>
       </c>
       <c r="C142" t="n">
-        <v>21.61</v>
+        <v>21.88</v>
       </c>
       <c r="D142" t="n">
-        <v>21.61</v>
+        <v>21.88</v>
       </c>
       <c r="E142" t="n">
-        <v>21.61</v>
+        <v>21.88</v>
       </c>
       <c r="F142" t="n">
-        <v>35</v>
+        <v>2279.4789</v>
       </c>
       <c r="G142" t="n">
-        <v>-1367118.20466266</v>
+        <v>-1537601.37026266</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -5362,34 +5881,35 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="C143" t="n">
         <v>21.6</v>
       </c>
       <c r="D143" t="n">
-        <v>21.6</v>
+        <v>21.84</v>
       </c>
       <c r="E143" t="n">
         <v>21.6</v>
       </c>
       <c r="F143" t="n">
-        <v>13671</v>
+        <v>14159.005</v>
       </c>
       <c r="G143" t="n">
-        <v>-1380789.20466266</v>
+        <v>-1551760.37526266</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -5397,6 +5917,7 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5415,10 +5936,10 @@
         <v>21.6</v>
       </c>
       <c r="F144" t="n">
-        <v>28976</v>
+        <v>7280.8336</v>
       </c>
       <c r="G144" t="n">
-        <v>-1380789.20466266</v>
+        <v>-1551760.37526266</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5432,28 +5953,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>21.6</v>
+        <v>21.51</v>
       </c>
       <c r="C145" t="n">
-        <v>21.6</v>
+        <v>21.52</v>
       </c>
       <c r="D145" t="n">
-        <v>21.6</v>
+        <v>21.52</v>
       </c>
       <c r="E145" t="n">
-        <v>21.6</v>
+        <v>21.51</v>
       </c>
       <c r="F145" t="n">
-        <v>13200</v>
+        <v>9852.9748</v>
       </c>
       <c r="G145" t="n">
-        <v>-1380789.20466266</v>
+        <v>-1561613.35006266</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5467,28 +5989,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>21.6</v>
+        <v>21.56</v>
       </c>
       <c r="C146" t="n">
-        <v>21.6</v>
+        <v>21.56</v>
       </c>
       <c r="D146" t="n">
-        <v>21.6</v>
+        <v>21.56</v>
       </c>
       <c r="E146" t="n">
-        <v>21.6</v>
+        <v>21.56</v>
       </c>
       <c r="F146" t="n">
-        <v>262.7731</v>
+        <v>1415.9751</v>
       </c>
       <c r="G146" t="n">
-        <v>-1380789.20466266</v>
+        <v>-1560197.37496266</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5502,28 +6025,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>21.35</v>
+        <v>21.56</v>
       </c>
       <c r="C147" t="n">
-        <v>21.35</v>
+        <v>21.4</v>
       </c>
       <c r="D147" t="n">
-        <v>21.35</v>
+        <v>21.56</v>
       </c>
       <c r="E147" t="n">
-        <v>21.35</v>
+        <v>21.4</v>
       </c>
       <c r="F147" t="n">
-        <v>12131.861</v>
+        <v>236759.1139</v>
       </c>
       <c r="G147" t="n">
-        <v>-1392921.06566266</v>
+        <v>-1796956.48886266</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5537,34 +6061,35 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="C148" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="D148" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="E148" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="F148" t="n">
-        <v>100</v>
+        <v>6040.3515</v>
       </c>
       <c r="G148" t="n">
-        <v>-1392821.06566266</v>
+        <v>-1796956.48886266</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
@@ -5572,28 +6097,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="C149" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="D149" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="E149" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="F149" t="n">
-        <v>100</v>
+        <v>776.5886</v>
       </c>
       <c r="G149" t="n">
-        <v>-1392821.06566266</v>
+        <v>-1796956.48886266</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5607,28 +6133,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>21.35</v>
+        <v>21.4</v>
       </c>
       <c r="C150" t="n">
-        <v>21.35</v>
+        <v>21.4</v>
       </c>
       <c r="D150" t="n">
-        <v>21.35</v>
+        <v>21.4</v>
       </c>
       <c r="E150" t="n">
-        <v>21.35</v>
+        <v>21.4</v>
       </c>
       <c r="F150" t="n">
-        <v>37219.2531</v>
+        <v>1312.5589</v>
       </c>
       <c r="G150" t="n">
-        <v>-1430040.31876266</v>
+        <v>-1796956.48886266</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5642,28 +6169,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>21.35</v>
+        <v>21.4</v>
       </c>
       <c r="C151" t="n">
-        <v>21.35</v>
+        <v>21.4</v>
       </c>
       <c r="D151" t="n">
-        <v>21.35</v>
+        <v>21.4</v>
       </c>
       <c r="E151" t="n">
-        <v>21.35</v>
+        <v>21.4</v>
       </c>
       <c r="F151" t="n">
-        <v>9000</v>
+        <v>10685.8684</v>
       </c>
       <c r="G151" t="n">
-        <v>-1430040.31876266</v>
+        <v>-1796956.48886266</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5677,28 +6205,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>21.35</v>
+        <v>21.4</v>
       </c>
       <c r="C152" t="n">
-        <v>21.35</v>
+        <v>21.4</v>
       </c>
       <c r="D152" t="n">
-        <v>21.35</v>
+        <v>21.4</v>
       </c>
       <c r="E152" t="n">
-        <v>21.35</v>
+        <v>21.4</v>
       </c>
       <c r="F152" t="n">
-        <v>14181</v>
+        <v>13000</v>
       </c>
       <c r="G152" t="n">
-        <v>-1430040.31876266</v>
+        <v>-1796956.48886266</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5712,28 +6241,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>21.35</v>
+        <v>21.4</v>
       </c>
       <c r="C153" t="n">
-        <v>21.35</v>
+        <v>21.4</v>
       </c>
       <c r="D153" t="n">
-        <v>21.35</v>
+        <v>21.4</v>
       </c>
       <c r="E153" t="n">
-        <v>21.35</v>
+        <v>21.4</v>
       </c>
       <c r="F153" t="n">
-        <v>20881.4035</v>
+        <v>3000</v>
       </c>
       <c r="G153" t="n">
-        <v>-1430040.31876266</v>
+        <v>-1796956.48886266</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5747,6 +6277,7 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5765,10 +6296,10 @@
         <v>21.4</v>
       </c>
       <c r="F154" t="n">
-        <v>7095.3764</v>
+        <v>504.9848</v>
       </c>
       <c r="G154" t="n">
-        <v>-1422944.94236266</v>
+        <v>-1796956.48886266</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5782,6 +6313,7 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5800,10 +6332,10 @@
         <v>21.4</v>
       </c>
       <c r="F155" t="n">
-        <v>7313.944</v>
+        <v>200</v>
       </c>
       <c r="G155" t="n">
-        <v>-1422944.94236266</v>
+        <v>-1796956.48886266</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5817,28 +6349,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>21.33</v>
+        <v>21.4</v>
       </c>
       <c r="C156" t="n">
-        <v>21.33</v>
+        <v>21.4</v>
       </c>
       <c r="D156" t="n">
-        <v>21.33</v>
+        <v>21.4</v>
       </c>
       <c r="E156" t="n">
-        <v>21.33</v>
+        <v>21.4</v>
       </c>
       <c r="F156" t="n">
-        <v>67992.3173</v>
+        <v>1000</v>
       </c>
       <c r="G156" t="n">
-        <v>-1490937.25966266</v>
+        <v>-1796956.48886266</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5852,28 +6385,29 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>21.61</v>
+        <v>21.39</v>
       </c>
       <c r="C157" t="n">
-        <v>21.61</v>
+        <v>21.35</v>
       </c>
       <c r="D157" t="n">
-        <v>21.61</v>
+        <v>21.39</v>
       </c>
       <c r="E157" t="n">
-        <v>21.61</v>
+        <v>21.35</v>
       </c>
       <c r="F157" t="n">
-        <v>5089.7232</v>
+        <v>11400</v>
       </c>
       <c r="G157" t="n">
-        <v>-1485847.53646266</v>
+        <v>-1808356.48886266</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5887,28 +6421,29 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>21.6</v>
+        <v>21.35</v>
       </c>
       <c r="C158" t="n">
-        <v>21.7</v>
+        <v>21.32</v>
       </c>
       <c r="D158" t="n">
-        <v>21.7</v>
+        <v>21.35</v>
       </c>
       <c r="E158" t="n">
-        <v>21.6</v>
+        <v>21.32</v>
       </c>
       <c r="F158" t="n">
-        <v>25479.6038</v>
+        <v>7700</v>
       </c>
       <c r="G158" t="n">
-        <v>-1460367.93266266</v>
+        <v>-1816056.48886266</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5922,1620 +6457,179 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>21.7</v>
+        <v>21.32</v>
       </c>
       <c r="C159" t="n">
-        <v>21.35</v>
+        <v>21.32</v>
       </c>
       <c r="D159" t="n">
-        <v>21.74</v>
+        <v>21.32</v>
       </c>
       <c r="E159" t="n">
-        <v>21.35</v>
+        <v>21.32</v>
       </c>
       <c r="F159" t="n">
-        <v>30958.3935</v>
+        <v>27734.1712</v>
       </c>
       <c r="G159" t="n">
-        <v>-1491326.32616266</v>
+        <v>-1816056.48886266</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="K159" t="n">
+        <v>21.32</v>
+      </c>
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>21.6</v>
+        <v>21.3</v>
       </c>
       <c r="C160" t="n">
-        <v>21.6</v>
+        <v>21.2</v>
       </c>
       <c r="D160" t="n">
-        <v>21.6</v>
+        <v>21.3</v>
       </c>
       <c r="E160" t="n">
-        <v>21.6</v>
+        <v>21.2</v>
       </c>
       <c r="F160" t="n">
-        <v>3095.7045</v>
+        <v>75259.7708</v>
       </c>
       <c r="G160" t="n">
-        <v>-1488230.62166266</v>
+        <v>-1891316.25966266</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="K160" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>21.57</v>
+        <v>21.2</v>
       </c>
       <c r="C161" t="n">
-        <v>21.74</v>
+        <v>21.1</v>
       </c>
       <c r="D161" t="n">
-        <v>21.74</v>
+        <v>21.2</v>
       </c>
       <c r="E161" t="n">
-        <v>21.57</v>
+        <v>21.1</v>
       </c>
       <c r="F161" t="n">
-        <v>89341.55160000001</v>
+        <v>153578.7569</v>
       </c>
       <c r="G161" t="n">
-        <v>-1398889.07006266</v>
+        <v>-2044895.01656266</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="K161" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>21.5</v>
+        <v>21.32</v>
       </c>
       <c r="C162" t="n">
-        <v>21.5</v>
+        <v>21.32</v>
       </c>
       <c r="D162" t="n">
-        <v>21.5</v>
+        <v>21.32</v>
       </c>
       <c r="E162" t="n">
-        <v>21.5</v>
+        <v>21.32</v>
       </c>
       <c r="F162" t="n">
-        <v>1583.3333</v>
+        <v>1006.4323</v>
       </c>
       <c r="G162" t="n">
-        <v>-1400472.40336266</v>
+        <v>-2043888.58426266</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="K162" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>21.74</v>
-      </c>
-      <c r="C163" t="n">
-        <v>21.74</v>
-      </c>
-      <c r="D163" t="n">
-        <v>21.74</v>
-      </c>
-      <c r="E163" t="n">
-        <v>21.74</v>
-      </c>
-      <c r="F163" t="n">
-        <v>1100</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-1399372.40336266</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="C164" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="D164" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="E164" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F164" t="n">
-        <v>1762.7731</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-1397609.63026266</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="C165" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="D165" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="E165" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="F165" t="n">
-        <v>500</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-1397609.63026266</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="C166" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="D166" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="E166" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="F166" t="n">
-        <v>500</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-1397109.63026266</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="C167" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="D167" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="E167" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="F167" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-1397109.63026266</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>21.89</v>
-      </c>
-      <c r="C168" t="n">
-        <v>21.89</v>
-      </c>
-      <c r="D168" t="n">
-        <v>21.89</v>
-      </c>
-      <c r="E168" t="n">
-        <v>21.89</v>
-      </c>
-      <c r="F168" t="n">
-        <v>4200</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-1401309.63026266</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C169" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="D169" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="E169" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="F169" t="n">
-        <v>46411.2025</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-1447720.83276266</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C170" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="D170" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="E170" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="F170" t="n">
-        <v>2298.387</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-1447720.83276266</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="C171" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="D171" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="E171" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="F171" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-1452720.83276266</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="C172" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D172" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="E172" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F172" t="n">
-        <v>43726.9807</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-1496447.81346266</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C173" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="D173" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="E173" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="F173" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-1494447.81346266</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C174" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="D174" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="E174" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="F174" t="n">
-        <v>2380.56</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-1492067.25346266</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="C175" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="D175" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="E175" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="F175" t="n">
-        <v>1534.5525</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-1492067.25346266</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="C176" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="D176" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="E176" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="F176" t="n">
-        <v>1563.8722</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-1492067.25346266</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C177" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="D177" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="E177" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="F177" t="n">
-        <v>26415.1144</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-1518482.36786266</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="C178" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="D178" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="E178" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="F178" t="n">
-        <v>13200</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-1505282.36786266</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>21.87</v>
-      </c>
-      <c r="C179" t="n">
-        <v>21.89</v>
-      </c>
-      <c r="D179" t="n">
-        <v>21.89</v>
-      </c>
-      <c r="E179" t="n">
-        <v>21.87</v>
-      </c>
-      <c r="F179" t="n">
-        <v>31091.4303</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-1536373.79816266</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C180" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="D180" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="E180" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="F180" t="n">
-        <v>870.3882</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-1537244.18636266</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C181" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="D181" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="E181" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="F181" t="n">
-        <v>365.2386</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-1537244.18636266</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="C182" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="D182" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="E182" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="F182" t="n">
-        <v>25</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-1537219.18636266</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>21.88</v>
-      </c>
-      <c r="C183" t="n">
-        <v>21.88</v>
-      </c>
-      <c r="D183" t="n">
-        <v>21.88</v>
-      </c>
-      <c r="E183" t="n">
-        <v>21.88</v>
-      </c>
-      <c r="F183" t="n">
-        <v>382.1839</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-1537601.37026266</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>21.88</v>
-      </c>
-      <c r="C184" t="n">
-        <v>21.88</v>
-      </c>
-      <c r="D184" t="n">
-        <v>21.88</v>
-      </c>
-      <c r="E184" t="n">
-        <v>21.88</v>
-      </c>
-      <c r="F184" t="n">
-        <v>2279.4789</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-1537601.37026266</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>1</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C185" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="D185" t="n">
-        <v>21.84</v>
-      </c>
-      <c r="E185" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="F185" t="n">
-        <v>14159.005</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-1551760.37526266</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="C186" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="D186" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="E186" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="F186" t="n">
-        <v>7280.8336</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-1551760.37526266</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>21.51</v>
-      </c>
-      <c r="C187" t="n">
-        <v>21.52</v>
-      </c>
-      <c r="D187" t="n">
-        <v>21.52</v>
-      </c>
-      <c r="E187" t="n">
-        <v>21.51</v>
-      </c>
-      <c r="F187" t="n">
-        <v>9852.9748</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-1561613.35006266</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>21.56</v>
-      </c>
-      <c r="C188" t="n">
-        <v>21.56</v>
-      </c>
-      <c r="D188" t="n">
-        <v>21.56</v>
-      </c>
-      <c r="E188" t="n">
-        <v>21.56</v>
-      </c>
-      <c r="F188" t="n">
-        <v>1415.9751</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-1560197.37496266</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>21.56</v>
-      </c>
-      <c r="C189" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D189" t="n">
-        <v>21.56</v>
-      </c>
-      <c r="E189" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F189" t="n">
-        <v>236759.1139</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-1796956.48886266</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C190" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D190" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E190" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F190" t="n">
-        <v>6040.3515</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-1796956.48886266</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C191" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D191" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E191" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F191" t="n">
-        <v>776.5886</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-1796956.48886266</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C192" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D192" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E192" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F192" t="n">
-        <v>1312.5589</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-1796956.48886266</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C193" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D193" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E193" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F193" t="n">
-        <v>10685.8684</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-1796956.48886266</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C194" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D194" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E194" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F194" t="n">
-        <v>13000</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-1796956.48886266</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C195" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D195" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E195" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F195" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-1796956.48886266</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C196" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D196" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E196" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F196" t="n">
-        <v>504.9848</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-1796956.48886266</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C197" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D197" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E197" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F197" t="n">
-        <v>200</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-1796956.48886266</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C198" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D198" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E198" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F198" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-1796956.48886266</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>21.39</v>
-      </c>
-      <c r="C199" t="n">
-        <v>21.35</v>
-      </c>
-      <c r="D199" t="n">
-        <v>21.39</v>
-      </c>
-      <c r="E199" t="n">
-        <v>21.35</v>
-      </c>
-      <c r="F199" t="n">
-        <v>11400</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-1808356.48886266</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>21.35</v>
-      </c>
-      <c r="C200" t="n">
-        <v>21.32</v>
-      </c>
-      <c r="D200" t="n">
-        <v>21.35</v>
-      </c>
-      <c r="E200" t="n">
-        <v>21.32</v>
-      </c>
-      <c r="F200" t="n">
-        <v>7700</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-1816056.48886266</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>21.32</v>
-      </c>
-      <c r="C201" t="n">
-        <v>21.32</v>
-      </c>
-      <c r="D201" t="n">
-        <v>21.32</v>
-      </c>
-      <c r="E201" t="n">
-        <v>21.32</v>
-      </c>
-      <c r="F201" t="n">
-        <v>27734.1712</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-1816056.48886266</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="C202" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="D202" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E202" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F202" t="n">
-        <v>75259.7708</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-1891316.25966266</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="C203" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="D203" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="E203" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="F203" t="n">
-        <v>153578.7569</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-2044895.01656266</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>21.32</v>
-      </c>
-      <c r="C204" t="n">
-        <v>21.32</v>
-      </c>
-      <c r="D204" t="n">
-        <v>21.32</v>
-      </c>
-      <c r="E204" t="n">
-        <v>21.32</v>
-      </c>
-      <c r="F204" t="n">
-        <v>1006.4323</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-2043888.58426266</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="K204" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
+      <c r="N162" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-15 BackTest WAXP.xlsx
+++ b/BackTest/2020-01-15 BackTest WAXP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N233"/>
+  <dimension ref="A1:M233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,19 @@
         <v>-132729.57555999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>20.95</v>
+      </c>
+      <c r="J5" t="n">
+        <v>20.95</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +587,23 @@
         <v>-123017.59495999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="J6" t="n">
+        <v>20.95</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +630,19 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>20.95</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +669,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +702,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +735,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +768,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +801,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +834,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +867,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +900,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +933,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +964,15 @@
         <v>-132715.67385999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +999,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1032,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1065,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1098,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1131,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1164,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1197,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1230,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1263,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1296,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1329,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1362,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1395,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1428,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1461,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1494,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,22 +1525,19 @@
         <v>-715732.3382903599</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>20.71</v>
       </c>
       <c r="J34" t="n">
         <v>20.71</v>
       </c>
-      <c r="K34" t="n">
-        <v>20.71</v>
-      </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1648,26 +1562,23 @@
         <v>-714211.2897903599</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>20.94</v>
       </c>
       <c r="J35" t="n">
-        <v>20.94</v>
-      </c>
-      <c r="K35" t="n">
         <v>20.71</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1692,26 +1603,21 @@
         <v>-714211.2897903599</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>20.95</v>
-      </c>
-      <c r="K36" t="n">
         <v>20.71</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1736,22 +1642,19 @@
         <v>-711727.6838903599</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>20.95</v>
       </c>
       <c r="J37" t="n">
         <v>20.95</v>
       </c>
-      <c r="K37" t="n">
-        <v>20.95</v>
-      </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1776,26 +1679,23 @@
         <v>-711779.6838903599</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>20.96</v>
       </c>
       <c r="J38" t="n">
-        <v>20.96</v>
-      </c>
-      <c r="K38" t="n">
         <v>20.95</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1820,26 +1720,23 @@
         <v>-710788.23589036</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>20.95</v>
       </c>
       <c r="J39" t="n">
         <v>20.95</v>
       </c>
-      <c r="K39" t="n">
-        <v>20.95</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1864,22 +1761,15 @@
         <v>-710788.23589036</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K40" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1904,26 +1794,19 @@
         <v>-705688.23589036</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>21.13</v>
       </c>
       <c r="J41" t="n">
         <v>21.13</v>
       </c>
-      <c r="K41" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1950,22 +1833,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
         <v>21.13</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1992,22 +1872,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
         <v>21.13</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2034,22 +1911,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
         <v>21.13</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2074,26 +1948,21 @@
         <v>-764390.1100903599</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>20.96</v>
-      </c>
-      <c r="K45" t="n">
         <v>21.13</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2120,22 +1989,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
         <v>21.13</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2162,22 +2028,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
         <v>21.13</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2204,22 +2067,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
         <v>21.13</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2246,22 +2106,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
         <v>21.13</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2288,22 +2145,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
         <v>21.13</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2330,22 +2184,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
         <v>21.13</v>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2372,22 +2223,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
         <v>21.13</v>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2412,24 +2260,23 @@
         <v>-817595.0006903599</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="J53" t="n">
         <v>21.13</v>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2456,22 +2303,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
         <v>21.13</v>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2496,24 +2340,23 @@
         <v>-748066.6954928999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="J55" t="n">
         <v>21.13</v>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2538,24 +2381,23 @@
         <v>-767946.5864928998</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="J56" t="n">
         <v>21.13</v>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2580,24 +2422,23 @@
         <v>-824237.1160928998</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
         <v>21.13</v>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="J57" t="n">
+        <v>21.13</v>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2624,22 +2465,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
         <v>21.13</v>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2666,22 +2504,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
         <v>21.13</v>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2708,22 +2543,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
         <v>21.13</v>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2750,22 +2582,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
         <v>21.13</v>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2790,26 +2619,21 @@
         <v>-926853.9556928999</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>21.15</v>
-      </c>
-      <c r="K62" t="n">
         <v>21.13</v>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2836,22 +2660,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
         <v>21.13</v>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2878,22 +2699,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
         <v>21.13</v>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2920,22 +2738,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
         <v>21.13</v>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2962,22 +2777,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
         <v>21.13</v>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3004,22 +2816,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
         <v>21.13</v>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3046,22 +2855,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
         <v>21.13</v>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3088,22 +2894,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
         <v>21.13</v>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3130,22 +2933,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
         <v>21.13</v>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3172,22 +2972,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
         <v>21.13</v>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3214,22 +3011,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
         <v>21.13</v>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3256,22 +3050,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
         <v>21.13</v>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3298,22 +3089,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
         <v>21.13</v>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3340,22 +3128,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
         <v>21.13</v>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3382,22 +3167,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
         <v>21.13</v>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3424,22 +3206,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
         <v>21.13</v>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3466,22 +3245,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
         <v>21.13</v>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3508,22 +3284,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
         <v>21.13</v>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3550,22 +3323,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
         <v>21.13</v>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3592,22 +3362,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
         <v>21.13</v>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3634,22 +3401,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
         <v>21.13</v>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3676,22 +3440,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
         <v>21.13</v>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3718,22 +3479,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
         <v>21.13</v>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3760,22 +3518,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
         <v>21.13</v>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3802,22 +3557,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
         <v>21.13</v>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3844,22 +3596,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
         <v>21.13</v>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3886,22 +3635,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
         <v>21.13</v>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3928,22 +3674,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
         <v>21.13</v>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3970,22 +3713,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
         <v>21.13</v>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4012,22 +3752,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
         <v>21.13</v>
       </c>
-      <c r="L91" t="inlineStr">
+      <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4054,22 +3791,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
         <v>21.13</v>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4096,22 +3830,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
         <v>21.13</v>
       </c>
-      <c r="L93" t="inlineStr">
+      <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4138,22 +3869,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
         <v>21.13</v>
       </c>
-      <c r="L94" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4180,22 +3908,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
         <v>21.13</v>
       </c>
-      <c r="L95" t="inlineStr">
+      <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4222,22 +3947,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
         <v>21.13</v>
       </c>
-      <c r="L96" t="inlineStr">
+      <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4264,22 +3986,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
         <v>21.13</v>
       </c>
-      <c r="L97" t="inlineStr">
+      <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4306,22 +4025,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
         <v>21.13</v>
       </c>
-      <c r="L98" t="inlineStr">
+      <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4346,24 +4062,21 @@
         <v>-617099.3054209197</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
         <v>21.13</v>
       </c>
-      <c r="L99" t="inlineStr">
+      <c r="K99" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1.017716516800757</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4390,22 +4103,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4432,22 +4136,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4474,22 +4169,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4516,22 +4202,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4558,22 +4235,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1.031441079034548</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4598,18 +4266,15 @@
         <v>-627978.5300209196</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4634,18 +4299,15 @@
         <v>-646278.5300209196</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4672,16 +4334,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4708,16 +4367,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4744,16 +4400,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4778,18 +4431,15 @@
         <v>-654713.3548209197</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4814,18 +4464,15 @@
         <v>-654348.1796209196</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4850,18 +4497,15 @@
         <v>-654348.1796209196</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4886,18 +4530,15 @@
         <v>-654348.1796209196</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4922,18 +4563,15 @@
         <v>-787401.5183209196</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4958,18 +4596,15 @@
         <v>-783005.0228209196</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4994,18 +4629,15 @@
         <v>-783005.0228209196</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5030,18 +4662,15 @@
         <v>-783005.0228209196</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5068,16 +4697,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5102,18 +4728,15 @@
         <v>-783005.0228209196</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5138,18 +4761,15 @@
         <v>-783005.0228209196</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5174,18 +4794,15 @@
         <v>-784790.6855209196</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5212,16 +4829,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5246,18 +4860,15 @@
         <v>-769441.6327209197</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5282,18 +4893,15 @@
         <v>-769395.4721209197</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5318,18 +4926,15 @@
         <v>-646728.8888626597</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5356,16 +4961,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5390,18 +4992,15 @@
         <v>-648393.6134626596</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5426,18 +5025,15 @@
         <v>-646156.5665626597</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5462,18 +5058,15 @@
         <v>-768823.1497626597</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5500,16 +5093,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5536,16 +5126,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5572,16 +5159,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5608,16 +5192,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5644,16 +5225,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5680,16 +5258,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5716,16 +5291,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5752,16 +5324,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5788,16 +5357,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5824,16 +5390,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5860,16 +5423,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5896,16 +5456,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5932,16 +5489,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5968,16 +5522,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6004,16 +5555,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6040,16 +5588,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6076,16 +5621,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6110,18 +5652,15 @@
         <v>-821018.7179626598</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6148,16 +5687,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6184,16 +5720,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6218,18 +5751,15 @@
         <v>-823651.8131626598</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6254,18 +5784,15 @@
         <v>-1095361.57016266</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6292,16 +5819,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6328,16 +5852,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6364,16 +5885,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6400,16 +5918,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6436,16 +5951,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6472,16 +5984,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6508,16 +6017,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6544,16 +6050,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6580,16 +6083,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6616,16 +6116,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6652,16 +6149,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6688,16 +6182,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6724,16 +6215,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6760,16 +6248,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6796,16 +6281,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6832,16 +6314,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6866,18 +6345,15 @@
         <v>-1249894.03446266</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6904,16 +6380,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6938,18 +6411,15 @@
         <v>-1367153.20466266</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6976,16 +6446,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7012,16 +6479,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7048,16 +6512,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7084,16 +6545,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7120,16 +6578,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7156,16 +6611,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7192,16 +6644,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7228,16 +6677,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7264,16 +6710,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7298,18 +6741,15 @@
         <v>-1430040.31876266</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7336,16 +6776,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7372,16 +6809,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7408,16 +6842,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7444,16 +6875,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7480,16 +6908,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7516,16 +6941,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7552,16 +6974,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7588,16 +7007,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7624,16 +7040,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7660,16 +7073,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7696,16 +7106,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7732,16 +7139,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7768,16 +7172,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7804,16 +7205,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7840,16 +7238,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7876,16 +7271,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7912,16 +7304,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7948,16 +7337,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7982,18 +7368,15 @@
         <v>-1447720.83276266</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8018,18 +7401,15 @@
         <v>-1452720.83276266</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8056,16 +7436,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8092,16 +7469,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8128,16 +7502,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8164,16 +7535,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8200,16 +7568,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8236,16 +7601,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8272,16 +7634,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8308,16 +7667,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8342,18 +7698,15 @@
         <v>-1537244.18636266</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8378,18 +7731,15 @@
         <v>-1537244.18636266</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8414,18 +7764,15 @@
         <v>-1537219.18636266</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8450,18 +7797,15 @@
         <v>-1537601.37026266</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8486,18 +7830,15 @@
         <v>-1537601.37026266</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8524,16 +7865,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8560,16 +7898,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8596,16 +7931,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8632,16 +7964,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8668,16 +7997,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8704,16 +8030,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8740,16 +8063,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8776,16 +8096,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8812,16 +8129,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8848,16 +8162,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8884,16 +8195,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8920,16 +8228,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8956,16 +8261,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8992,16 +8294,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9028,16 +8327,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9064,16 +8360,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9100,16 +8393,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9134,24 +8424,15 @@
         <v>-1891316.25966266</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="n">
-        <v>21.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9176,24 +8457,15 @@
         <v>-2044895.01656266</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="n">
-        <v>21.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9218,26 +8490,17 @@
         <v>-2043888.58426266</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="n">
-        <v>21.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest WAXP.xlsx
+++ b/BackTest/2020-01-15 BackTest WAXP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,14 +550,10 @@
         <v>-132729.57555999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>20.95</v>
-      </c>
-      <c r="J5" t="n">
-        <v>20.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
@@ -587,19 +583,11 @@
         <v>-123017.59495999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>21</v>
-      </c>
-      <c r="J6" t="n">
-        <v>20.95</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -631,14 +619,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>20.95</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -898,7 +880,7 @@
         <v>-132715.67385999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -964,7 +946,7 @@
         <v>-132715.67385999</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1525,14 +1507,10 @@
         <v>-715732.3382903599</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>20.71</v>
-      </c>
-      <c r="J34" t="n">
-        <v>20.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
@@ -1562,19 +1540,11 @@
         <v>-714211.2897903599</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>20.94</v>
-      </c>
-      <c r="J35" t="n">
-        <v>20.71</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1606,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>20.71</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1642,14 +1606,10 @@
         <v>-711727.6838903599</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>20.95</v>
-      </c>
-      <c r="J37" t="n">
-        <v>20.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
@@ -1679,19 +1639,11 @@
         <v>-711779.6838903599</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>20.96</v>
-      </c>
-      <c r="J38" t="n">
-        <v>20.95</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1720,19 +1672,11 @@
         <v>-710788.23589036</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>20.95</v>
-      </c>
-      <c r="J39" t="n">
-        <v>20.95</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1794,14 +1738,10 @@
         <v>-705688.23589036</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="J41" t="n">
-        <v>21.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
@@ -1834,1426 +1774,1202 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>20.97</v>
+      </c>
+      <c r="C43" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="D43" t="n">
+        <v>20.97</v>
+      </c>
+      <c r="E43" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="F43" t="n">
+        <v>17804.4402</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-719686.4086903599</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="C44" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="D44" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="E44" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="F44" t="n">
+        <v>49368.4616</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-719686.4086903599</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="C45" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D45" t="n">
+        <v>20.97</v>
+      </c>
+      <c r="E45" t="n">
+        <v>20.87</v>
+      </c>
+      <c r="F45" t="n">
+        <v>44703.7014</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-764390.1100903599</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>20.87</v>
+      </c>
+      <c r="C46" t="n">
+        <v>20.87</v>
+      </c>
+      <c r="D46" t="n">
+        <v>20.87</v>
+      </c>
+      <c r="E46" t="n">
+        <v>20.87</v>
+      </c>
+      <c r="F46" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-794390.1100903599</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="C47" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D47" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E47" t="n">
+        <v>20.73</v>
+      </c>
+      <c r="F47" t="n">
+        <v>156088.53939746</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-638301.5706928999</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C48" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D48" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E48" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F48" t="n">
+        <v>198</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-638499.5706928999</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C49" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="D49" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E49" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="F49" t="n">
+        <v>23741.3531</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-662240.9237928998</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>20.72</v>
+      </c>
+      <c r="C50" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="D50" t="n">
+        <v>20.89</v>
+      </c>
+      <c r="E50" t="n">
+        <v>20.61</v>
+      </c>
+      <c r="F50" t="n">
+        <v>265521.8439</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-927762.7676928998</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="C51" t="n">
+        <v>20.83</v>
+      </c>
+      <c r="D51" t="n">
+        <v>20.83</v>
+      </c>
+      <c r="E51" t="n">
+        <v>20.61</v>
+      </c>
+      <c r="F51" t="n">
+        <v>13682.9334</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-914079.8342928998</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C52" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D52" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E52" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F52" t="n">
+        <v>955.3519</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-913124.4823928998</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C53" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D53" t="n">
+        <v>21.37</v>
+      </c>
+      <c r="E53" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F53" t="n">
+        <v>95529.48170254</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-817595.0006903599</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C54" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D54" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E54" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="F54" t="n">
+        <v>71763.61119746001</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-745831.3894928999</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="C55" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="D55" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="E55" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2235.306</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-748066.6954928999</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="C56" t="n">
         <v>21.13</v>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="D56" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="E56" t="n">
+        <v>21.13</v>
+      </c>
+      <c r="F56" t="n">
+        <v>19879.891</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-767946.5864928998</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="C57" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="D57" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="E57" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="F57" t="n">
+        <v>56290.5296</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-824237.1160928998</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>21.12</v>
+      </c>
+      <c r="C58" t="n">
+        <v>21.13</v>
+      </c>
+      <c r="D58" t="n">
+        <v>21.13</v>
+      </c>
+      <c r="E58" t="n">
+        <v>21.12</v>
+      </c>
+      <c r="F58" t="n">
+        <v>61348.8117</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-762888.3043928999</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="C59" t="n">
+        <v>21.16</v>
+      </c>
+      <c r="D59" t="n">
+        <v>21.16</v>
+      </c>
+      <c r="E59" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="F59" t="n">
+        <v>22292.7101</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-740595.5942928998</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>21.19</v>
+      </c>
+      <c r="C60" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="D60" t="n">
+        <v>21.19</v>
+      </c>
+      <c r="E60" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="F60" t="n">
+        <v>187258.3614</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-927853.9556928999</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="C61" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="D61" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="E61" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="F61" t="n">
+        <v>4063.9426</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-927853.9556928999</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>21.37</v>
+      </c>
+      <c r="C62" t="n">
+        <v>21.37</v>
+      </c>
+      <c r="D62" t="n">
+        <v>21.37</v>
+      </c>
+      <c r="E62" t="n">
+        <v>21.37</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-926853.9556928999</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="C63" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D63" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="E63" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F63" t="n">
+        <v>11551.1406</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-938405.0962928999</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="C64" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="D64" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="E64" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="F64" t="n">
+        <v>163</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-938242.0962928999</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="C65" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D65" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="E65" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F65" t="n">
+        <v>6790.7715</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-945032.8677929</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="C66" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="D66" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="E66" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="F66" t="n">
+        <v>8279.234200000001</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-953312.1019928999</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="C67" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="D67" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="E67" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="F67" t="n">
+        <v>13589.1472</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-953312.1019928999</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="C68" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="D68" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="E68" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="F68" t="n">
+        <v>58</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-953254.1019928999</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="C69" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="D69" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="E69" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="F69" t="n">
+        <v>4687.4511</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-957941.5530928998</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="C70" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="D70" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="E70" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="F70" t="n">
+        <v>45127.9702</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-1003069.5232929</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="C71" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="D71" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="E71" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="F71" t="n">
+        <v>58</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-1003011.5232929</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="C72" t="n">
+        <v>21.13</v>
+      </c>
+      <c r="D72" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="E72" t="n">
+        <v>21.13</v>
+      </c>
+      <c r="F72" t="n">
+        <v>61780.8305</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-1064792.3537929</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>21.13</v>
+      </c>
+      <c r="C73" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="D73" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="E73" t="n">
+        <v>21.13</v>
+      </c>
+      <c r="F73" t="n">
+        <v>576</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-1064216.3537929</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="C74" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D74" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E74" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="F74" t="n">
+        <v>23368.57194299</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-1040847.78184991</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C75" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D75" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E75" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F75" t="n">
+        <v>37627.29611401</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-1078475.07796392</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="C76" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="D76" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="E76" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="F76" t="n">
+        <v>21180.6067</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-1099655.68466392</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>21.13</v>
+      </c>
+      <c r="C77" t="n">
+        <v>21.12</v>
+      </c>
+      <c r="D77" t="n">
+        <v>21.13</v>
+      </c>
+      <c r="E77" t="n">
+        <v>21.12</v>
+      </c>
+      <c r="F77" t="n">
+        <v>10880.8424</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-1110536.52706392</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>21.12</v>
+      </c>
+      <c r="C78" t="n">
+        <v>21.12</v>
+      </c>
+      <c r="D78" t="n">
+        <v>21.12</v>
+      </c>
+      <c r="E78" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="F78" t="n">
+        <v>16798.8443</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-1110536.52706392</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>21.12</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>20.97</v>
-      </c>
-      <c r="C43" t="n">
-        <v>20.96</v>
-      </c>
-      <c r="D43" t="n">
-        <v>20.97</v>
-      </c>
-      <c r="E43" t="n">
-        <v>20.96</v>
-      </c>
-      <c r="F43" t="n">
-        <v>17804.4402</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-719686.4086903599</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>20.96</v>
-      </c>
-      <c r="C44" t="n">
-        <v>20.96</v>
-      </c>
-      <c r="D44" t="n">
-        <v>20.96</v>
-      </c>
-      <c r="E44" t="n">
-        <v>20.96</v>
-      </c>
-      <c r="F44" t="n">
-        <v>49368.4616</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-719686.4086903599</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>20.96</v>
-      </c>
-      <c r="C45" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="D45" t="n">
-        <v>20.97</v>
-      </c>
-      <c r="E45" t="n">
-        <v>20.87</v>
-      </c>
-      <c r="F45" t="n">
-        <v>44703.7014</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-764390.1100903599</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>20.87</v>
-      </c>
-      <c r="C46" t="n">
-        <v>20.87</v>
-      </c>
-      <c r="D46" t="n">
-        <v>20.87</v>
-      </c>
-      <c r="E46" t="n">
-        <v>20.87</v>
-      </c>
-      <c r="F46" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-794390.1100903599</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>20.86</v>
-      </c>
-      <c r="C47" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="D47" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E47" t="n">
-        <v>20.73</v>
-      </c>
-      <c r="F47" t="n">
-        <v>156088.53939746</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-638301.5706928999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="C48" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="D48" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="E48" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="F48" t="n">
-        <v>198</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-638499.5706928999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="C49" t="n">
-        <v>20.75</v>
-      </c>
-      <c r="D49" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="E49" t="n">
-        <v>20.75</v>
-      </c>
-      <c r="F49" t="n">
-        <v>23741.3531</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-662240.9237928998</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>20.72</v>
-      </c>
-      <c r="C50" t="n">
-        <v>20.62</v>
-      </c>
-      <c r="D50" t="n">
-        <v>20.89</v>
-      </c>
-      <c r="E50" t="n">
-        <v>20.61</v>
-      </c>
-      <c r="F50" t="n">
-        <v>265521.8439</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-927762.7676928998</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>20.62</v>
-      </c>
-      <c r="C51" t="n">
-        <v>20.83</v>
-      </c>
-      <c r="D51" t="n">
-        <v>20.83</v>
-      </c>
-      <c r="E51" t="n">
-        <v>20.61</v>
-      </c>
-      <c r="F51" t="n">
-        <v>13682.9334</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-914079.8342928998</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="C52" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="D52" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="E52" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="F52" t="n">
-        <v>955.3519</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-913124.4823928998</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="C53" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="D53" t="n">
-        <v>21.37</v>
-      </c>
-      <c r="E53" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="F53" t="n">
-        <v>95529.48170254</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-817595.0006903599</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="J53" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="C54" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D54" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E54" t="n">
-        <v>21.17</v>
-      </c>
-      <c r="F54" t="n">
-        <v>71763.61119746001</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-745831.3894928999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>21.17</v>
-      </c>
-      <c r="C55" t="n">
-        <v>21.17</v>
-      </c>
-      <c r="D55" t="n">
-        <v>21.17</v>
-      </c>
-      <c r="E55" t="n">
-        <v>21.17</v>
-      </c>
-      <c r="F55" t="n">
-        <v>2235.306</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-748066.6954928999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="J55" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>21.17</v>
-      </c>
-      <c r="C56" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="D56" t="n">
-        <v>21.17</v>
-      </c>
-      <c r="E56" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="F56" t="n">
-        <v>19879.891</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-767946.5864928998</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>21.17</v>
-      </c>
-      <c r="J56" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>21.11</v>
-      </c>
-      <c r="C57" t="n">
-        <v>21.11</v>
-      </c>
-      <c r="D57" t="n">
-        <v>21.11</v>
-      </c>
-      <c r="E57" t="n">
-        <v>21.11</v>
-      </c>
-      <c r="F57" t="n">
-        <v>56290.5296</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-824237.1160928998</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="J57" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>21.12</v>
-      </c>
-      <c r="C58" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="D58" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="E58" t="n">
-        <v>21.12</v>
-      </c>
-      <c r="F58" t="n">
-        <v>61348.8117</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-762888.3043928999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>21.14</v>
-      </c>
-      <c r="C59" t="n">
-        <v>21.16</v>
-      </c>
-      <c r="D59" t="n">
-        <v>21.16</v>
-      </c>
-      <c r="E59" t="n">
-        <v>21.14</v>
-      </c>
-      <c r="F59" t="n">
-        <v>22292.7101</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-740595.5942928998</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>21.19</v>
-      </c>
-      <c r="C60" t="n">
-        <v>21.15</v>
-      </c>
-      <c r="D60" t="n">
-        <v>21.19</v>
-      </c>
-      <c r="E60" t="n">
-        <v>21.15</v>
-      </c>
-      <c r="F60" t="n">
-        <v>187258.3614</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-927853.9556928999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>21.15</v>
-      </c>
-      <c r="C61" t="n">
-        <v>21.15</v>
-      </c>
-      <c r="D61" t="n">
-        <v>21.15</v>
-      </c>
-      <c r="E61" t="n">
-        <v>21.15</v>
-      </c>
-      <c r="F61" t="n">
-        <v>4063.9426</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-927853.9556928999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>21.37</v>
-      </c>
-      <c r="C62" t="n">
-        <v>21.37</v>
-      </c>
-      <c r="D62" t="n">
-        <v>21.37</v>
-      </c>
-      <c r="E62" t="n">
-        <v>21.37</v>
-      </c>
-      <c r="F62" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-926853.9556928999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="C63" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="D63" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="E63" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F63" t="n">
-        <v>11551.1406</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-938405.0962928999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="C64" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="D64" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="E64" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="F64" t="n">
-        <v>163</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-938242.0962928999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="C65" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="D65" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="E65" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F65" t="n">
-        <v>6790.7715</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-945032.8677929</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>21.15</v>
-      </c>
-      <c r="C66" t="n">
-        <v>21.15</v>
-      </c>
-      <c r="D66" t="n">
-        <v>21.15</v>
-      </c>
-      <c r="E66" t="n">
-        <v>21.15</v>
-      </c>
-      <c r="F66" t="n">
-        <v>8279.234200000001</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-953312.1019928999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>21.15</v>
-      </c>
-      <c r="C67" t="n">
-        <v>21.15</v>
-      </c>
-      <c r="D67" t="n">
-        <v>21.15</v>
-      </c>
-      <c r="E67" t="n">
-        <v>21.15</v>
-      </c>
-      <c r="F67" t="n">
-        <v>13589.1472</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-953312.1019928999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>21.29</v>
-      </c>
-      <c r="C68" t="n">
-        <v>21.29</v>
-      </c>
-      <c r="D68" t="n">
-        <v>21.29</v>
-      </c>
-      <c r="E68" t="n">
-        <v>21.29</v>
-      </c>
-      <c r="F68" t="n">
-        <v>58</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-953254.1019928999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>21.15</v>
-      </c>
-      <c r="C69" t="n">
-        <v>21.15</v>
-      </c>
-      <c r="D69" t="n">
-        <v>21.15</v>
-      </c>
-      <c r="E69" t="n">
-        <v>21.15</v>
-      </c>
-      <c r="F69" t="n">
-        <v>4687.4511</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-957941.5530928998</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>21.15</v>
-      </c>
-      <c r="C70" t="n">
-        <v>21.14</v>
-      </c>
-      <c r="D70" t="n">
-        <v>21.15</v>
-      </c>
-      <c r="E70" t="n">
-        <v>21.14</v>
-      </c>
-      <c r="F70" t="n">
-        <v>45127.9702</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-1003069.5232929</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>21.29</v>
-      </c>
-      <c r="C71" t="n">
-        <v>21.29</v>
-      </c>
-      <c r="D71" t="n">
-        <v>21.29</v>
-      </c>
-      <c r="E71" t="n">
-        <v>21.29</v>
-      </c>
-      <c r="F71" t="n">
-        <v>58</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-1003011.5232929</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>21.14</v>
-      </c>
-      <c r="C72" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="D72" t="n">
-        <v>21.14</v>
-      </c>
-      <c r="E72" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="F72" t="n">
-        <v>61780.8305</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-1064792.3537929</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="C73" t="n">
-        <v>21.14</v>
-      </c>
-      <c r="D73" t="n">
-        <v>21.14</v>
-      </c>
-      <c r="E73" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="F73" t="n">
-        <v>576</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-1064216.3537929</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>21.29</v>
-      </c>
-      <c r="C74" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D74" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E74" t="n">
-        <v>21.29</v>
-      </c>
-      <c r="F74" t="n">
-        <v>23368.57194299</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-1040847.78184991</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="C75" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="D75" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E75" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F75" t="n">
-        <v>37627.29611401</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-1078475.07796392</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>21.14</v>
-      </c>
-      <c r="C76" t="n">
-        <v>21.14</v>
-      </c>
-      <c r="D76" t="n">
-        <v>21.14</v>
-      </c>
-      <c r="E76" t="n">
-        <v>21.14</v>
-      </c>
-      <c r="F76" t="n">
-        <v>21180.6067</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-1099655.68466392</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="C77" t="n">
-        <v>21.12</v>
-      </c>
-      <c r="D77" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="E77" t="n">
-        <v>21.12</v>
-      </c>
-      <c r="F77" t="n">
-        <v>10880.8424</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-1110536.52706392</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>21.12</v>
-      </c>
-      <c r="C78" t="n">
-        <v>21.12</v>
-      </c>
-      <c r="D78" t="n">
-        <v>21.12</v>
-      </c>
-      <c r="E78" t="n">
-        <v>21.11</v>
-      </c>
-      <c r="F78" t="n">
-        <v>16798.8443</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-1110536.52706392</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3282,12 +2998,12 @@
         <v>-1104544.93326392</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>21.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>21.12</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3321,12 +3037,12 @@
         <v>-1104544.93326392</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>21.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3360,12 +3076,12 @@
         <v>-1078384.33326392</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>21.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3399,12 +3115,12 @@
         <v>-1078384.33326392</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>21.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3438,12 +3154,12 @@
         <v>-1038948.79616392</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>21.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3477,12 +3193,12 @@
         <v>-906776.0994209198</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>21.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3516,12 +3232,12 @@
         <v>-882933.7362209198</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>21.13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3558,9 +3274,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>21.13</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3597,9 +3311,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>21.13</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3636,9 +3348,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>21.13</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3675,9 +3385,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>21.13</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3714,9 +3422,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>21.13</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3753,9 +3459,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>21.13</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3792,9 +3496,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>21.13</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3831,9 +3533,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>21.13</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3870,9 +3570,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>21.13</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3909,9 +3607,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>21.13</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3948,9 +3644,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>21.13</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3987,9 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>21.13</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4026,9 +3718,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>21.13</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4062,350 +3752,386 @@
         <v>-617099.3054209197</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>21.13</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="C100" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="D100" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="E100" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="F100" t="n">
+        <v>16347.0378</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-633446.3432209197</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>21.79</v>
+      </c>
+      <c r="C101" t="n">
+        <v>21.79</v>
+      </c>
+      <c r="D101" t="n">
+        <v>21.79</v>
+      </c>
+      <c r="E101" t="n">
+        <v>21.79</v>
+      </c>
+      <c r="F101" t="n">
+        <v>11216</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-622230.3432209197</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>21.79</v>
+      </c>
+      <c r="C102" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="D102" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="E102" t="n">
+        <v>21.79</v>
+      </c>
+      <c r="F102" t="n">
+        <v>6115.5718</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-616114.7714209197</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="C103" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="D103" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="E103" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="F103" t="n">
+        <v>44856</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-616114.7714209197</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="C104" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="D104" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="E104" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="F104" t="n">
+        <v>47186.9376</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-616114.7714209197</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>21.89</v>
+      </c>
+      <c r="C105" t="n">
+        <v>21.89</v>
+      </c>
+      <c r="D105" t="n">
+        <v>21.89</v>
+      </c>
+      <c r="E105" t="n">
+        <v>21.89</v>
+      </c>
+      <c r="F105" t="n">
+        <v>11863.7586</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-627978.5300209196</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="C106" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="D106" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="E106" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="F106" t="n">
+        <v>18300</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-646278.5300209196</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C107" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D107" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E107" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F107" t="n">
+        <v>4400</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-650678.5300209196</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="C108" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="D108" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="E108" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="F108" t="n">
+        <v>4400</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-655078.5300209196</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C109" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D109" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E109" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F109" t="n">
+        <v>4364.2357</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-650714.2943209197</v>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L99" t="n">
-        <v>1.017716516800757</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>21.61</v>
-      </c>
-      <c r="C100" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="D100" t="n">
-        <v>21.61</v>
-      </c>
-      <c r="E100" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="F100" t="n">
-        <v>16347.0378</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-633446.3432209197</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>21.79</v>
-      </c>
-      <c r="C101" t="n">
-        <v>21.79</v>
-      </c>
-      <c r="D101" t="n">
-        <v>21.79</v>
-      </c>
-      <c r="E101" t="n">
-        <v>21.79</v>
-      </c>
-      <c r="F101" t="n">
-        <v>11216</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-622230.3432209197</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>21.79</v>
-      </c>
-      <c r="C102" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="D102" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="E102" t="n">
-        <v>21.79</v>
-      </c>
-      <c r="F102" t="n">
-        <v>6115.5718</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-616114.7714209197</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="C103" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="D103" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="E103" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="F103" t="n">
-        <v>44856</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-616114.7714209197</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="C104" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="D104" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="E104" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="F104" t="n">
-        <v>47186.9376</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-616114.7714209197</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>21.89</v>
-      </c>
-      <c r="C105" t="n">
-        <v>21.89</v>
-      </c>
-      <c r="D105" t="n">
-        <v>21.89</v>
-      </c>
-      <c r="E105" t="n">
-        <v>21.89</v>
-      </c>
-      <c r="F105" t="n">
-        <v>11863.7586</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-627978.5300209196</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>21.61</v>
-      </c>
-      <c r="C106" t="n">
-        <v>21.61</v>
-      </c>
-      <c r="D106" t="n">
-        <v>21.61</v>
-      </c>
-      <c r="E106" t="n">
-        <v>21.61</v>
-      </c>
-      <c r="F106" t="n">
-        <v>18300</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-646278.5300209196</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="C107" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D107" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E107" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F107" t="n">
-        <v>4400</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-650678.5300209196</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="C108" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="D108" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="E108" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="F108" t="n">
-        <v>4400</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-655078.5300209196</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="C109" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D109" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E109" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F109" t="n">
-        <v>4364.2357</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-650714.2943209197</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
@@ -4431,7 +4157,7 @@
         <v>-654713.3548209197</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4464,7 +4190,7 @@
         <v>-654348.1796209196</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4497,7 +4223,7 @@
         <v>-654348.1796209196</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4530,7 +4256,7 @@
         <v>-654348.1796209196</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4563,7 +4289,7 @@
         <v>-787401.5183209196</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4596,7 +4322,7 @@
         <v>-783005.0228209196</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4629,7 +4355,7 @@
         <v>-783005.0228209196</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4662,7 +4388,7 @@
         <v>-783005.0228209196</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4728,7 +4454,7 @@
         <v>-783005.0228209196</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4761,7 +4487,7 @@
         <v>-783005.0228209196</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4794,7 +4520,7 @@
         <v>-784790.6855209196</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4860,7 +4586,7 @@
         <v>-769441.6327209197</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4893,7 +4619,7 @@
         <v>-769395.4721209197</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4926,7 +4652,7 @@
         <v>-646728.8888626597</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4959,7 +4685,7 @@
         <v>-652361.3118626596</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4992,7 +4718,7 @@
         <v>-648393.6134626596</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5025,7 +4751,7 @@
         <v>-646156.5665626597</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5058,7 +4784,7 @@
         <v>-768823.1497626597</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5091,7 +4817,7 @@
         <v>-766490.2071626597</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5124,7 +4850,7 @@
         <v>-766540.2071626597</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5157,7 +4883,7 @@
         <v>-775859.2071626597</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5190,7 +4916,7 @@
         <v>-775829.1992626598</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5223,7 +4949,7 @@
         <v>-787496.6528626598</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5256,7 +4982,7 @@
         <v>-780406.6528626598</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5289,7 +5015,7 @@
         <v>-782715.6805626597</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5322,7 +5048,7 @@
         <v>-782715.6805626597</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5355,7 +5081,7 @@
         <v>-775499.2960626597</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5388,7 +5114,7 @@
         <v>-775499.2960626597</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5421,7 +5147,7 @@
         <v>-787180.0244626597</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5454,7 +5180,7 @@
         <v>-787180.0244626597</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5487,7 +5213,7 @@
         <v>-787180.0244626597</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5520,7 +5246,7 @@
         <v>-787180.0244626597</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5553,7 +5279,7 @@
         <v>-846230.7206626597</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5586,7 +5312,7 @@
         <v>-846230.7206626597</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5619,7 +5345,7 @@
         <v>-846230.7206626597</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5652,7 +5378,7 @@
         <v>-821018.7179626598</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5685,7 +5411,7 @@
         <v>-823651.8131626598</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5718,7 +5444,7 @@
         <v>-823651.8131626598</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5751,7 +5477,7 @@
         <v>-823651.8131626598</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5784,7 +5510,7 @@
         <v>-1095361.57016266</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5817,7 +5543,7 @@
         <v>-1095361.57016266</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5850,7 +5576,7 @@
         <v>-1088058.75366266</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5883,7 +5609,7 @@
         <v>-1090394.81916266</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6147,7 +5873,7 @@
         <v>-1249620.03446266</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6213,7 +5939,7 @@
         <v>-1249595.03446266</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6345,7 +6071,7 @@
         <v>-1249894.03446266</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6411,7 +6137,7 @@
         <v>-1367153.20466266</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6477,7 +6203,7 @@
         <v>-1380789.20466266</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6543,7 +6269,7 @@
         <v>-1380789.20466266</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6741,7 +6467,7 @@
         <v>-1430040.31876266</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7368,7 +7094,7 @@
         <v>-1447720.83276266</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7401,7 +7127,7 @@
         <v>-1452720.83276266</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7698,7 +7424,7 @@
         <v>-1537244.18636266</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7731,7 +7457,7 @@
         <v>-1537244.18636266</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7764,7 +7490,7 @@
         <v>-1537219.18636266</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7797,7 +7523,7 @@
         <v>-1537601.37026266</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7830,7 +7556,7 @@
         <v>-1537601.37026266</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8457,11 +8183,17 @@
         <v>-2044895.01656266</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>21.2</v>
+      </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8490,17 +8222,23 @@
         <v>-2043888.58426266</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>21.1</v>
+      </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
       <c r="M233" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest WAXP.xlsx
+++ b/BackTest/2020-01-15 BackTest WAXP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-132729.57545999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-132715.67385999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1507,10 +1507,14 @@
         <v>-715732.3382903599</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>20.71</v>
+      </c>
+      <c r="J34" t="n">
+        <v>20.71</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
@@ -1543,8 +1547,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>20.71</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1586,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>20.71</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -2959,17 +2975,11 @@
         <v>-1110536.52706392</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>21.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2998,17 +3008,11 @@
         <v>-1104544.93326392</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>21.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3037,17 +3041,11 @@
         <v>-1104544.93326392</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>21.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3076,17 +3074,11 @@
         <v>-1078384.33326392</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>21.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3115,17 +3107,11 @@
         <v>-1078384.33326392</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>21.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3154,17 +3140,11 @@
         <v>-1038948.79616392</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>21.4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3193,17 +3173,11 @@
         <v>-906776.0994209198</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>21.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3232,17 +3206,11 @@
         <v>-882933.7362209198</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>21.69</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3271,15 +3239,11 @@
         <v>-889564.9432209198</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3308,15 +3272,11 @@
         <v>-889564.9432209198</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3345,15 +3305,11 @@
         <v>-889514.9432209198</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3382,15 +3338,11 @@
         <v>-889514.9432209198</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3419,15 +3371,11 @@
         <v>-889690.7137209198</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3460,11 +3408,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3497,11 +3441,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3534,11 +3474,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3571,11 +3507,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3608,11 +3540,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3641,15 +3569,11 @@
         <v>-712750.0813209197</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3682,11 +3606,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3719,11 +3639,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3756,11 +3672,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3793,11 +3705,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3830,11 +3738,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3867,11 +3771,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3904,11 +3804,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3941,11 +3837,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3978,11 +3870,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +3903,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4052,11 +3936,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4089,11 +3969,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4122,16 +3998,14 @@
         <v>-650714.2943209197</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
       <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
@@ -4157,7 +4031,7 @@
         <v>-654713.3548209197</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4223,7 +4097,7 @@
         <v>-654348.1796209196</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4619,7 +4493,7 @@
         <v>-769395.4721209197</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4652,7 +4526,7 @@
         <v>-646728.8888626597</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4685,7 +4559,7 @@
         <v>-652361.3118626596</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4718,7 +4592,7 @@
         <v>-648393.6134626596</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4751,7 +4625,7 @@
         <v>-646156.5665626597</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4784,7 +4658,7 @@
         <v>-768823.1497626597</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4817,7 +4691,7 @@
         <v>-766490.2071626597</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4850,7 +4724,7 @@
         <v>-766540.2071626597</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4883,7 +4757,7 @@
         <v>-775859.2071626597</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4916,7 +4790,7 @@
         <v>-775829.1992626598</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4949,7 +4823,7 @@
         <v>-787496.6528626598</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4982,7 +4856,7 @@
         <v>-780406.6528626598</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5015,7 +4889,7 @@
         <v>-782715.6805626597</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5048,7 +4922,7 @@
         <v>-782715.6805626597</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5081,7 +4955,7 @@
         <v>-775499.2960626597</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5114,7 +4988,7 @@
         <v>-775499.2960626597</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5147,7 +5021,7 @@
         <v>-787180.0244626597</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5180,7 +5054,7 @@
         <v>-787180.0244626597</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5213,7 +5087,7 @@
         <v>-787180.0244626597</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5246,7 +5120,7 @@
         <v>-787180.0244626597</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5279,7 +5153,7 @@
         <v>-846230.7206626597</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5312,7 +5186,7 @@
         <v>-846230.7206626597</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5345,7 +5219,7 @@
         <v>-846230.7206626597</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5378,7 +5252,7 @@
         <v>-821018.7179626598</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5411,7 +5285,7 @@
         <v>-823651.8131626598</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5444,7 +5318,7 @@
         <v>-823651.8131626598</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5477,7 +5351,7 @@
         <v>-823651.8131626598</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5510,7 +5384,7 @@
         <v>-1095361.57016266</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5543,7 +5417,7 @@
         <v>-1095361.57016266</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5576,7 +5450,7 @@
         <v>-1088058.75366266</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5609,7 +5483,7 @@
         <v>-1090394.81916266</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5873,7 +5747,7 @@
         <v>-1249620.03446266</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5939,7 +5813,7 @@
         <v>-1249595.03446266</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6203,7 +6077,7 @@
         <v>-1380789.20466266</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6269,7 +6143,7 @@
         <v>-1380789.20466266</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6566,10 +6440,14 @@
         <v>-1422944.94236266</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="J183" t="n">
+        <v>21.35</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
@@ -6599,11 +6477,19 @@
         <v>-1422944.94236266</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="J184" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6635,8 +6521,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -8150,11 +8042,17 @@
         <v>-1891316.25966266</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>21.32</v>
+      </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8183,15 +8081,13 @@
         <v>-2044895.01656266</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>21.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L232" t="n">
@@ -8222,11 +8118,9 @@
         <v>-2043888.58426266</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>21.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
@@ -8239,6 +8133,6 @@
       <c r="M233" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest WAXP.xlsx
+++ b/BackTest/2020-01-15 BackTest WAXP.xlsx
@@ -451,7 +451,7 @@
         <v>-132729.57545999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -1507,14 +1507,10 @@
         <v>-715732.3382903599</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>20.71</v>
-      </c>
-      <c r="J34" t="n">
-        <v>20.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
@@ -1547,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>20.71</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1586,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>20.71</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -3140,7 +3124,7 @@
         <v>-1038948.79616392</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3173,7 +3157,7 @@
         <v>-906776.0994209198</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3206,7 +3190,7 @@
         <v>-882933.7362209198</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3239,7 +3223,7 @@
         <v>-889564.9432209198</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3272,7 +3256,7 @@
         <v>-889564.9432209198</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3305,7 +3289,7 @@
         <v>-889514.9432209198</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3338,7 +3322,7 @@
         <v>-889514.9432209198</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3371,7 +3355,7 @@
         <v>-889690.7137209198</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3569,7 +3553,7 @@
         <v>-712750.0813209197</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3866,7 +3850,7 @@
         <v>-627978.5300209196</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3899,7 +3883,7 @@
         <v>-646278.5300209196</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3932,7 +3916,7 @@
         <v>-650678.5300209196</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4163,7 +4147,7 @@
         <v>-787401.5183209196</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4559,7 +4543,7 @@
         <v>-652361.3118626596</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4592,7 +4576,7 @@
         <v>-648393.6134626596</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4625,7 +4609,7 @@
         <v>-646156.5665626597</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4658,7 +4642,7 @@
         <v>-768823.1497626597</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -6440,14 +6424,10 @@
         <v>-1422944.94236266</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>21.35</v>
-      </c>
-      <c r="J183" t="n">
-        <v>21.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
@@ -6477,157 +6457,159 @@
         <v>-1422944.94236266</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="J184" t="n">
-        <v>21.35</v>
-      </c>
-      <c r="K184" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="C185" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="D185" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="E185" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="F185" t="n">
+        <v>67992.3173</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-1490937.25966266</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="C186" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="D186" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="E186" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="F186" t="n">
+        <v>5089.7232</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-1485847.53646266</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="J186" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="C187" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="D187" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E187" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="F187" t="n">
+        <v>25479.6038</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-1460367.93266266</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="K187" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="C188" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="D188" t="n">
+        <v>21.74</v>
+      </c>
+      <c r="E188" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="F188" t="n">
+        <v>30958.3935</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-1491326.32616266</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
         <v>21.33</v>
       </c>
-      <c r="C185" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="D185" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="E185" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="F185" t="n">
-        <v>67992.3173</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-1490937.25966266</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>21.35</v>
-      </c>
-      <c r="K185" t="inlineStr">
+      <c r="K188" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>21.61</v>
-      </c>
-      <c r="C186" t="n">
-        <v>21.61</v>
-      </c>
-      <c r="D186" t="n">
-        <v>21.61</v>
-      </c>
-      <c r="E186" t="n">
-        <v>21.61</v>
-      </c>
-      <c r="F186" t="n">
-        <v>5089.7232</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-1485847.53646266</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="C187" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="D187" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="E187" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="F187" t="n">
-        <v>25479.6038</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-1460367.93266266</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C188" t="n">
-        <v>21.35</v>
-      </c>
-      <c r="D188" t="n">
-        <v>21.74</v>
-      </c>
-      <c r="E188" t="n">
-        <v>21.35</v>
-      </c>
-      <c r="F188" t="n">
-        <v>30958.3935</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-1491326.32616266</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7712,10 +7694,14 @@
         <v>-1796956.48886266</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="J221" t="n">
+        <v>21.4</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
@@ -7745,11 +7731,19 @@
         <v>-1796956.48886266</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="J222" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7778,11 +7772,19 @@
         <v>-1796956.48886266</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="J223" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7811,10 +7813,14 @@
         <v>-1796956.48886266</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="J224" t="n">
+        <v>21.4</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
@@ -7844,11 +7850,19 @@
         <v>-1796956.48886266</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="J225" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7877,11 +7891,19 @@
         <v>-1796956.48886266</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="J226" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7910,10 +7932,14 @@
         <v>-1796956.48886266</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="J227" t="n">
+        <v>21.4</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
@@ -7943,11 +7969,19 @@
         <v>-1808356.48886266</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="J228" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7976,11 +8010,19 @@
         <v>-1816056.48886266</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="J229" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8009,11 +8051,19 @@
         <v>-1816056.48886266</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="J230" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8047,10 +8097,12 @@
       <c r="I231" t="n">
         <v>21.32</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>21.4</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L231" t="n">
@@ -8081,10 +8133,14 @@
         <v>-2044895.01656266</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="J232" t="n">
+        <v>21.4</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8118,10 +8174,14 @@
         <v>-2043888.58426266</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="J233" t="n">
+        <v>21.4</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-15 BackTest WAXP.xlsx
+++ b/BackTest/2020-01-15 BackTest WAXP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M233"/>
+  <dimension ref="A1:L233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>500</v>
       </c>
       <c r="G2" t="n">
-        <v>-132729.57545999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,19 @@
         <v>6215.1588</v>
       </c>
       <c r="G3" t="n">
-        <v>-138944.73425999</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="I3" t="n">
+        <v>21</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +507,23 @@
         <v>6215.1587</v>
       </c>
       <c r="G4" t="n">
-        <v>-138944.73425999</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>20.95</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +545,23 @@
         <v>6215.1587</v>
       </c>
       <c r="G5" t="n">
-        <v>-132729.57555999</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>20.95</v>
+      </c>
+      <c r="I5" t="n">
+        <v>21</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +583,19 @@
         <v>9711.980600000001</v>
       </c>
       <c r="G6" t="n">
-        <v>-123017.59495999</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="I6" t="n">
+        <v>21</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +617,21 @@
         <v>43829.0014</v>
       </c>
       <c r="G7" t="n">
-        <v>-166846.59635999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>21</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +653,21 @@
         <v>73.0146</v>
       </c>
       <c r="G8" t="n">
-        <v>-166773.58175999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>21</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +689,21 @@
         <v>7531.5265</v>
       </c>
       <c r="G9" t="n">
-        <v>-159242.05525999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>21</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +725,21 @@
         <v>10270.0784</v>
       </c>
       <c r="G10" t="n">
-        <v>-159242.05525999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>21</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +761,21 @@
         <v>14689</v>
       </c>
       <c r="G11" t="n">
-        <v>-144553.05525999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>21</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +797,21 @@
         <v>1669.6186</v>
       </c>
       <c r="G12" t="n">
-        <v>-146222.67385999</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>21</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +833,21 @@
         <v>832</v>
       </c>
       <c r="G13" t="n">
-        <v>-146222.67385999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>21</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +869,21 @@
         <v>16000</v>
       </c>
       <c r="G14" t="n">
-        <v>-130222.67385999</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>21</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +905,21 @@
         <v>2493</v>
       </c>
       <c r="G15" t="n">
-        <v>-132715.67385999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>21</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +941,21 @@
         <v>3540</v>
       </c>
       <c r="G16" t="n">
-        <v>-132715.67385999</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>21</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +977,21 @@
         <v>5100</v>
       </c>
       <c r="G17" t="n">
-        <v>-132715.67385999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>21</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +1013,21 @@
         <v>11724.2172</v>
       </c>
       <c r="G18" t="n">
-        <v>-144439.89105999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>21</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1049,21 @@
         <v>50751.4219</v>
       </c>
       <c r="G19" t="n">
-        <v>-93688.46915998998</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>21</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1085,21 @@
         <v>7364.6816</v>
       </c>
       <c r="G20" t="n">
-        <v>-101053.15075999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>21</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1121,21 @@
         <v>2000</v>
       </c>
       <c r="G21" t="n">
-        <v>-101053.15075999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>21</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1157,21 @@
         <v>204596.8028</v>
       </c>
       <c r="G22" t="n">
-        <v>-305649.95355999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>21</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1193,21 @@
         <v>49.2809</v>
       </c>
       <c r="G23" t="n">
-        <v>-305649.95355999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>21</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1229,21 @@
         <v>80215.617</v>
       </c>
       <c r="G24" t="n">
-        <v>-385865.57055999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>21</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1265,21 @@
         <v>7866.05866963</v>
       </c>
       <c r="G25" t="n">
-        <v>-377999.51189036</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>21</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1301,21 @@
         <v>7364.6816</v>
       </c>
       <c r="G26" t="n">
-        <v>-385364.19349036</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>21</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1337,21 @@
         <v>2416.3363</v>
       </c>
       <c r="G27" t="n">
-        <v>-385364.19349036</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>21</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1373,21 @@
         <v>144040.3381</v>
       </c>
       <c r="G28" t="n">
-        <v>-529404.53159036</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>21</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1409,21 @@
         <v>82257.68610000001</v>
       </c>
       <c r="G29" t="n">
-        <v>-611662.21769036</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>21</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1445,21 @@
         <v>65124.3585</v>
       </c>
       <c r="G30" t="n">
-        <v>-676786.57619036</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>21</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1481,21 @@
         <v>44602.6059</v>
       </c>
       <c r="G31" t="n">
-        <v>-721389.18209036</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>21</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1517,21 @@
         <v>21554.4772</v>
       </c>
       <c r="G32" t="n">
-        <v>-742943.6592903599</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>21</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1553,23 @@
         <v>1611.321</v>
       </c>
       <c r="G33" t="n">
-        <v>-741332.3382903599</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>20.7</v>
+      </c>
+      <c r="I33" t="n">
+        <v>21</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1591,23 @@
         <v>25600</v>
       </c>
       <c r="G34" t="n">
-        <v>-715732.3382903599</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>20.71</v>
+      </c>
+      <c r="I34" t="n">
+        <v>21</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1629,21 @@
         <v>1521.0485</v>
       </c>
       <c r="G35" t="n">
-        <v>-714211.2897903599</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>21</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1665,23 @@
         <v>90.27249999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>-714211.2897903599</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>20.95</v>
+      </c>
+      <c r="I36" t="n">
+        <v>21</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1703,21 @@
         <v>2483.6059</v>
       </c>
       <c r="G37" t="n">
-        <v>-711727.6838903599</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>21</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1739,23 @@
         <v>52</v>
       </c>
       <c r="G38" t="n">
-        <v>-711779.6838903599</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>20.96</v>
+      </c>
+      <c r="I38" t="n">
+        <v>21</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1777,23 @@
         <v>991.448</v>
       </c>
       <c r="G39" t="n">
-        <v>-710788.23589036</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>20.95</v>
+      </c>
+      <c r="I39" t="n">
+        <v>21</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1815,23 @@
         <v>3706.913</v>
       </c>
       <c r="G40" t="n">
-        <v>-710788.23589036</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>21.13</v>
+      </c>
+      <c r="I40" t="n">
+        <v>21</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1853,23 @@
         <v>5100</v>
       </c>
       <c r="G41" t="n">
-        <v>-705688.23589036</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>21.13</v>
+      </c>
+      <c r="I41" t="n">
+        <v>21</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1891,21 @@
         <v>13998.1728</v>
       </c>
       <c r="G42" t="n">
-        <v>-719686.4086903599</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>21</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1927,21 @@
         <v>17804.4402</v>
       </c>
       <c r="G43" t="n">
-        <v>-719686.4086903599</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>21</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1963,21 @@
         <v>49368.4616</v>
       </c>
       <c r="G44" t="n">
-        <v>-719686.4086903599</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>21</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1999,21 @@
         <v>44703.7014</v>
       </c>
       <c r="G45" t="n">
-        <v>-764390.1100903599</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>21</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +2035,21 @@
         <v>30000</v>
       </c>
       <c r="G46" t="n">
-        <v>-794390.1100903599</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>21</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +2071,21 @@
         <v>156088.53939746</v>
       </c>
       <c r="G47" t="n">
-        <v>-638301.5706928999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>21</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2107,21 @@
         <v>198</v>
       </c>
       <c r="G48" t="n">
-        <v>-638499.5706928999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>21</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2143,21 @@
         <v>23741.3531</v>
       </c>
       <c r="G49" t="n">
-        <v>-662240.9237928998</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>21</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2179,21 @@
         <v>265521.8439</v>
       </c>
       <c r="G50" t="n">
-        <v>-927762.7676928998</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>21</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2215,21 @@
         <v>13682.9334</v>
       </c>
       <c r="G51" t="n">
-        <v>-914079.8342928998</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>21</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2251,21 @@
         <v>955.3519</v>
       </c>
       <c r="G52" t="n">
-        <v>-913124.4823928998</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>21</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2287,21 @@
         <v>95529.48170254</v>
       </c>
       <c r="G53" t="n">
-        <v>-817595.0006903599</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>21</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2323,21 @@
         <v>71763.61119746001</v>
       </c>
       <c r="G54" t="n">
-        <v>-745831.3894928999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>21</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2359,21 @@
         <v>2235.306</v>
       </c>
       <c r="G55" t="n">
-        <v>-748066.6954928999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>21</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2395,21 @@
         <v>19879.891</v>
       </c>
       <c r="G56" t="n">
-        <v>-767946.5864928998</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>21</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2431,21 @@
         <v>56290.5296</v>
       </c>
       <c r="G57" t="n">
-        <v>-824237.1160928998</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>21</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2467,21 @@
         <v>61348.8117</v>
       </c>
       <c r="G58" t="n">
-        <v>-762888.3043928999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>21</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2503,21 @@
         <v>22292.7101</v>
       </c>
       <c r="G59" t="n">
-        <v>-740595.5942928998</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>21</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2539,21 @@
         <v>187258.3614</v>
       </c>
       <c r="G60" t="n">
-        <v>-927853.9556928999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>21</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2575,21 @@
         <v>4063.9426</v>
       </c>
       <c r="G61" t="n">
-        <v>-927853.9556928999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>21</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2611,21 @@
         <v>1000</v>
       </c>
       <c r="G62" t="n">
-        <v>-926853.9556928999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>21</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2647,21 @@
         <v>11551.1406</v>
       </c>
       <c r="G63" t="n">
-        <v>-938405.0962928999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>21</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2683,21 @@
         <v>163</v>
       </c>
       <c r="G64" t="n">
-        <v>-938242.0962928999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>21</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2719,21 @@
         <v>6790.7715</v>
       </c>
       <c r="G65" t="n">
-        <v>-945032.8677929</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>21</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2755,21 @@
         <v>8279.234200000001</v>
       </c>
       <c r="G66" t="n">
-        <v>-953312.1019928999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>21</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2791,21 @@
         <v>13589.1472</v>
       </c>
       <c r="G67" t="n">
-        <v>-953312.1019928999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>21</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2827,21 @@
         <v>58</v>
       </c>
       <c r="G68" t="n">
-        <v>-953254.1019928999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>21</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2863,21 @@
         <v>4687.4511</v>
       </c>
       <c r="G69" t="n">
-        <v>-957941.5530928998</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>21</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2899,21 @@
         <v>45127.9702</v>
       </c>
       <c r="G70" t="n">
-        <v>-1003069.5232929</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>21</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2935,21 @@
         <v>58</v>
       </c>
       <c r="G71" t="n">
-        <v>-1003011.5232929</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>21</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2971,21 @@
         <v>61780.8305</v>
       </c>
       <c r="G72" t="n">
-        <v>-1064792.3537929</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>21</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +3007,21 @@
         <v>576</v>
       </c>
       <c r="G73" t="n">
-        <v>-1064216.3537929</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>21</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +3043,21 @@
         <v>23368.57194299</v>
       </c>
       <c r="G74" t="n">
-        <v>-1040847.78184991</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>21</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +3079,21 @@
         <v>37627.29611401</v>
       </c>
       <c r="G75" t="n">
-        <v>-1078475.07796392</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>21</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +3115,21 @@
         <v>21180.6067</v>
       </c>
       <c r="G76" t="n">
-        <v>-1099655.68466392</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>21</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +3151,21 @@
         <v>10880.8424</v>
       </c>
       <c r="G77" t="n">
-        <v>-1110536.52706392</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>21</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +3187,21 @@
         <v>16798.8443</v>
       </c>
       <c r="G78" t="n">
-        <v>-1110536.52706392</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>21</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +3223,21 @@
         <v>5991.5938</v>
       </c>
       <c r="G79" t="n">
-        <v>-1104544.93326392</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>21</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3259,21 @@
         <v>1992</v>
       </c>
       <c r="G80" t="n">
-        <v>-1104544.93326392</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>21</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3295,21 @@
         <v>26160.6</v>
       </c>
       <c r="G81" t="n">
-        <v>-1078384.33326392</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>21</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3331,21 @@
         <v>442.0194</v>
       </c>
       <c r="G82" t="n">
-        <v>-1078384.33326392</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>21</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3367,21 @@
         <v>39435.5371</v>
       </c>
       <c r="G83" t="n">
-        <v>-1038948.79616392</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>21</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3403,21 @@
         <v>132172.696743</v>
       </c>
       <c r="G84" t="n">
-        <v>-906776.0994209198</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>21</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3439,21 @@
         <v>23842.3632</v>
       </c>
       <c r="G85" t="n">
-        <v>-882933.7362209198</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>21</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3475,21 @@
         <v>6631.207</v>
       </c>
       <c r="G86" t="n">
-        <v>-889564.9432209198</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>21</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3511,21 @@
         <v>40419.5248</v>
       </c>
       <c r="G87" t="n">
-        <v>-889564.9432209198</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>21</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3547,21 @@
         <v>50</v>
       </c>
       <c r="G88" t="n">
-        <v>-889514.9432209198</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>21</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3583,21 @@
         <v>809.8564</v>
       </c>
       <c r="G89" t="n">
-        <v>-889514.9432209198</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>21</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3619,21 @@
         <v>175.7705</v>
       </c>
       <c r="G90" t="n">
-        <v>-889690.7137209198</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>21</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3655,21 @@
         <v>11199.253</v>
       </c>
       <c r="G91" t="n">
-        <v>-878491.4607209198</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>21</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3691,21 @@
         <v>3918.5319</v>
       </c>
       <c r="G92" t="n">
-        <v>-878491.4607209198</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>21</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3727,21 @@
         <v>9938.7305</v>
       </c>
       <c r="G93" t="n">
-        <v>-888430.1912209197</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>21</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3763,21 @@
         <v>4400</v>
       </c>
       <c r="G94" t="n">
-        <v>-888430.1912209197</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>21</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3799,21 @@
         <v>11092.751</v>
       </c>
       <c r="G95" t="n">
-        <v>-877337.4402209197</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>21</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3835,21 @@
         <v>164587.3589</v>
       </c>
       <c r="G96" t="n">
-        <v>-712750.0813209197</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>21</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3871,21 @@
         <v>161904.7887</v>
       </c>
       <c r="G97" t="n">
-        <v>-712750.0813209197</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>21</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3907,21 @@
         <v>96635.77589999999</v>
       </c>
       <c r="G98" t="n">
-        <v>-616114.3054209197</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>21</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3943,21 @@
         <v>985</v>
       </c>
       <c r="G99" t="n">
-        <v>-617099.3054209197</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>21</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3979,21 @@
         <v>16347.0378</v>
       </c>
       <c r="G100" t="n">
-        <v>-633446.3432209197</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>21</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +4015,21 @@
         <v>11216</v>
       </c>
       <c r="G101" t="n">
-        <v>-622230.3432209197</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>21</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +4051,21 @@
         <v>6115.5718</v>
       </c>
       <c r="G102" t="n">
-        <v>-616114.7714209197</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>21</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1.037857142857143</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +4087,15 @@
         <v>44856</v>
       </c>
       <c r="G103" t="n">
-        <v>-616114.7714209197</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +4117,15 @@
         <v>47186.9376</v>
       </c>
       <c r="G104" t="n">
-        <v>-616114.7714209197</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +4147,15 @@
         <v>11863.7586</v>
       </c>
       <c r="G105" t="n">
-        <v>-627978.5300209196</v>
-      </c>
-      <c r="H105" t="n">
         <v>2</v>
       </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +4177,15 @@
         <v>18300</v>
       </c>
       <c r="G106" t="n">
-        <v>-646278.5300209196</v>
-      </c>
-      <c r="H106" t="n">
         <v>2</v>
       </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +4207,15 @@
         <v>4400</v>
       </c>
       <c r="G107" t="n">
-        <v>-650678.5300209196</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +4237,15 @@
         <v>4400</v>
       </c>
       <c r="G108" t="n">
-        <v>-655078.5300209196</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +4267,15 @@
         <v>4364.2357</v>
       </c>
       <c r="G109" t="n">
-        <v>-650714.2943209197</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +4297,15 @@
         <v>3999.0605</v>
       </c>
       <c r="G110" t="n">
-        <v>-654713.3548209197</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +4327,15 @@
         <v>365.1752</v>
       </c>
       <c r="G111" t="n">
-        <v>-654348.1796209196</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +4357,15 @@
         <v>365.1752</v>
       </c>
       <c r="G112" t="n">
-        <v>-654348.1796209196</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +4387,15 @@
         <v>365.1752</v>
       </c>
       <c r="G113" t="n">
-        <v>-654348.1796209196</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4417,15 @@
         <v>133053.3387</v>
       </c>
       <c r="G114" t="n">
-        <v>-787401.5183209196</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4447,15 @@
         <v>4396.4955</v>
       </c>
       <c r="G115" t="n">
-        <v>-783005.0228209196</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4477,15 @@
         <v>62175.4013</v>
       </c>
       <c r="G116" t="n">
-        <v>-783005.0228209196</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4507,15 @@
         <v>11000</v>
       </c>
       <c r="G117" t="n">
-        <v>-783005.0228209196</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4537,15 @@
         <v>8000</v>
       </c>
       <c r="G118" t="n">
-        <v>-783005.0228209196</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4567,15 @@
         <v>53772.674</v>
       </c>
       <c r="G119" t="n">
-        <v>-783005.0228209196</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4597,15 @@
         <v>3000</v>
       </c>
       <c r="G120" t="n">
-        <v>-783005.0228209196</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4627,15 @@
         <v>1785.6627</v>
       </c>
       <c r="G121" t="n">
-        <v>-784790.6855209196</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4657,15 @@
         <v>5995.8557</v>
       </c>
       <c r="G122" t="n">
-        <v>-778794.8298209197</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4687,15 @@
         <v>9353.197099999999</v>
       </c>
       <c r="G123" t="n">
-        <v>-769441.6327209197</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4717,15 @@
         <v>46.1606</v>
       </c>
       <c r="G124" t="n">
-        <v>-769395.4721209197</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4747,15 @@
         <v>122666.58325826</v>
       </c>
       <c r="G125" t="n">
-        <v>-646728.8888626597</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4777,15 @@
         <v>5632.423</v>
       </c>
       <c r="G126" t="n">
-        <v>-652361.3118626596</v>
-      </c>
-      <c r="H126" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4807,15 @@
         <v>3967.6984</v>
       </c>
       <c r="G127" t="n">
-        <v>-648393.6134626596</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4837,15 @@
         <v>2237.0469</v>
       </c>
       <c r="G128" t="n">
-        <v>-646156.5665626597</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4867,15 @@
         <v>122666.5832</v>
       </c>
       <c r="G129" t="n">
-        <v>-768823.1497626597</v>
-      </c>
-      <c r="H129" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4897,15 @@
         <v>2332.9426</v>
       </c>
       <c r="G130" t="n">
-        <v>-766490.2071626597</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4927,15 @@
         <v>50</v>
       </c>
       <c r="G131" t="n">
-        <v>-766540.2071626597</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4957,15 @@
         <v>9319</v>
       </c>
       <c r="G132" t="n">
-        <v>-775859.2071626597</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4987,15 @@
         <v>30.0079</v>
       </c>
       <c r="G133" t="n">
-        <v>-775829.1992626598</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +5017,15 @@
         <v>11667.4536</v>
       </c>
       <c r="G134" t="n">
-        <v>-787496.6528626598</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +5047,15 @@
         <v>7090</v>
       </c>
       <c r="G135" t="n">
-        <v>-780406.6528626598</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +5077,15 @@
         <v>2309.0277</v>
       </c>
       <c r="G136" t="n">
-        <v>-782715.6805626597</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +5107,15 @@
         <v>6950.5223</v>
       </c>
       <c r="G137" t="n">
-        <v>-782715.6805626597</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +5137,15 @@
         <v>7216.3845</v>
       </c>
       <c r="G138" t="n">
-        <v>-775499.2960626597</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +5167,15 @@
         <v>272.8636</v>
       </c>
       <c r="G139" t="n">
-        <v>-775499.2960626597</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +5197,15 @@
         <v>11680.7284</v>
       </c>
       <c r="G140" t="n">
-        <v>-787180.0244626597</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +5227,15 @@
         <v>6003.8462</v>
       </c>
       <c r="G141" t="n">
-        <v>-787180.0244626597</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +5257,15 @@
         <v>3848.3524</v>
       </c>
       <c r="G142" t="n">
-        <v>-787180.0244626597</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +5287,15 @@
         <v>39366.7979</v>
       </c>
       <c r="G143" t="n">
-        <v>-787180.0244626597</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +5317,15 @@
         <v>59050.6962</v>
       </c>
       <c r="G144" t="n">
-        <v>-846230.7206626597</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +5347,15 @@
         <v>626.1446</v>
       </c>
       <c r="G145" t="n">
-        <v>-846230.7206626597</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +5377,15 @@
         <v>33263.7995</v>
       </c>
       <c r="G146" t="n">
-        <v>-846230.7206626597</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +5407,15 @@
         <v>25212.0027</v>
       </c>
       <c r="G147" t="n">
-        <v>-821018.7179626598</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +5437,15 @@
         <v>2633.0952</v>
       </c>
       <c r="G148" t="n">
-        <v>-823651.8131626598</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +5467,15 @@
         <v>16579.7722</v>
       </c>
       <c r="G149" t="n">
-        <v>-823651.8131626598</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +5497,15 @@
         <v>29459.6627</v>
       </c>
       <c r="G150" t="n">
-        <v>-823651.8131626598</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5527,15 @@
         <v>271709.757</v>
       </c>
       <c r="G151" t="n">
-        <v>-1095361.57016266</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5557,15 @@
         <v>599</v>
       </c>
       <c r="G152" t="n">
-        <v>-1095361.57016266</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5587,15 @@
         <v>7302.8165</v>
       </c>
       <c r="G153" t="n">
-        <v>-1088058.75366266</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5617,15 @@
         <v>2336.0655</v>
       </c>
       <c r="G154" t="n">
-        <v>-1090394.81916266</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5647,15 @@
         <v>152410.124</v>
       </c>
       <c r="G155" t="n">
-        <v>-1242804.94316266</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5677,15 @@
         <v>9865.874900000001</v>
       </c>
       <c r="G156" t="n">
-        <v>-1252670.81806266</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5707,15 @@
         <v>68755.6652</v>
       </c>
       <c r="G157" t="n">
-        <v>-1252670.81806266</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5737,15 @@
         <v>2012.1123</v>
       </c>
       <c r="G158" t="n">
-        <v>-1250658.70576266</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5767,15 @@
         <v>30542.1583</v>
       </c>
       <c r="G159" t="n">
-        <v>-1250658.70576266</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5797,15 @@
         <v>1038.6713</v>
       </c>
       <c r="G160" t="n">
-        <v>-1249620.03446266</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5827,15 @@
         <v>500</v>
       </c>
       <c r="G161" t="n">
-        <v>-1249620.03446266</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5857,15 @@
         <v>3356.1842</v>
       </c>
       <c r="G162" t="n">
-        <v>-1249620.03446266</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5887,15 @@
         <v>225</v>
       </c>
       <c r="G163" t="n">
-        <v>-1249395.03446266</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5917,15 @@
         <v>200</v>
       </c>
       <c r="G164" t="n">
-        <v>-1249595.03446266</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5947,15 @@
         <v>985.2352</v>
       </c>
       <c r="G165" t="n">
-        <v>-1249595.03446266</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5977,15 @@
         <v>201</v>
       </c>
       <c r="G166" t="n">
-        <v>-1249394.03446266</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +6007,15 @@
         <v>895.4906</v>
       </c>
       <c r="G167" t="n">
-        <v>-1249394.03446266</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +6037,15 @@
         <v>500</v>
       </c>
       <c r="G168" t="n">
-        <v>-1249894.03446266</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +6067,15 @@
         <v>4243.8916</v>
       </c>
       <c r="G169" t="n">
-        <v>-1254137.92606266</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +6097,15 @@
         <v>113015.2786</v>
       </c>
       <c r="G170" t="n">
-        <v>-1367153.20466266</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +6127,15 @@
         <v>35</v>
       </c>
       <c r="G171" t="n">
-        <v>-1367118.20466266</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +6157,15 @@
         <v>13671</v>
       </c>
       <c r="G172" t="n">
-        <v>-1380789.20466266</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +6187,15 @@
         <v>28976</v>
       </c>
       <c r="G173" t="n">
-        <v>-1380789.20466266</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +6217,15 @@
         <v>13200</v>
       </c>
       <c r="G174" t="n">
-        <v>-1380789.20466266</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +6247,15 @@
         <v>262.7731</v>
       </c>
       <c r="G175" t="n">
-        <v>-1380789.20466266</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +6277,15 @@
         <v>12131.861</v>
       </c>
       <c r="G176" t="n">
-        <v>-1392921.06566266</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +6307,15 @@
         <v>100</v>
       </c>
       <c r="G177" t="n">
-        <v>-1392821.06566266</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +6337,15 @@
         <v>100</v>
       </c>
       <c r="G178" t="n">
-        <v>-1392821.06566266</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +6367,15 @@
         <v>37219.2531</v>
       </c>
       <c r="G179" t="n">
-        <v>-1430040.31876266</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +6397,15 @@
         <v>9000</v>
       </c>
       <c r="G180" t="n">
-        <v>-1430040.31876266</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +6427,15 @@
         <v>14181</v>
       </c>
       <c r="G181" t="n">
-        <v>-1430040.31876266</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +6457,15 @@
         <v>20881.4035</v>
       </c>
       <c r="G182" t="n">
-        <v>-1430040.31876266</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +6487,15 @@
         <v>7095.3764</v>
       </c>
       <c r="G183" t="n">
-        <v>-1422944.94236266</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +6517,15 @@
         <v>7313.944</v>
       </c>
       <c r="G184" t="n">
-        <v>-1422944.94236266</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +6547,15 @@
         <v>67992.3173</v>
       </c>
       <c r="G185" t="n">
-        <v>-1490937.25966266</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,22 +6577,15 @@
         <v>5089.7232</v>
       </c>
       <c r="G186" t="n">
-        <v>-1485847.53646266</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="J186" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6557,24 +6607,15 @@
         <v>25479.6038</v>
       </c>
       <c r="G187" t="n">
-        <v>-1460367.93266266</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6596,24 +6637,15 @@
         <v>30958.3935</v>
       </c>
       <c r="G188" t="n">
-        <v>-1491326.32616266</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6635,18 +6667,15 @@
         <v>3095.7045</v>
       </c>
       <c r="G189" t="n">
-        <v>-1488230.62166266</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6668,18 +6697,15 @@
         <v>89341.55160000001</v>
       </c>
       <c r="G190" t="n">
-        <v>-1398889.07006266</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6701,18 +6727,15 @@
         <v>1583.3333</v>
       </c>
       <c r="G191" t="n">
-        <v>-1400472.40336266</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6734,18 +6757,15 @@
         <v>1100</v>
       </c>
       <c r="G192" t="n">
-        <v>-1399372.40336266</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6767,18 +6787,15 @@
         <v>1762.7731</v>
       </c>
       <c r="G193" t="n">
-        <v>-1397609.63026266</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6800,18 +6817,15 @@
         <v>500</v>
       </c>
       <c r="G194" t="n">
-        <v>-1397609.63026266</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6833,18 +6847,15 @@
         <v>500</v>
       </c>
       <c r="G195" t="n">
-        <v>-1397109.63026266</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6866,18 +6877,15 @@
         <v>1000</v>
       </c>
       <c r="G196" t="n">
-        <v>-1397109.63026266</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6899,18 +6907,15 @@
         <v>4200</v>
       </c>
       <c r="G197" t="n">
-        <v>-1401309.63026266</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6932,18 +6937,15 @@
         <v>46411.2025</v>
       </c>
       <c r="G198" t="n">
-        <v>-1447720.83276266</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6965,18 +6967,15 @@
         <v>2298.387</v>
       </c>
       <c r="G199" t="n">
-        <v>-1447720.83276266</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6998,18 +6997,15 @@
         <v>5000</v>
       </c>
       <c r="G200" t="n">
-        <v>-1452720.83276266</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7031,18 +7027,15 @@
         <v>43726.9807</v>
       </c>
       <c r="G201" t="n">
-        <v>-1496447.81346266</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7064,18 +7057,15 @@
         <v>2000</v>
       </c>
       <c r="G202" t="n">
-        <v>-1494447.81346266</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7097,18 +7087,15 @@
         <v>2380.56</v>
       </c>
       <c r="G203" t="n">
-        <v>-1492067.25346266</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7130,18 +7117,15 @@
         <v>1534.5525</v>
       </c>
       <c r="G204" t="n">
-        <v>-1492067.25346266</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7163,18 +7147,15 @@
         <v>1563.8722</v>
       </c>
       <c r="G205" t="n">
-        <v>-1492067.25346266</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7196,18 +7177,15 @@
         <v>26415.1144</v>
       </c>
       <c r="G206" t="n">
-        <v>-1518482.36786266</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7229,18 +7207,15 @@
         <v>13200</v>
       </c>
       <c r="G207" t="n">
-        <v>-1505282.36786266</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7262,18 +7237,15 @@
         <v>31091.4303</v>
       </c>
       <c r="G208" t="n">
-        <v>-1536373.79816266</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7295,18 +7267,15 @@
         <v>870.3882</v>
       </c>
       <c r="G209" t="n">
-        <v>-1537244.18636266</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7328,18 +7297,15 @@
         <v>365.2386</v>
       </c>
       <c r="G210" t="n">
-        <v>-1537244.18636266</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7361,18 +7327,15 @@
         <v>25</v>
       </c>
       <c r="G211" t="n">
-        <v>-1537219.18636266</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7394,18 +7357,15 @@
         <v>382.1839</v>
       </c>
       <c r="G212" t="n">
-        <v>-1537601.37026266</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7427,18 +7387,15 @@
         <v>2279.4789</v>
       </c>
       <c r="G213" t="n">
-        <v>-1537601.37026266</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7460,18 +7417,15 @@
         <v>14159.005</v>
       </c>
       <c r="G214" t="n">
-        <v>-1551760.37526266</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7493,18 +7447,15 @@
         <v>7280.8336</v>
       </c>
       <c r="G215" t="n">
-        <v>-1551760.37526266</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7526,18 +7477,15 @@
         <v>9852.9748</v>
       </c>
       <c r="G216" t="n">
-        <v>-1561613.35006266</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7559,18 +7507,15 @@
         <v>1415.9751</v>
       </c>
       <c r="G217" t="n">
-        <v>-1560197.37496266</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7592,18 +7537,15 @@
         <v>236759.1139</v>
       </c>
       <c r="G218" t="n">
-        <v>-1796956.48886266</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7625,18 +7567,15 @@
         <v>6040.3515</v>
       </c>
       <c r="G219" t="n">
-        <v>-1796956.48886266</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7658,18 +7597,15 @@
         <v>776.5886</v>
       </c>
       <c r="G220" t="n">
-        <v>-1796956.48886266</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7691,22 +7627,15 @@
         <v>1312.5589</v>
       </c>
       <c r="G221" t="n">
-        <v>-1796956.48886266</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="J221" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7728,26 +7657,15 @@
         <v>10685.8684</v>
       </c>
       <c r="G222" t="n">
-        <v>-1796956.48886266</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="J222" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7769,26 +7687,15 @@
         <v>13000</v>
       </c>
       <c r="G223" t="n">
-        <v>-1796956.48886266</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="J223" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7810,22 +7717,15 @@
         <v>3000</v>
       </c>
       <c r="G224" t="n">
-        <v>-1796956.48886266</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="J224" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7847,26 +7747,15 @@
         <v>504.9848</v>
       </c>
       <c r="G225" t="n">
-        <v>-1796956.48886266</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="J225" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7888,26 +7777,15 @@
         <v>200</v>
       </c>
       <c r="G226" t="n">
-        <v>-1796956.48886266</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="J226" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7929,22 +7807,15 @@
         <v>1000</v>
       </c>
       <c r="G227" t="n">
-        <v>-1796956.48886266</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="J227" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7966,26 +7837,15 @@
         <v>11400</v>
       </c>
       <c r="G228" t="n">
-        <v>-1808356.48886266</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="J228" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8007,26 +7867,15 @@
         <v>7700</v>
       </c>
       <c r="G229" t="n">
-        <v>-1816056.48886266</v>
-      </c>
-      <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>21.35</v>
-      </c>
-      <c r="J229" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8048,26 +7897,15 @@
         <v>27734.1712</v>
       </c>
       <c r="G230" t="n">
-        <v>-1816056.48886266</v>
-      </c>
-      <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>21.32</v>
-      </c>
-      <c r="J230" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8089,26 +7927,15 @@
         <v>75259.7708</v>
       </c>
       <c r="G231" t="n">
-        <v>-1891316.25966266</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>21.32</v>
-      </c>
-      <c r="J231" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8130,26 +7957,15 @@
         <v>153578.7569</v>
       </c>
       <c r="G232" t="n">
-        <v>-2044895.01656266</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="J232" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8171,26 +7987,15 @@
         <v>1006.4323</v>
       </c>
       <c r="G233" t="n">
-        <v>-2043888.58426266</v>
-      </c>
-      <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="J233" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
